--- a/maquetas/PAT 2013-2014 - COMPLETO (14-febrero-2013).xlsx
+++ b/maquetas/PAT 2013-2014 - COMPLETO (14-febrero-2013).xlsx
@@ -8909,6 +8909,90 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -8918,51 +9002,417 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="19" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -8972,9 +9422,6 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -8985,453 +9432,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="19" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -9737,10 +9737,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT421"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A264" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A227" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="L271" sqref="L271"/>
+      <selection pane="bottomLeft" activeCell="D227" sqref="D227:D236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -9790,97 +9790,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" s="1" customFormat="1" ht="57.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="544" t="s">
+      <c r="A1" s="384" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="545"/>
-      <c r="C1" s="545"/>
-      <c r="D1" s="545"/>
-      <c r="E1" s="545"/>
-      <c r="F1" s="545"/>
-      <c r="G1" s="545"/>
-      <c r="H1" s="545"/>
-      <c r="I1" s="545"/>
-      <c r="J1" s="545"/>
-      <c r="K1" s="545"/>
-      <c r="L1" s="545"/>
-      <c r="M1" s="545"/>
-      <c r="N1" s="545"/>
-      <c r="O1" s="545"/>
-      <c r="P1" s="545"/>
-      <c r="Q1" s="545"/>
-      <c r="R1" s="545"/>
-      <c r="S1" s="545"/>
-      <c r="T1" s="545"/>
-      <c r="U1" s="545"/>
-      <c r="V1" s="546"/>
-      <c r="W1" s="542" t="s">
+      <c r="B1" s="385"/>
+      <c r="C1" s="385"/>
+      <c r="D1" s="385"/>
+      <c r="E1" s="385"/>
+      <c r="F1" s="385"/>
+      <c r="G1" s="385"/>
+      <c r="H1" s="385"/>
+      <c r="I1" s="385"/>
+      <c r="J1" s="385"/>
+      <c r="K1" s="385"/>
+      <c r="L1" s="385"/>
+      <c r="M1" s="385"/>
+      <c r="N1" s="385"/>
+      <c r="O1" s="385"/>
+      <c r="P1" s="385"/>
+      <c r="Q1" s="385"/>
+      <c r="R1" s="385"/>
+      <c r="S1" s="385"/>
+      <c r="T1" s="385"/>
+      <c r="U1" s="385"/>
+      <c r="V1" s="386"/>
+      <c r="W1" s="382" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="542" t="s">
+      <c r="X1" s="382" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" s="542" t="s">
+      <c r="Y1" s="382" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:45" s="1" customFormat="1" ht="47.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="547" t="s">
+      <c r="A2" s="387" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="548"/>
-      <c r="C2" s="548"/>
-      <c r="D2" s="548"/>
-      <c r="E2" s="548"/>
-      <c r="F2" s="548"/>
-      <c r="G2" s="548"/>
-      <c r="H2" s="548"/>
-      <c r="I2" s="548"/>
-      <c r="J2" s="548"/>
-      <c r="K2" s="548"/>
-      <c r="L2" s="548"/>
-      <c r="M2" s="548"/>
-      <c r="N2" s="548"/>
-      <c r="O2" s="548"/>
-      <c r="P2" s="548"/>
-      <c r="Q2" s="548"/>
-      <c r="R2" s="548"/>
-      <c r="S2" s="548"/>
-      <c r="T2" s="548"/>
-      <c r="U2" s="548"/>
-      <c r="V2" s="549"/>
-      <c r="W2" s="543"/>
-      <c r="X2" s="543"/>
-      <c r="Y2" s="543"/>
+      <c r="B2" s="388"/>
+      <c r="C2" s="388"/>
+      <c r="D2" s="388"/>
+      <c r="E2" s="388"/>
+      <c r="F2" s="388"/>
+      <c r="G2" s="388"/>
+      <c r="H2" s="388"/>
+      <c r="I2" s="388"/>
+      <c r="J2" s="388"/>
+      <c r="K2" s="388"/>
+      <c r="L2" s="388"/>
+      <c r="M2" s="388"/>
+      <c r="N2" s="388"/>
+      <c r="O2" s="388"/>
+      <c r="P2" s="388"/>
+      <c r="Q2" s="388"/>
+      <c r="R2" s="388"/>
+      <c r="S2" s="388"/>
+      <c r="T2" s="388"/>
+      <c r="U2" s="388"/>
+      <c r="V2" s="389"/>
+      <c r="W2" s="383"/>
+      <c r="X2" s="383"/>
+      <c r="Y2" s="383"/>
     </row>
     <row r="3" spans="1:45" s="1" customFormat="1" ht="40.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="550" t="s">
+      <c r="A3" s="390" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="551"/>
-      <c r="C3" s="551"/>
-      <c r="D3" s="551"/>
-      <c r="E3" s="551"/>
-      <c r="F3" s="551"/>
-      <c r="G3" s="551"/>
-      <c r="H3" s="551"/>
-      <c r="I3" s="551"/>
-      <c r="J3" s="551"/>
-      <c r="K3" s="551"/>
-      <c r="L3" s="551"/>
-      <c r="M3" s="551"/>
-      <c r="N3" s="551"/>
-      <c r="O3" s="551"/>
-      <c r="P3" s="551"/>
-      <c r="Q3" s="551"/>
-      <c r="R3" s="551"/>
-      <c r="S3" s="551"/>
-      <c r="T3" s="551"/>
-      <c r="U3" s="551"/>
-      <c r="V3" s="552"/>
-      <c r="W3" s="543"/>
-      <c r="X3" s="543"/>
-      <c r="Y3" s="543"/>
+      <c r="B3" s="391"/>
+      <c r="C3" s="391"/>
+      <c r="D3" s="391"/>
+      <c r="E3" s="391"/>
+      <c r="F3" s="391"/>
+      <c r="G3" s="391"/>
+      <c r="H3" s="391"/>
+      <c r="I3" s="391"/>
+      <c r="J3" s="391"/>
+      <c r="K3" s="391"/>
+      <c r="L3" s="391"/>
+      <c r="M3" s="391"/>
+      <c r="N3" s="391"/>
+      <c r="O3" s="391"/>
+      <c r="P3" s="391"/>
+      <c r="Q3" s="391"/>
+      <c r="R3" s="391"/>
+      <c r="S3" s="391"/>
+      <c r="T3" s="391"/>
+      <c r="U3" s="391"/>
+      <c r="V3" s="392"/>
+      <c r="W3" s="383"/>
+      <c r="X3" s="383"/>
+      <c r="Y3" s="383"/>
     </row>
     <row r="4" spans="1:45" s="2" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
@@ -9949,9 +9949,9 @@
       <c r="V4" s="24">
         <v>41699</v>
       </c>
-      <c r="W4" s="543"/>
-      <c r="X4" s="543"/>
-      <c r="Y4" s="543"/>
+      <c r="W4" s="383"/>
+      <c r="X4" s="383"/>
+      <c r="Y4" s="383"/>
       <c r="Z4" s="11" t="s">
         <v>499</v>
       </c>
@@ -9980,10 +9980,10 @@
       <c r="AS4" s="15"/>
     </row>
     <row r="5" spans="1:45" s="3" customFormat="1" ht="80.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="556" t="s">
+      <c r="A5" s="401" t="s">
         <v>503</v>
       </c>
-      <c r="B5" s="555" t="s">
+      <c r="B5" s="400" t="s">
         <v>504</v>
       </c>
       <c r="C5" s="292"/>
@@ -10043,8 +10043,8 @@
       <c r="AS5" s="16"/>
     </row>
     <row r="6" spans="1:45" s="3" customFormat="1" ht="112.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="556"/>
-      <c r="B6" s="555"/>
+      <c r="A6" s="401"/>
+      <c r="B6" s="400"/>
       <c r="C6" s="294"/>
       <c r="D6" s="292"/>
       <c r="E6" s="74" t="s">
@@ -10102,8 +10102,8 @@
       <c r="AS6" s="16"/>
     </row>
     <row r="7" spans="1:45" s="3" customFormat="1" ht="122.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="556"/>
-      <c r="B7" s="555"/>
+      <c r="A7" s="401"/>
+      <c r="B7" s="400"/>
       <c r="C7" s="294"/>
       <c r="D7" s="292"/>
       <c r="E7" s="33" t="s">
@@ -10161,8 +10161,8 @@
       <c r="AS7" s="16"/>
     </row>
     <row r="8" spans="1:45" s="3" customFormat="1" ht="114.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="556"/>
-      <c r="B8" s="555"/>
+      <c r="A8" s="401"/>
+      <c r="B8" s="400"/>
       <c r="C8" s="294"/>
       <c r="D8" s="292"/>
       <c r="E8" s="33" t="s">
@@ -10220,8 +10220,8 @@
       <c r="AS8" s="16"/>
     </row>
     <row r="9" spans="1:45" s="3" customFormat="1" ht="199.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="556"/>
-      <c r="B9" s="555"/>
+      <c r="A9" s="401"/>
+      <c r="B9" s="400"/>
       <c r="C9" s="294"/>
       <c r="D9" s="292"/>
       <c r="E9" s="33" t="s">
@@ -10279,8 +10279,8 @@
       <c r="AS9" s="16"/>
     </row>
     <row r="10" spans="1:45" s="3" customFormat="1" ht="81" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="556"/>
-      <c r="B10" s="555"/>
+      <c r="A10" s="401"/>
+      <c r="B10" s="400"/>
       <c r="C10" s="295"/>
       <c r="D10" s="296" t="s">
         <v>19</v>
@@ -10336,8 +10336,8 @@
       <c r="AS10" s="16"/>
     </row>
     <row r="11" spans="1:45" s="3" customFormat="1" ht="80.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="556"/>
-      <c r="B11" s="555"/>
+      <c r="A11" s="401"/>
+      <c r="B11" s="400"/>
       <c r="C11" s="295"/>
       <c r="D11" s="298"/>
       <c r="E11" s="32" t="s">
@@ -10393,8 +10393,8 @@
       <c r="AS11" s="16"/>
     </row>
     <row r="12" spans="1:45" s="3" customFormat="1" ht="100.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="556"/>
-      <c r="B12" s="555"/>
+      <c r="A12" s="401"/>
+      <c r="B12" s="400"/>
       <c r="C12" s="295"/>
       <c r="D12" s="298"/>
       <c r="E12" s="32" t="s">
@@ -10450,8 +10450,8 @@
       <c r="AS12" s="16"/>
     </row>
     <row r="13" spans="1:45" s="3" customFormat="1" ht="96" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="556"/>
-      <c r="B13" s="555"/>
+      <c r="A13" s="401"/>
+      <c r="B13" s="400"/>
       <c r="C13" s="295"/>
       <c r="D13" s="298"/>
       <c r="E13" s="32" t="s">
@@ -10509,8 +10509,8 @@
       <c r="AS13" s="16"/>
     </row>
     <row r="14" spans="1:45" s="3" customFormat="1" ht="62.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="556"/>
-      <c r="B14" s="555"/>
+      <c r="A14" s="401"/>
+      <c r="B14" s="400"/>
       <c r="C14" s="295"/>
       <c r="D14" s="298"/>
       <c r="E14" s="69" t="s">
@@ -10566,8 +10566,8 @@
       <c r="AS14" s="16"/>
     </row>
     <row r="15" spans="1:45" s="3" customFormat="1" ht="75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="556"/>
-      <c r="B15" s="555"/>
+      <c r="A15" s="401"/>
+      <c r="B15" s="400"/>
       <c r="C15" s="295"/>
       <c r="D15" s="300"/>
       <c r="E15" s="32" t="s">
@@ -10625,10 +10625,10 @@
       <c r="AS15" s="16"/>
     </row>
     <row r="16" spans="1:45" s="3" customFormat="1" ht="35.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="556"/>
-      <c r="B16" s="555"/>
+      <c r="A16" s="401"/>
+      <c r="B16" s="400"/>
       <c r="C16" s="295"/>
-      <c r="D16" s="536" t="s">
+      <c r="D16" s="395" t="s">
         <v>20</v>
       </c>
       <c r="E16" s="74" t="s">
@@ -10682,10 +10682,10 @@
       <c r="AS16" s="16"/>
     </row>
     <row r="17" spans="1:46" s="3" customFormat="1" ht="108.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="556"/>
-      <c r="B17" s="555"/>
+      <c r="A17" s="401"/>
+      <c r="B17" s="400"/>
       <c r="C17" s="294"/>
-      <c r="D17" s="537"/>
+      <c r="D17" s="396"/>
       <c r="E17" s="32" t="s">
         <v>515</v>
       </c>
@@ -10739,10 +10739,10 @@
       <c r="AS17" s="16"/>
     </row>
     <row r="18" spans="1:46" s="3" customFormat="1" ht="78" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="556"/>
-      <c r="B18" s="555"/>
+      <c r="A18" s="401"/>
+      <c r="B18" s="400"/>
       <c r="C18" s="294"/>
-      <c r="D18" s="537"/>
+      <c r="D18" s="396"/>
       <c r="E18" s="32" t="s">
         <v>516</v>
       </c>
@@ -10798,10 +10798,10 @@
       <c r="AS18" s="16"/>
     </row>
     <row r="19" spans="1:46" s="3" customFormat="1" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="556"/>
-      <c r="B19" s="555"/>
+      <c r="A19" s="401"/>
+      <c r="B19" s="400"/>
       <c r="C19" s="294"/>
-      <c r="D19" s="537"/>
+      <c r="D19" s="396"/>
       <c r="E19" s="69" t="s">
         <v>517</v>
       </c>
@@ -10855,10 +10855,10 @@
       <c r="AS19" s="16"/>
     </row>
     <row r="20" spans="1:46" s="3" customFormat="1" ht="72.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="556"/>
-      <c r="B20" s="555"/>
+      <c r="A20" s="401"/>
+      <c r="B20" s="400"/>
       <c r="C20" s="294"/>
-      <c r="D20" s="537"/>
+      <c r="D20" s="396"/>
       <c r="E20" s="32" t="s">
         <v>518</v>
       </c>
@@ -10914,10 +10914,10 @@
       <c r="AS20" s="16"/>
     </row>
     <row r="21" spans="1:46" s="3" customFormat="1" ht="75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="556"/>
-      <c r="B21" s="555"/>
+      <c r="A21" s="401"/>
+      <c r="B21" s="400"/>
       <c r="C21" s="294"/>
-      <c r="D21" s="538"/>
+      <c r="D21" s="397"/>
       <c r="E21" s="32" t="s">
         <v>519</v>
       </c>
@@ -10973,10 +10973,10 @@
       <c r="AS21" s="16"/>
     </row>
     <row r="22" spans="1:46" s="3" customFormat="1" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="556"/>
-      <c r="B22" s="555"/>
+      <c r="A22" s="401"/>
+      <c r="B22" s="400"/>
       <c r="C22" s="295"/>
-      <c r="D22" s="536" t="s">
+      <c r="D22" s="395" t="s">
         <v>21</v>
       </c>
       <c r="E22" s="74" t="s">
@@ -11030,10 +11030,10 @@
       <c r="AS22" s="16"/>
     </row>
     <row r="23" spans="1:46" s="3" customFormat="1" ht="136.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="556"/>
-      <c r="B23" s="555"/>
+      <c r="A23" s="401"/>
+      <c r="B23" s="400"/>
       <c r="C23" s="295"/>
-      <c r="D23" s="537"/>
+      <c r="D23" s="396"/>
       <c r="E23" s="75" t="s">
         <v>520</v>
       </c>
@@ -11089,10 +11089,10 @@
       <c r="AS23" s="16"/>
     </row>
     <row r="24" spans="1:46" s="3" customFormat="1" ht="93" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="556"/>
-      <c r="B24" s="555"/>
+      <c r="A24" s="401"/>
+      <c r="B24" s="400"/>
       <c r="C24" s="295"/>
-      <c r="D24" s="537"/>
+      <c r="D24" s="396"/>
       <c r="E24" s="32" t="s">
         <v>521</v>
       </c>
@@ -11148,10 +11148,10 @@
       <c r="AS24" s="16"/>
     </row>
     <row r="25" spans="1:46" s="3" customFormat="1" ht="79.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="556"/>
-      <c r="B25" s="555"/>
+      <c r="A25" s="401"/>
+      <c r="B25" s="400"/>
       <c r="C25" s="295"/>
-      <c r="D25" s="538"/>
+      <c r="D25" s="397"/>
       <c r="E25" s="32" t="s">
         <v>517</v>
       </c>
@@ -11205,10 +11205,10 @@
       <c r="AS25" s="16"/>
     </row>
     <row r="26" spans="1:46" s="3" customFormat="1" ht="95.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="556"/>
-      <c r="B26" s="555"/>
-      <c r="C26" s="409"/>
-      <c r="D26" s="533" t="s">
+      <c r="A26" s="401"/>
+      <c r="B26" s="400"/>
+      <c r="C26" s="407"/>
+      <c r="D26" s="422" t="s">
         <v>22</v>
       </c>
       <c r="E26" s="33" t="s">
@@ -11266,10 +11266,10 @@
       <c r="AS26" s="16"/>
     </row>
     <row r="27" spans="1:46" s="3" customFormat="1" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="556"/>
-      <c r="B27" s="555"/>
-      <c r="C27" s="410"/>
-      <c r="D27" s="534"/>
+      <c r="A27" s="401"/>
+      <c r="B27" s="400"/>
+      <c r="C27" s="408"/>
+      <c r="D27" s="423"/>
       <c r="E27" s="255" t="s">
         <v>523</v>
       </c>
@@ -11325,10 +11325,10 @@
       <c r="AS27" s="16"/>
     </row>
     <row r="28" spans="1:46" s="3" customFormat="1" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="556"/>
-      <c r="B28" s="555"/>
-      <c r="C28" s="410"/>
-      <c r="D28" s="534"/>
+      <c r="A28" s="401"/>
+      <c r="B28" s="400"/>
+      <c r="C28" s="408"/>
+      <c r="D28" s="423"/>
       <c r="E28" s="33" t="s">
         <v>524</v>
       </c>
@@ -11383,10 +11383,10 @@
       <c r="AS28" s="16"/>
     </row>
     <row r="29" spans="1:46" s="3" customFormat="1" ht="123" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="556"/>
-      <c r="B29" s="555"/>
-      <c r="C29" s="411"/>
-      <c r="D29" s="535"/>
+      <c r="A29" s="401"/>
+      <c r="B29" s="400"/>
+      <c r="C29" s="409"/>
+      <c r="D29" s="424"/>
       <c r="E29" s="33" t="s">
         <v>525</v>
       </c>
@@ -11438,30 +11438,30 @@
       <c r="AS29" s="16"/>
     </row>
     <row r="30" spans="1:46" s="3" customFormat="1" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="553" t="s">
+      <c r="A30" s="393" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="553"/>
-      <c r="C30" s="553"/>
-      <c r="D30" s="553"/>
-      <c r="E30" s="554"/>
-      <c r="F30" s="554"/>
-      <c r="G30" s="553"/>
-      <c r="H30" s="553"/>
-      <c r="I30" s="553"/>
-      <c r="J30" s="553"/>
-      <c r="K30" s="553"/>
-      <c r="L30" s="553"/>
-      <c r="M30" s="553"/>
-      <c r="N30" s="553"/>
-      <c r="O30" s="553"/>
-      <c r="P30" s="553"/>
-      <c r="Q30" s="553"/>
-      <c r="R30" s="553"/>
-      <c r="S30" s="553"/>
-      <c r="T30" s="553"/>
-      <c r="U30" s="553"/>
-      <c r="V30" s="553"/>
+      <c r="B30" s="393"/>
+      <c r="C30" s="393"/>
+      <c r="D30" s="393"/>
+      <c r="E30" s="394"/>
+      <c r="F30" s="394"/>
+      <c r="G30" s="393"/>
+      <c r="H30" s="393"/>
+      <c r="I30" s="393"/>
+      <c r="J30" s="393"/>
+      <c r="K30" s="393"/>
+      <c r="L30" s="393"/>
+      <c r="M30" s="393"/>
+      <c r="N30" s="393"/>
+      <c r="O30" s="393"/>
+      <c r="P30" s="393"/>
+      <c r="Q30" s="393"/>
+      <c r="R30" s="393"/>
+      <c r="S30" s="393"/>
+      <c r="T30" s="393"/>
+      <c r="U30" s="393"/>
+      <c r="V30" s="393"/>
       <c r="W30" s="41"/>
       <c r="X30" s="38"/>
       <c r="Y30" s="38"/>
@@ -11488,14 +11488,14 @@
       <c r="AT30" s="20"/>
     </row>
     <row r="31" spans="1:46" s="3" customFormat="1" ht="44.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="474" t="s">
+      <c r="A31" s="398" t="s">
         <v>526</v>
       </c>
-      <c r="B31" s="524" t="s">
+      <c r="B31" s="402" t="s">
         <v>527</v>
       </c>
       <c r="C31" s="295"/>
-      <c r="D31" s="536" t="s">
+      <c r="D31" s="395" t="s">
         <v>18</v>
       </c>
       <c r="E31" s="74" t="s">
@@ -11548,10 +11548,10 @@
       <c r="AT31" s="20"/>
     </row>
     <row r="32" spans="1:46" s="3" customFormat="1" ht="53.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="475"/>
-      <c r="B32" s="525"/>
+      <c r="A32" s="399"/>
+      <c r="B32" s="403"/>
       <c r="C32" s="298"/>
-      <c r="D32" s="537"/>
+      <c r="D32" s="396"/>
       <c r="E32" s="74" t="s">
         <v>529</v>
       </c>
@@ -11602,10 +11602,10 @@
       <c r="AT32" s="20"/>
     </row>
     <row r="33" spans="1:46" s="3" customFormat="1" ht="53.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="475"/>
-      <c r="B33" s="525"/>
+      <c r="A33" s="399"/>
+      <c r="B33" s="403"/>
       <c r="C33" s="298"/>
-      <c r="D33" s="537"/>
+      <c r="D33" s="396"/>
       <c r="E33" s="74" t="s">
         <v>530</v>
       </c>
@@ -11662,10 +11662,10 @@
       <c r="AT33" s="20"/>
     </row>
     <row r="34" spans="1:46" s="3" customFormat="1" ht="53.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="475"/>
-      <c r="B34" s="525"/>
+      <c r="A34" s="399"/>
+      <c r="B34" s="403"/>
       <c r="C34" s="298"/>
-      <c r="D34" s="537"/>
+      <c r="D34" s="396"/>
       <c r="E34" s="74" t="s">
         <v>531</v>
       </c>
@@ -11722,10 +11722,10 @@
       <c r="AT34" s="20"/>
     </row>
     <row r="35" spans="1:46" s="3" customFormat="1" ht="53.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="475"/>
-      <c r="B35" s="525"/>
+      <c r="A35" s="399"/>
+      <c r="B35" s="403"/>
       <c r="C35" s="298"/>
-      <c r="D35" s="537"/>
+      <c r="D35" s="396"/>
       <c r="E35" s="33" t="s">
         <v>532</v>
       </c>
@@ -11782,10 +11782,10 @@
       <c r="AT35" s="20"/>
     </row>
     <row r="36" spans="1:46" s="3" customFormat="1" ht="53.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="475"/>
-      <c r="B36" s="525"/>
+      <c r="A36" s="399"/>
+      <c r="B36" s="403"/>
       <c r="C36" s="300"/>
-      <c r="D36" s="538"/>
+      <c r="D36" s="397"/>
       <c r="E36" s="33" t="s">
         <v>533</v>
       </c>
@@ -11836,10 +11836,10 @@
       <c r="AT36" s="20"/>
     </row>
     <row r="37" spans="1:46" s="3" customFormat="1" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="475"/>
-      <c r="B37" s="525"/>
-      <c r="C37" s="409"/>
-      <c r="D37" s="403" t="s">
+      <c r="A37" s="399"/>
+      <c r="B37" s="403"/>
+      <c r="C37" s="407"/>
+      <c r="D37" s="425" t="s">
         <v>19</v>
       </c>
       <c r="E37" s="33" t="s">
@@ -11892,10 +11892,10 @@
       <c r="AT37" s="20"/>
     </row>
     <row r="38" spans="1:46" s="3" customFormat="1" ht="56.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="475"/>
-      <c r="B38" s="525"/>
-      <c r="C38" s="410"/>
-      <c r="D38" s="397"/>
+      <c r="A38" s="399"/>
+      <c r="B38" s="403"/>
+      <c r="C38" s="408"/>
+      <c r="D38" s="426"/>
       <c r="E38" s="33" t="s">
         <v>535</v>
       </c>
@@ -11952,10 +11952,10 @@
       <c r="AT38" s="20"/>
     </row>
     <row r="39" spans="1:46" s="3" customFormat="1" ht="51.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="475"/>
-      <c r="B39" s="525"/>
-      <c r="C39" s="410"/>
-      <c r="D39" s="397"/>
+      <c r="A39" s="399"/>
+      <c r="B39" s="403"/>
+      <c r="C39" s="408"/>
+      <c r="D39" s="426"/>
       <c r="E39" s="33" t="s">
         <v>536</v>
       </c>
@@ -12012,10 +12012,10 @@
       <c r="AT39" s="20"/>
     </row>
     <row r="40" spans="1:46" s="3" customFormat="1" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="475"/>
-      <c r="B40" s="525"/>
-      <c r="C40" s="411"/>
-      <c r="D40" s="398"/>
+      <c r="A40" s="399"/>
+      <c r="B40" s="403"/>
+      <c r="C40" s="409"/>
+      <c r="D40" s="427"/>
       <c r="E40" s="33" t="s">
         <v>537</v>
       </c>
@@ -12066,10 +12066,10 @@
       <c r="AT40" s="20"/>
     </row>
     <row r="41" spans="1:46" s="3" customFormat="1" ht="55.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="475"/>
-      <c r="B41" s="525"/>
-      <c r="C41" s="409"/>
-      <c r="D41" s="403" t="s">
+      <c r="A41" s="399"/>
+      <c r="B41" s="403"/>
+      <c r="C41" s="407"/>
+      <c r="D41" s="425" t="s">
         <v>20</v>
       </c>
       <c r="E41" s="33" t="s">
@@ -12122,10 +12122,10 @@
       <c r="AT41" s="20"/>
     </row>
     <row r="42" spans="1:46" s="4" customFormat="1" ht="78.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="475"/>
-      <c r="B42" s="525"/>
-      <c r="C42" s="410"/>
-      <c r="D42" s="397"/>
+      <c r="A42" s="399"/>
+      <c r="B42" s="403"/>
+      <c r="C42" s="408"/>
+      <c r="D42" s="426"/>
       <c r="E42" s="33" t="s">
         <v>535</v>
       </c>
@@ -12181,10 +12181,10 @@
       <c r="AS42" s="16"/>
     </row>
     <row r="43" spans="1:46" s="4" customFormat="1" ht="66.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="475"/>
-      <c r="B43" s="525"/>
-      <c r="C43" s="410"/>
-      <c r="D43" s="397"/>
+      <c r="A43" s="399"/>
+      <c r="B43" s="403"/>
+      <c r="C43" s="408"/>
+      <c r="D43" s="426"/>
       <c r="E43" s="33" t="s">
         <v>536</v>
       </c>
@@ -12240,10 +12240,10 @@
       <c r="AS43" s="16"/>
     </row>
     <row r="44" spans="1:46" s="4" customFormat="1" ht="66.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="475"/>
-      <c r="B44" s="525"/>
-      <c r="C44" s="410"/>
-      <c r="D44" s="397"/>
+      <c r="A44" s="399"/>
+      <c r="B44" s="403"/>
+      <c r="C44" s="408"/>
+      <c r="D44" s="426"/>
       <c r="E44" s="33" t="s">
         <v>537</v>
       </c>
@@ -12293,10 +12293,10 @@
       <c r="AS44" s="16"/>
     </row>
     <row r="45" spans="1:46" s="4" customFormat="1" ht="44.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="475"/>
-      <c r="B45" s="525"/>
-      <c r="C45" s="411"/>
-      <c r="D45" s="398"/>
+      <c r="A45" s="399"/>
+      <c r="B45" s="403"/>
+      <c r="C45" s="409"/>
+      <c r="D45" s="427"/>
       <c r="E45" s="33" t="s">
         <v>539</v>
       </c>
@@ -12352,10 +12352,10 @@
       <c r="AS45" s="16"/>
     </row>
     <row r="46" spans="1:46" s="4" customFormat="1" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="475"/>
-      <c r="B46" s="525"/>
-      <c r="C46" s="448"/>
-      <c r="D46" s="403" t="s">
+      <c r="A46" s="399"/>
+      <c r="B46" s="403"/>
+      <c r="C46" s="431"/>
+      <c r="D46" s="425" t="s">
         <v>21</v>
       </c>
       <c r="E46" s="33" t="s">
@@ -12407,10 +12407,10 @@
       <c r="AS46" s="16"/>
     </row>
     <row r="47" spans="1:46" s="4" customFormat="1" ht="78.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="475"/>
-      <c r="B47" s="525"/>
-      <c r="C47" s="449"/>
-      <c r="D47" s="397"/>
+      <c r="A47" s="399"/>
+      <c r="B47" s="403"/>
+      <c r="C47" s="432"/>
+      <c r="D47" s="426"/>
       <c r="E47" s="33" t="s">
         <v>541</v>
       </c>
@@ -12466,10 +12466,10 @@
       <c r="AS47" s="16"/>
     </row>
     <row r="48" spans="1:46" s="4" customFormat="1" ht="70.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="475"/>
-      <c r="B48" s="525"/>
-      <c r="C48" s="449"/>
-      <c r="D48" s="397"/>
+      <c r="A48" s="399"/>
+      <c r="B48" s="403"/>
+      <c r="C48" s="432"/>
+      <c r="D48" s="426"/>
       <c r="E48" s="33" t="s">
         <v>542</v>
       </c>
@@ -12525,10 +12525,10 @@
       <c r="AS48" s="16"/>
     </row>
     <row r="49" spans="1:45" s="4" customFormat="1" ht="67.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="475"/>
-      <c r="B49" s="525"/>
-      <c r="C49" s="449"/>
-      <c r="D49" s="397"/>
+      <c r="A49" s="399"/>
+      <c r="B49" s="403"/>
+      <c r="C49" s="432"/>
+      <c r="D49" s="426"/>
       <c r="E49" s="255" t="s">
         <v>543</v>
       </c>
@@ -12582,10 +12582,10 @@
       <c r="AS49" s="16"/>
     </row>
     <row r="50" spans="1:45" s="4" customFormat="1" ht="56.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="475"/>
-      <c r="B50" s="526"/>
-      <c r="C50" s="450"/>
-      <c r="D50" s="398"/>
+      <c r="A50" s="399"/>
+      <c r="B50" s="404"/>
+      <c r="C50" s="433"/>
+      <c r="D50" s="427"/>
       <c r="E50" s="33" t="s">
         <v>544</v>
       </c>
@@ -12635,12 +12635,12 @@
       <c r="AS50" s="16"/>
     </row>
     <row r="51" spans="1:45" s="4" customFormat="1" ht="75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="475"/>
-      <c r="B51" s="432" t="s">
+      <c r="A51" s="399"/>
+      <c r="B51" s="405" t="s">
         <v>545</v>
       </c>
       <c r="C51" s="306"/>
-      <c r="D51" s="536" t="s">
+      <c r="D51" s="395" t="s">
         <v>411</v>
       </c>
       <c r="E51" s="74" t="s">
@@ -12692,10 +12692,10 @@
       <c r="AS51" s="16"/>
     </row>
     <row r="52" spans="1:45" s="4" customFormat="1" ht="130.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="475"/>
-      <c r="B52" s="433"/>
+      <c r="A52" s="399"/>
+      <c r="B52" s="406"/>
       <c r="C52" s="298"/>
-      <c r="D52" s="537"/>
+      <c r="D52" s="396"/>
       <c r="E52" s="74" t="s">
         <v>547</v>
       </c>
@@ -12749,10 +12749,10 @@
       <c r="AS52" s="16"/>
     </row>
     <row r="53" spans="1:45" s="4" customFormat="1" ht="114.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="475"/>
-      <c r="B53" s="433"/>
+      <c r="A53" s="399"/>
+      <c r="B53" s="406"/>
       <c r="C53" s="308"/>
-      <c r="D53" s="537"/>
+      <c r="D53" s="396"/>
       <c r="E53" s="257" t="s">
         <v>548</v>
       </c>
@@ -12893,14 +12893,14 @@
       <c r="AS54" s="15"/>
     </row>
     <row r="55" spans="1:45" s="3" customFormat="1" ht="80.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="435" t="s">
+      <c r="A55" s="419" t="s">
         <v>549</v>
       </c>
-      <c r="B55" s="536" t="s">
+      <c r="B55" s="395" t="s">
         <v>550</v>
       </c>
-      <c r="C55" s="409"/>
-      <c r="D55" s="403" t="s">
+      <c r="C55" s="407"/>
+      <c r="D55" s="425" t="s">
         <v>22</v>
       </c>
       <c r="E55" s="33" t="s">
@@ -12954,10 +12954,10 @@
       <c r="AS55" s="16"/>
     </row>
     <row r="56" spans="1:45" s="3" customFormat="1" ht="80.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="436"/>
-      <c r="B56" s="537"/>
-      <c r="C56" s="410"/>
-      <c r="D56" s="397"/>
+      <c r="A56" s="420"/>
+      <c r="B56" s="396"/>
+      <c r="C56" s="408"/>
+      <c r="D56" s="426"/>
       <c r="E56" s="33" t="s">
         <v>552</v>
       </c>
@@ -13011,10 +13011,10 @@
       <c r="AS56" s="16"/>
     </row>
     <row r="57" spans="1:45" s="3" customFormat="1" ht="80.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="436"/>
-      <c r="B57" s="537"/>
-      <c r="C57" s="410"/>
-      <c r="D57" s="397"/>
+      <c r="A57" s="420"/>
+      <c r="B57" s="396"/>
+      <c r="C57" s="408"/>
+      <c r="D57" s="426"/>
       <c r="E57" s="33" t="s">
         <v>553</v>
       </c>
@@ -13068,10 +13068,10 @@
       <c r="AS57" s="16"/>
     </row>
     <row r="58" spans="1:45" s="3" customFormat="1" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="437"/>
-      <c r="B58" s="538"/>
-      <c r="C58" s="411"/>
-      <c r="D58" s="398"/>
+      <c r="A58" s="421"/>
+      <c r="B58" s="397"/>
+      <c r="C58" s="409"/>
+      <c r="D58" s="427"/>
       <c r="E58" s="33" t="s">
         <v>554</v>
       </c>
@@ -13212,14 +13212,14 @@
       <c r="AS59" s="15"/>
     </row>
     <row r="60" spans="1:45" ht="67.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="527" t="s">
+      <c r="A60" s="413" t="s">
         <v>555</v>
       </c>
-      <c r="B60" s="448" t="s">
+      <c r="B60" s="431" t="s">
         <v>496</v>
       </c>
-      <c r="C60" s="382"/>
-      <c r="D60" s="403" t="s">
+      <c r="C60" s="410"/>
+      <c r="D60" s="425" t="s">
         <v>22</v>
       </c>
       <c r="E60" s="33" t="s">
@@ -13277,10 +13277,10 @@
       <c r="AS60" s="17"/>
     </row>
     <row r="61" spans="1:45" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="528"/>
-      <c r="B61" s="449"/>
-      <c r="C61" s="383"/>
-      <c r="D61" s="397"/>
+      <c r="A61" s="414"/>
+      <c r="B61" s="432"/>
+      <c r="C61" s="411"/>
+      <c r="D61" s="426"/>
       <c r="E61" s="33" t="s">
         <v>557</v>
       </c>
@@ -13336,10 +13336,10 @@
       <c r="AS61" s="17"/>
     </row>
     <row r="62" spans="1:45" ht="72" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="528"/>
-      <c r="B62" s="449"/>
-      <c r="C62" s="383"/>
-      <c r="D62" s="397"/>
+      <c r="A62" s="414"/>
+      <c r="B62" s="432"/>
+      <c r="C62" s="411"/>
+      <c r="D62" s="426"/>
       <c r="E62" s="33" t="s">
         <v>558</v>
       </c>
@@ -13393,10 +13393,10 @@
       <c r="AS62" s="17"/>
     </row>
     <row r="63" spans="1:45" ht="68.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="528"/>
-      <c r="B63" s="449"/>
-      <c r="C63" s="383"/>
-      <c r="D63" s="397"/>
+      <c r="A63" s="414"/>
+      <c r="B63" s="432"/>
+      <c r="C63" s="411"/>
+      <c r="D63" s="426"/>
       <c r="E63" s="33" t="s">
         <v>559</v>
       </c>
@@ -13450,10 +13450,10 @@
       <c r="AS63" s="17"/>
     </row>
     <row r="64" spans="1:45" ht="72" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="529"/>
-      <c r="B64" s="450"/>
-      <c r="C64" s="384"/>
-      <c r="D64" s="398"/>
+      <c r="A64" s="415"/>
+      <c r="B64" s="433"/>
+      <c r="C64" s="412"/>
+      <c r="D64" s="427"/>
       <c r="E64" s="33" t="s">
         <v>560</v>
       </c>
@@ -13503,18 +13503,18 @@
       <c r="AS64" s="17"/>
     </row>
     <row r="65" spans="1:45" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="530" t="s">
+      <c r="A65" s="416" t="s">
         <v>11</v>
       </c>
-      <c r="B65" s="531"/>
-      <c r="C65" s="531"/>
-      <c r="D65" s="531"/>
-      <c r="E65" s="531"/>
-      <c r="F65" s="531"/>
-      <c r="G65" s="531"/>
-      <c r="H65" s="531"/>
-      <c r="I65" s="531"/>
-      <c r="J65" s="532"/>
+      <c r="B65" s="417"/>
+      <c r="C65" s="417"/>
+      <c r="D65" s="417"/>
+      <c r="E65" s="417"/>
+      <c r="F65" s="417"/>
+      <c r="G65" s="417"/>
+      <c r="H65" s="417"/>
+      <c r="I65" s="417"/>
+      <c r="J65" s="418"/>
       <c r="K65" s="188"/>
       <c r="L65" s="188"/>
       <c r="M65" s="188"/>
@@ -13552,14 +13552,14 @@
       <c r="AS65" s="17"/>
     </row>
     <row r="66" spans="1:45" ht="78.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="539" t="s">
+      <c r="A66" s="434" t="s">
         <v>561</v>
       </c>
-      <c r="B66" s="382" t="s">
+      <c r="B66" s="410" t="s">
         <v>562</v>
       </c>
-      <c r="C66" s="412"/>
-      <c r="D66" s="536" t="s">
+      <c r="C66" s="428"/>
+      <c r="D66" s="395" t="s">
         <v>472</v>
       </c>
       <c r="E66" s="187" t="s">
@@ -13611,10 +13611,10 @@
       <c r="AS66" s="17"/>
     </row>
     <row r="67" spans="1:45" ht="67.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="540"/>
-      <c r="B67" s="383"/>
-      <c r="C67" s="413"/>
-      <c r="D67" s="537"/>
+      <c r="A67" s="435"/>
+      <c r="B67" s="411"/>
+      <c r="C67" s="429"/>
+      <c r="D67" s="396"/>
       <c r="E67" s="187" t="s">
         <v>564</v>
       </c>
@@ -13670,10 +13670,10 @@
       <c r="AS67" s="17"/>
     </row>
     <row r="68" spans="1:45" ht="57.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="540"/>
-      <c r="B68" s="383"/>
-      <c r="C68" s="413"/>
-      <c r="D68" s="537"/>
+      <c r="A68" s="435"/>
+      <c r="B68" s="411"/>
+      <c r="C68" s="429"/>
+      <c r="D68" s="396"/>
       <c r="E68" s="33" t="s">
         <v>565</v>
       </c>
@@ -13729,10 +13729,10 @@
       <c r="AS68" s="17"/>
     </row>
     <row r="69" spans="1:45" ht="54" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="540"/>
-      <c r="B69" s="383"/>
-      <c r="C69" s="413"/>
-      <c r="D69" s="537"/>
+      <c r="A69" s="435"/>
+      <c r="B69" s="411"/>
+      <c r="C69" s="429"/>
+      <c r="D69" s="396"/>
       <c r="E69" s="33" t="s">
         <v>566</v>
       </c>
@@ -13788,10 +13788,10 @@
       <c r="AS69" s="17"/>
     </row>
     <row r="70" spans="1:45" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="540"/>
-      <c r="B70" s="383"/>
-      <c r="C70" s="413"/>
-      <c r="D70" s="537"/>
+      <c r="A70" s="435"/>
+      <c r="B70" s="411"/>
+      <c r="C70" s="429"/>
+      <c r="D70" s="396"/>
       <c r="E70" s="187" t="s">
         <v>567</v>
       </c>
@@ -13847,10 +13847,10 @@
       <c r="AS70" s="17"/>
     </row>
     <row r="71" spans="1:45" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="540"/>
-      <c r="B71" s="383"/>
-      <c r="C71" s="413"/>
-      <c r="D71" s="537"/>
+      <c r="A71" s="435"/>
+      <c r="B71" s="411"/>
+      <c r="C71" s="429"/>
+      <c r="D71" s="396"/>
       <c r="E71" s="187" t="s">
         <v>568</v>
       </c>
@@ -13906,10 +13906,10 @@
       <c r="AS71" s="17"/>
     </row>
     <row r="72" spans="1:45" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="540"/>
-      <c r="B72" s="383"/>
-      <c r="C72" s="414"/>
-      <c r="D72" s="538"/>
+      <c r="A72" s="435"/>
+      <c r="B72" s="411"/>
+      <c r="C72" s="430"/>
+      <c r="D72" s="397"/>
       <c r="E72" s="187" t="s">
         <v>569</v>
       </c>
@@ -13965,10 +13965,10 @@
       <c r="AS72" s="17"/>
     </row>
     <row r="73" spans="1:45" ht="83.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="540"/>
-      <c r="B73" s="383"/>
-      <c r="C73" s="412"/>
-      <c r="D73" s="412" t="s">
+      <c r="A73" s="435"/>
+      <c r="B73" s="411"/>
+      <c r="C73" s="428"/>
+      <c r="D73" s="428" t="s">
         <v>22</v>
       </c>
       <c r="E73" s="33" t="s">
@@ -14020,10 +14020,10 @@
       <c r="AS73" s="17"/>
     </row>
     <row r="74" spans="1:45" ht="69" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="540"/>
-      <c r="B74" s="383"/>
-      <c r="C74" s="413"/>
-      <c r="D74" s="413"/>
+      <c r="A74" s="435"/>
+      <c r="B74" s="411"/>
+      <c r="C74" s="429"/>
+      <c r="D74" s="429"/>
       <c r="E74" s="33" t="s">
         <v>571</v>
       </c>
@@ -14077,10 +14077,10 @@
       <c r="AS74" s="17"/>
     </row>
     <row r="75" spans="1:45" ht="51.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="540"/>
-      <c r="B75" s="383"/>
-      <c r="C75" s="413"/>
-      <c r="D75" s="413"/>
+      <c r="A75" s="435"/>
+      <c r="B75" s="411"/>
+      <c r="C75" s="429"/>
+      <c r="D75" s="429"/>
       <c r="E75" s="33" t="s">
         <v>572</v>
       </c>
@@ -14134,10 +14134,10 @@
       <c r="AS75" s="17"/>
     </row>
     <row r="76" spans="1:45" ht="34.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="540"/>
-      <c r="B76" s="384"/>
-      <c r="C76" s="414"/>
-      <c r="D76" s="414"/>
+      <c r="A76" s="435"/>
+      <c r="B76" s="412"/>
+      <c r="C76" s="430"/>
+      <c r="D76" s="430"/>
       <c r="E76" s="33" t="s">
         <v>573</v>
       </c>
@@ -14193,12 +14193,12 @@
       <c r="AS76" s="17"/>
     </row>
     <row r="77" spans="1:45" ht="44.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="540"/>
-      <c r="B77" s="524" t="s">
+      <c r="A77" s="435"/>
+      <c r="B77" s="402" t="s">
         <v>574</v>
       </c>
-      <c r="C77" s="412"/>
-      <c r="D77" s="536" t="s">
+      <c r="C77" s="428"/>
+      <c r="D77" s="395" t="s">
         <v>18</v>
       </c>
       <c r="E77" s="74" t="s">
@@ -14250,10 +14250,10 @@
       <c r="AS77" s="17"/>
     </row>
     <row r="78" spans="1:45" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="540"/>
-      <c r="B78" s="525"/>
-      <c r="C78" s="413"/>
-      <c r="D78" s="537"/>
+      <c r="A78" s="435"/>
+      <c r="B78" s="403"/>
+      <c r="C78" s="429"/>
+      <c r="D78" s="396"/>
       <c r="E78" s="74" t="s">
         <v>576</v>
       </c>
@@ -14309,10 +14309,10 @@
       <c r="AS78" s="17"/>
     </row>
     <row r="79" spans="1:45" ht="44.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="540"/>
-      <c r="B79" s="525"/>
-      <c r="C79" s="413"/>
-      <c r="D79" s="537"/>
+      <c r="A79" s="435"/>
+      <c r="B79" s="403"/>
+      <c r="C79" s="429"/>
+      <c r="D79" s="396"/>
       <c r="E79" s="73" t="s">
         <v>482</v>
       </c>
@@ -14366,10 +14366,10 @@
       <c r="AS79" s="17"/>
     </row>
     <row r="80" spans="1:45" ht="44.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="540"/>
-      <c r="B80" s="525"/>
-      <c r="C80" s="413"/>
-      <c r="D80" s="537"/>
+      <c r="A80" s="435"/>
+      <c r="B80" s="403"/>
+      <c r="C80" s="429"/>
+      <c r="D80" s="396"/>
       <c r="E80" s="74" t="s">
         <v>577</v>
       </c>
@@ -14425,10 +14425,10 @@
       <c r="AS80" s="17"/>
     </row>
     <row r="81" spans="1:45" ht="78" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="540"/>
-      <c r="B81" s="525"/>
-      <c r="C81" s="413"/>
-      <c r="D81" s="537"/>
+      <c r="A81" s="435"/>
+      <c r="B81" s="403"/>
+      <c r="C81" s="429"/>
+      <c r="D81" s="396"/>
       <c r="E81" s="74" t="s">
         <v>578</v>
       </c>
@@ -14482,10 +14482,10 @@
       <c r="AS81" s="17"/>
     </row>
     <row r="82" spans="1:45" ht="84" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="540"/>
-      <c r="B82" s="525"/>
-      <c r="C82" s="414"/>
-      <c r="D82" s="538"/>
+      <c r="A82" s="435"/>
+      <c r="B82" s="403"/>
+      <c r="C82" s="430"/>
+      <c r="D82" s="397"/>
       <c r="E82" s="33" t="s">
         <v>579</v>
       </c>
@@ -14541,10 +14541,10 @@
       <c r="AS82" s="17"/>
     </row>
     <row r="83" spans="1:45" ht="54.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="540"/>
-      <c r="B83" s="525"/>
-      <c r="C83" s="412"/>
-      <c r="D83" s="403" t="s">
+      <c r="A83" s="435"/>
+      <c r="B83" s="403"/>
+      <c r="C83" s="428"/>
+      <c r="D83" s="425" t="s">
         <v>19</v>
       </c>
       <c r="E83" s="257" t="s">
@@ -14596,10 +14596,10 @@
       <c r="AS83" s="17"/>
     </row>
     <row r="84" spans="1:45" ht="53.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="540"/>
-      <c r="B84" s="525"/>
-      <c r="C84" s="413"/>
-      <c r="D84" s="397"/>
+      <c r="A84" s="435"/>
+      <c r="B84" s="403"/>
+      <c r="C84" s="429"/>
+      <c r="D84" s="426"/>
       <c r="E84" s="257" t="s">
         <v>581</v>
       </c>
@@ -14653,10 +14653,10 @@
       <c r="AS84" s="17"/>
     </row>
     <row r="85" spans="1:45" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="540"/>
-      <c r="B85" s="525"/>
-      <c r="C85" s="413"/>
-      <c r="D85" s="397"/>
+      <c r="A85" s="435"/>
+      <c r="B85" s="403"/>
+      <c r="C85" s="429"/>
+      <c r="D85" s="426"/>
       <c r="E85" s="257" t="s">
         <v>582</v>
       </c>
@@ -14712,10 +14712,10 @@
       <c r="AS85" s="17"/>
     </row>
     <row r="86" spans="1:45" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="540"/>
-      <c r="B86" s="525"/>
-      <c r="C86" s="413"/>
-      <c r="D86" s="397"/>
+      <c r="A86" s="435"/>
+      <c r="B86" s="403"/>
+      <c r="C86" s="429"/>
+      <c r="D86" s="426"/>
       <c r="E86" s="257" t="s">
         <v>583</v>
       </c>
@@ -14771,10 +14771,10 @@
       <c r="AS86" s="17"/>
     </row>
     <row r="87" spans="1:45" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="540"/>
-      <c r="B87" s="525"/>
-      <c r="C87" s="414"/>
-      <c r="D87" s="398"/>
+      <c r="A87" s="435"/>
+      <c r="B87" s="403"/>
+      <c r="C87" s="430"/>
+      <c r="D87" s="427"/>
       <c r="E87" s="255" t="s">
         <v>584</v>
       </c>
@@ -14830,10 +14830,10 @@
       <c r="AS87" s="17"/>
     </row>
     <row r="88" spans="1:45" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="540"/>
-      <c r="B88" s="525"/>
-      <c r="C88" s="412"/>
-      <c r="D88" s="403" t="s">
+      <c r="A88" s="435"/>
+      <c r="B88" s="403"/>
+      <c r="C88" s="428"/>
+      <c r="D88" s="425" t="s">
         <v>20</v>
       </c>
       <c r="E88" s="74" t="s">
@@ -14885,10 +14885,10 @@
       <c r="AS88" s="17"/>
     </row>
     <row r="89" spans="1:45" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="540"/>
-      <c r="B89" s="525"/>
-      <c r="C89" s="413"/>
-      <c r="D89" s="397"/>
+      <c r="A89" s="435"/>
+      <c r="B89" s="403"/>
+      <c r="C89" s="429"/>
+      <c r="D89" s="426"/>
       <c r="E89" s="74" t="s">
         <v>586</v>
       </c>
@@ -14944,10 +14944,10 @@
       <c r="AS89" s="17"/>
     </row>
     <row r="90" spans="1:45" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="540"/>
-      <c r="B90" s="525"/>
-      <c r="C90" s="413"/>
-      <c r="D90" s="397"/>
+      <c r="A90" s="435"/>
+      <c r="B90" s="403"/>
+      <c r="C90" s="429"/>
+      <c r="D90" s="426"/>
       <c r="E90" s="74" t="s">
         <v>587</v>
       </c>
@@ -15003,10 +15003,10 @@
       <c r="AS90" s="17"/>
     </row>
     <row r="91" spans="1:45" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="540"/>
-      <c r="B91" s="525"/>
-      <c r="C91" s="413"/>
-      <c r="D91" s="397"/>
+      <c r="A91" s="435"/>
+      <c r="B91" s="403"/>
+      <c r="C91" s="429"/>
+      <c r="D91" s="426"/>
       <c r="E91" s="74" t="s">
         <v>588</v>
       </c>
@@ -15060,10 +15060,10 @@
       <c r="AS91" s="17"/>
     </row>
     <row r="92" spans="1:45" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="540"/>
-      <c r="B92" s="525"/>
-      <c r="C92" s="413"/>
-      <c r="D92" s="397"/>
+      <c r="A92" s="435"/>
+      <c r="B92" s="403"/>
+      <c r="C92" s="429"/>
+      <c r="D92" s="426"/>
       <c r="E92" s="33" t="s">
         <v>589</v>
       </c>
@@ -15119,10 +15119,10 @@
       <c r="AS92" s="17"/>
     </row>
     <row r="93" spans="1:45" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="540"/>
-      <c r="B93" s="525"/>
-      <c r="C93" s="413"/>
-      <c r="D93" s="397"/>
+      <c r="A93" s="435"/>
+      <c r="B93" s="403"/>
+      <c r="C93" s="429"/>
+      <c r="D93" s="426"/>
       <c r="E93" s="74" t="s">
         <v>590</v>
       </c>
@@ -15176,10 +15176,10 @@
       <c r="AS93" s="17"/>
     </row>
     <row r="94" spans="1:45" ht="65.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="540"/>
-      <c r="B94" s="525"/>
-      <c r="C94" s="414"/>
-      <c r="D94" s="398"/>
+      <c r="A94" s="435"/>
+      <c r="B94" s="403"/>
+      <c r="C94" s="430"/>
+      <c r="D94" s="427"/>
       <c r="E94" s="74" t="s">
         <v>591</v>
       </c>
@@ -15235,10 +15235,10 @@
       <c r="AS94" s="17"/>
     </row>
     <row r="95" spans="1:45" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="540"/>
-      <c r="B95" s="525"/>
-      <c r="C95" s="412"/>
-      <c r="D95" s="403" t="s">
+      <c r="A95" s="435"/>
+      <c r="B95" s="403"/>
+      <c r="C95" s="428"/>
+      <c r="D95" s="425" t="s">
         <v>21</v>
       </c>
       <c r="E95" s="33" t="s">
@@ -15290,10 +15290,10 @@
       <c r="AS95" s="17"/>
     </row>
     <row r="96" spans="1:45" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="540"/>
-      <c r="B96" s="525"/>
-      <c r="C96" s="413"/>
-      <c r="D96" s="397"/>
+      <c r="A96" s="435"/>
+      <c r="B96" s="403"/>
+      <c r="C96" s="429"/>
+      <c r="D96" s="426"/>
       <c r="E96" s="74" t="s">
         <v>593</v>
       </c>
@@ -15349,10 +15349,10 @@
       <c r="AS96" s="17"/>
     </row>
     <row r="97" spans="1:45" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="540"/>
-      <c r="B97" s="525"/>
-      <c r="C97" s="413"/>
-      <c r="D97" s="397"/>
+      <c r="A97" s="435"/>
+      <c r="B97" s="403"/>
+      <c r="C97" s="429"/>
+      <c r="D97" s="426"/>
       <c r="E97" s="74" t="s">
         <v>594</v>
       </c>
@@ -15408,10 +15408,10 @@
       <c r="AS97" s="17"/>
     </row>
     <row r="98" spans="1:45" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="540"/>
-      <c r="B98" s="525"/>
-      <c r="C98" s="413"/>
-      <c r="D98" s="397"/>
+      <c r="A98" s="435"/>
+      <c r="B98" s="403"/>
+      <c r="C98" s="429"/>
+      <c r="D98" s="426"/>
       <c r="E98" s="74" t="s">
         <v>595</v>
       </c>
@@ -15465,10 +15465,10 @@
       <c r="AS98" s="17"/>
     </row>
     <row r="99" spans="1:45" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="540"/>
-      <c r="B99" s="525"/>
-      <c r="C99" s="413"/>
-      <c r="D99" s="397"/>
+      <c r="A99" s="435"/>
+      <c r="B99" s="403"/>
+      <c r="C99" s="429"/>
+      <c r="D99" s="426"/>
       <c r="E99" s="74" t="s">
         <v>596</v>
       </c>
@@ -15520,10 +15520,10 @@
       <c r="AS99" s="17"/>
     </row>
     <row r="100" spans="1:45" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="540"/>
-      <c r="B100" s="525"/>
-      <c r="C100" s="413"/>
-      <c r="D100" s="397"/>
+      <c r="A100" s="435"/>
+      <c r="B100" s="403"/>
+      <c r="C100" s="429"/>
+      <c r="D100" s="426"/>
       <c r="E100" s="74" t="s">
         <v>597</v>
       </c>
@@ -15577,10 +15577,10 @@
       <c r="AS100" s="17"/>
     </row>
     <row r="101" spans="1:45" ht="68.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="540"/>
-      <c r="B101" s="526"/>
-      <c r="C101" s="414"/>
-      <c r="D101" s="397"/>
+      <c r="A101" s="435"/>
+      <c r="B101" s="404"/>
+      <c r="C101" s="430"/>
+      <c r="D101" s="426"/>
       <c r="E101" s="74" t="s">
         <v>591</v>
       </c>
@@ -15636,12 +15636,12 @@
       <c r="AS101" s="17"/>
     </row>
     <row r="102" spans="1:45" ht="68.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="540"/>
-      <c r="B102" s="524" t="s">
+      <c r="A102" s="435"/>
+      <c r="B102" s="402" t="s">
         <v>598</v>
       </c>
-      <c r="C102" s="415"/>
-      <c r="D102" s="403" t="s">
+      <c r="C102" s="532"/>
+      <c r="D102" s="425" t="s">
         <v>20</v>
       </c>
       <c r="E102" s="74" t="s">
@@ -15693,10 +15693,10 @@
       <c r="AS102" s="17"/>
     </row>
     <row r="103" spans="1:45" ht="55.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="540"/>
-      <c r="B103" s="525"/>
-      <c r="C103" s="416"/>
-      <c r="D103" s="397"/>
+      <c r="A103" s="435"/>
+      <c r="B103" s="403"/>
+      <c r="C103" s="533"/>
+      <c r="D103" s="426"/>
       <c r="E103" s="74" t="s">
         <v>600</v>
       </c>
@@ -15752,10 +15752,10 @@
       <c r="AS103" s="17"/>
     </row>
     <row r="104" spans="1:45" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="540"/>
-      <c r="B104" s="525"/>
-      <c r="C104" s="416"/>
-      <c r="D104" s="397"/>
+      <c r="A104" s="435"/>
+      <c r="B104" s="403"/>
+      <c r="C104" s="533"/>
+      <c r="D104" s="426"/>
       <c r="E104" s="74" t="s">
         <v>601</v>
       </c>
@@ -15809,10 +15809,10 @@
       <c r="AS104" s="17"/>
     </row>
     <row r="105" spans="1:45" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="540"/>
-      <c r="B105" s="525"/>
-      <c r="C105" s="416"/>
-      <c r="D105" s="397"/>
+      <c r="A105" s="435"/>
+      <c r="B105" s="403"/>
+      <c r="C105" s="533"/>
+      <c r="D105" s="426"/>
       <c r="E105" s="74" t="s">
         <v>602</v>
       </c>
@@ -15868,10 +15868,10 @@
       <c r="AS105" s="17"/>
     </row>
     <row r="106" spans="1:45" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="540"/>
-      <c r="B106" s="525"/>
-      <c r="C106" s="416"/>
-      <c r="D106" s="397"/>
+      <c r="A106" s="435"/>
+      <c r="B106" s="403"/>
+      <c r="C106" s="533"/>
+      <c r="D106" s="426"/>
       <c r="E106" s="33" t="s">
         <v>603</v>
       </c>
@@ -15925,10 +15925,10 @@
       <c r="AS106" s="17"/>
     </row>
     <row r="107" spans="1:45" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="541"/>
-      <c r="B107" s="526"/>
-      <c r="C107" s="417"/>
-      <c r="D107" s="397"/>
+      <c r="A107" s="436"/>
+      <c r="B107" s="404"/>
+      <c r="C107" s="534"/>
+      <c r="D107" s="426"/>
       <c r="E107" s="255" t="s">
         <v>604</v>
       </c>
@@ -15984,30 +15984,30 @@
       <c r="AS107" s="17"/>
     </row>
     <row r="108" spans="1:45" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="418" t="s">
+      <c r="A108" s="535" t="s">
         <v>15</v>
       </c>
-      <c r="B108" s="418"/>
-      <c r="C108" s="418"/>
-      <c r="D108" s="419"/>
-      <c r="E108" s="419"/>
-      <c r="F108" s="418"/>
-      <c r="G108" s="418"/>
-      <c r="H108" s="418"/>
-      <c r="I108" s="418"/>
-      <c r="J108" s="418"/>
-      <c r="K108" s="418"/>
-      <c r="L108" s="418"/>
-      <c r="M108" s="418"/>
-      <c r="N108" s="418"/>
-      <c r="O108" s="418"/>
-      <c r="P108" s="418"/>
-      <c r="Q108" s="418"/>
-      <c r="R108" s="418"/>
-      <c r="S108" s="418"/>
-      <c r="T108" s="418"/>
-      <c r="U108" s="418"/>
-      <c r="V108" s="420"/>
+      <c r="B108" s="535"/>
+      <c r="C108" s="535"/>
+      <c r="D108" s="536"/>
+      <c r="E108" s="536"/>
+      <c r="F108" s="535"/>
+      <c r="G108" s="535"/>
+      <c r="H108" s="535"/>
+      <c r="I108" s="535"/>
+      <c r="J108" s="535"/>
+      <c r="K108" s="535"/>
+      <c r="L108" s="535"/>
+      <c r="M108" s="535"/>
+      <c r="N108" s="535"/>
+      <c r="O108" s="535"/>
+      <c r="P108" s="535"/>
+      <c r="Q108" s="535"/>
+      <c r="R108" s="535"/>
+      <c r="S108" s="535"/>
+      <c r="T108" s="535"/>
+      <c r="U108" s="535"/>
+      <c r="V108" s="537"/>
       <c r="W108" s="40"/>
       <c r="X108" s="40"/>
       <c r="Y108" s="40"/>
@@ -16033,30 +16033,30 @@
       <c r="AS108" s="17"/>
     </row>
     <row r="109" spans="1:45" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="421" t="s">
+      <c r="A109" s="498" t="s">
         <v>12</v>
       </c>
-      <c r="B109" s="421"/>
-      <c r="C109" s="421"/>
-      <c r="D109" s="421"/>
-      <c r="E109" s="421"/>
-      <c r="F109" s="421"/>
-      <c r="G109" s="421"/>
-      <c r="H109" s="421"/>
-      <c r="I109" s="421"/>
-      <c r="J109" s="421"/>
-      <c r="K109" s="421"/>
-      <c r="L109" s="421"/>
-      <c r="M109" s="421"/>
-      <c r="N109" s="421"/>
-      <c r="O109" s="421"/>
-      <c r="P109" s="421"/>
-      <c r="Q109" s="421"/>
-      <c r="R109" s="421"/>
-      <c r="S109" s="421"/>
-      <c r="T109" s="421"/>
-      <c r="U109" s="421"/>
-      <c r="V109" s="422"/>
+      <c r="B109" s="498"/>
+      <c r="C109" s="498"/>
+      <c r="D109" s="498"/>
+      <c r="E109" s="498"/>
+      <c r="F109" s="498"/>
+      <c r="G109" s="498"/>
+      <c r="H109" s="498"/>
+      <c r="I109" s="498"/>
+      <c r="J109" s="498"/>
+      <c r="K109" s="498"/>
+      <c r="L109" s="498"/>
+      <c r="M109" s="498"/>
+      <c r="N109" s="498"/>
+      <c r="O109" s="498"/>
+      <c r="P109" s="498"/>
+      <c r="Q109" s="498"/>
+      <c r="R109" s="498"/>
+      <c r="S109" s="498"/>
+      <c r="T109" s="498"/>
+      <c r="U109" s="498"/>
+      <c r="V109" s="538"/>
       <c r="W109" s="40"/>
       <c r="X109" s="40"/>
       <c r="Y109" s="40"/>
@@ -16169,14 +16169,14 @@
       <c r="AS110" s="15"/>
     </row>
     <row r="111" spans="1:45" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="423" t="s">
+      <c r="A111" s="539" t="s">
         <v>605</v>
       </c>
-      <c r="B111" s="432" t="s">
+      <c r="B111" s="405" t="s">
         <v>39</v>
       </c>
-      <c r="C111" s="383"/>
-      <c r="D111" s="403" t="s">
+      <c r="C111" s="411"/>
+      <c r="D111" s="425" t="s">
         <v>28</v>
       </c>
       <c r="E111" s="332" t="s">
@@ -16228,10 +16228,10 @@
       <c r="AS111" s="17"/>
     </row>
     <row r="112" spans="1:45" ht="49.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="424"/>
-      <c r="B112" s="433"/>
-      <c r="C112" s="383"/>
-      <c r="D112" s="397"/>
+      <c r="A112" s="540"/>
+      <c r="B112" s="406"/>
+      <c r="C112" s="411"/>
+      <c r="D112" s="426"/>
       <c r="E112" s="32" t="s">
         <v>70</v>
       </c>
@@ -16289,10 +16289,10 @@
       <c r="AS112" s="17"/>
     </row>
     <row r="113" spans="1:45" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="424"/>
-      <c r="B113" s="433"/>
-      <c r="C113" s="383"/>
-      <c r="D113" s="397"/>
+      <c r="A113" s="540"/>
+      <c r="B113" s="406"/>
+      <c r="C113" s="411"/>
+      <c r="D113" s="426"/>
       <c r="E113" s="32" t="s">
         <v>59</v>
       </c>
@@ -16344,10 +16344,10 @@
       <c r="AS113" s="17"/>
     </row>
     <row r="114" spans="1:45" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="424"/>
-      <c r="B114" s="433"/>
-      <c r="C114" s="383"/>
-      <c r="D114" s="397"/>
+      <c r="A114" s="540"/>
+      <c r="B114" s="406"/>
+      <c r="C114" s="411"/>
+      <c r="D114" s="426"/>
       <c r="E114" s="32" t="s">
         <v>60</v>
       </c>
@@ -16405,10 +16405,10 @@
       <c r="AS114" s="17"/>
     </row>
     <row r="115" spans="1:45" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="424"/>
-      <c r="B115" s="433"/>
-      <c r="C115" s="383"/>
-      <c r="D115" s="397"/>
+      <c r="A115" s="540"/>
+      <c r="B115" s="406"/>
+      <c r="C115" s="411"/>
+      <c r="D115" s="426"/>
       <c r="E115" s="32" t="s">
         <v>61</v>
       </c>
@@ -16462,10 +16462,10 @@
       <c r="AS115" s="17"/>
     </row>
     <row r="116" spans="1:45" ht="64.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="424"/>
-      <c r="B116" s="433"/>
-      <c r="C116" s="383"/>
-      <c r="D116" s="397"/>
+      <c r="A116" s="540"/>
+      <c r="B116" s="406"/>
+      <c r="C116" s="411"/>
+      <c r="D116" s="426"/>
       <c r="E116" s="32" t="s">
         <v>71</v>
       </c>
@@ -16519,10 +16519,10 @@
       <c r="AS116" s="17"/>
     </row>
     <row r="117" spans="1:45" ht="100.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="424"/>
-      <c r="B117" s="434"/>
-      <c r="C117" s="383"/>
-      <c r="D117" s="398"/>
+      <c r="A117" s="540"/>
+      <c r="B117" s="522"/>
+      <c r="C117" s="411"/>
+      <c r="D117" s="427"/>
       <c r="E117" s="32" t="s">
         <v>149</v>
       </c>
@@ -16572,12 +16572,12 @@
       <c r="AS117" s="17"/>
     </row>
     <row r="118" spans="1:45" ht="50.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="424"/>
-      <c r="B118" s="483" t="s">
+      <c r="A118" s="540"/>
+      <c r="B118" s="482" t="s">
         <v>606</v>
       </c>
-      <c r="C118" s="383"/>
-      <c r="D118" s="403" t="s">
+      <c r="C118" s="411"/>
+      <c r="D118" s="425" t="s">
         <v>28</v>
       </c>
       <c r="E118" s="32" t="s">
@@ -16629,10 +16629,10 @@
       <c r="AS118" s="17"/>
     </row>
     <row r="119" spans="1:45" ht="108" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="424"/>
-      <c r="B119" s="484"/>
-      <c r="C119" s="383"/>
-      <c r="D119" s="397"/>
+      <c r="A119" s="540"/>
+      <c r="B119" s="483"/>
+      <c r="C119" s="411"/>
+      <c r="D119" s="426"/>
       <c r="E119" s="32" t="s">
         <v>152</v>
       </c>
@@ -16690,10 +16690,10 @@
       <c r="AS119" s="17"/>
     </row>
     <row r="120" spans="1:45" ht="44.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="424"/>
-      <c r="B120" s="484"/>
-      <c r="C120" s="383"/>
-      <c r="D120" s="397"/>
+      <c r="A120" s="540"/>
+      <c r="B120" s="483"/>
+      <c r="C120" s="411"/>
+      <c r="D120" s="426"/>
       <c r="E120" s="32" t="s">
         <v>72</v>
       </c>
@@ -16743,10 +16743,10 @@
       <c r="AS120" s="17"/>
     </row>
     <row r="121" spans="1:45" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="424"/>
-      <c r="B121" s="484"/>
-      <c r="C121" s="383"/>
-      <c r="D121" s="397"/>
+      <c r="A121" s="540"/>
+      <c r="B121" s="483"/>
+      <c r="C121" s="411"/>
+      <c r="D121" s="426"/>
       <c r="E121" s="32" t="s">
         <v>73</v>
       </c>
@@ -16802,10 +16802,10 @@
       <c r="AS121" s="17"/>
     </row>
     <row r="122" spans="1:45" ht="17.399999999999999" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="424"/>
-      <c r="B122" s="484"/>
-      <c r="C122" s="383"/>
-      <c r="D122" s="397"/>
+      <c r="A122" s="540"/>
+      <c r="B122" s="483"/>
+      <c r="C122" s="411"/>
+      <c r="D122" s="426"/>
       <c r="E122" s="32" t="s">
         <v>74</v>
       </c>
@@ -16859,10 +16859,10 @@
       <c r="AS122" s="17"/>
     </row>
     <row r="123" spans="1:45" ht="53.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="424"/>
-      <c r="B123" s="484"/>
-      <c r="C123" s="383"/>
-      <c r="D123" s="397"/>
+      <c r="A123" s="540"/>
+      <c r="B123" s="483"/>
+      <c r="C123" s="411"/>
+      <c r="D123" s="426"/>
       <c r="E123" s="32" t="s">
         <v>75</v>
       </c>
@@ -16914,10 +16914,10 @@
       <c r="AS123" s="17"/>
     </row>
     <row r="124" spans="1:45" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="424"/>
-      <c r="B124" s="484"/>
-      <c r="C124" s="383"/>
-      <c r="D124" s="398"/>
+      <c r="A124" s="540"/>
+      <c r="B124" s="483"/>
+      <c r="C124" s="411"/>
+      <c r="D124" s="427"/>
       <c r="E124" s="32" t="s">
         <v>155</v>
       </c>
@@ -16973,10 +16973,10 @@
       <c r="AS124" s="17"/>
     </row>
     <row r="125" spans="1:45" ht="96.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="424"/>
-      <c r="B125" s="484"/>
-      <c r="C125" s="383"/>
-      <c r="D125" s="399" t="s">
+      <c r="A125" s="540"/>
+      <c r="B125" s="483"/>
+      <c r="C125" s="411"/>
+      <c r="D125" s="453" t="s">
         <v>38</v>
       </c>
       <c r="E125" s="32" t="s">
@@ -17036,10 +17036,10 @@
       <c r="AS125" s="17"/>
     </row>
     <row r="126" spans="1:45" ht="114.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="425"/>
-      <c r="B126" s="485"/>
-      <c r="C126" s="384"/>
-      <c r="D126" s="399"/>
+      <c r="A126" s="541"/>
+      <c r="B126" s="484"/>
+      <c r="C126" s="412"/>
+      <c r="D126" s="453"/>
       <c r="E126" s="32" t="s">
         <v>62</v>
       </c>
@@ -17089,30 +17089,30 @@
       <c r="AS126" s="17"/>
     </row>
     <row r="127" spans="1:45" ht="47.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="421" t="s">
+      <c r="A127" s="498" t="s">
         <v>29</v>
       </c>
-      <c r="B127" s="465"/>
-      <c r="C127" s="465"/>
-      <c r="D127" s="465"/>
-      <c r="E127" s="465"/>
-      <c r="F127" s="465"/>
-      <c r="G127" s="465"/>
-      <c r="H127" s="465"/>
-      <c r="I127" s="465"/>
-      <c r="J127" s="465"/>
-      <c r="K127" s="465"/>
-      <c r="L127" s="465"/>
-      <c r="M127" s="465"/>
-      <c r="N127" s="465"/>
-      <c r="O127" s="465"/>
-      <c r="P127" s="465"/>
-      <c r="Q127" s="465"/>
-      <c r="R127" s="465"/>
-      <c r="S127" s="465"/>
-      <c r="T127" s="465"/>
-      <c r="U127" s="465"/>
-      <c r="V127" s="466"/>
+      <c r="B127" s="499"/>
+      <c r="C127" s="499"/>
+      <c r="D127" s="499"/>
+      <c r="E127" s="499"/>
+      <c r="F127" s="499"/>
+      <c r="G127" s="499"/>
+      <c r="H127" s="499"/>
+      <c r="I127" s="499"/>
+      <c r="J127" s="499"/>
+      <c r="K127" s="499"/>
+      <c r="L127" s="499"/>
+      <c r="M127" s="499"/>
+      <c r="N127" s="499"/>
+      <c r="O127" s="499"/>
+      <c r="P127" s="499"/>
+      <c r="Q127" s="499"/>
+      <c r="R127" s="499"/>
+      <c r="S127" s="499"/>
+      <c r="T127" s="499"/>
+      <c r="U127" s="499"/>
+      <c r="V127" s="500"/>
       <c r="W127" s="40"/>
       <c r="X127" s="40"/>
       <c r="Y127" s="40"/>
@@ -17225,14 +17225,14 @@
       <c r="AS128" s="17"/>
     </row>
     <row r="129" spans="1:45" s="121" customFormat="1" ht="33.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="471" t="s">
+      <c r="A129" s="505" t="s">
         <v>607</v>
       </c>
-      <c r="B129" s="486" t="s">
+      <c r="B129" s="485" t="s">
         <v>608</v>
       </c>
-      <c r="C129" s="429"/>
-      <c r="D129" s="426" t="s">
+      <c r="C129" s="545"/>
+      <c r="D129" s="542" t="s">
         <v>41</v>
       </c>
       <c r="E129" s="88" t="s">
@@ -17286,10 +17286,10 @@
       <c r="AS129" s="120"/>
     </row>
     <row r="130" spans="1:45" ht="132" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="472"/>
-      <c r="B130" s="487"/>
-      <c r="C130" s="430"/>
-      <c r="D130" s="427"/>
+      <c r="A130" s="506"/>
+      <c r="B130" s="486"/>
+      <c r="C130" s="546"/>
+      <c r="D130" s="543"/>
       <c r="E130" s="73" t="s">
         <v>40</v>
       </c>
@@ -17345,10 +17345,10 @@
       <c r="AS130" s="17"/>
     </row>
     <row r="131" spans="1:45" ht="77.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="472"/>
-      <c r="B131" s="487"/>
-      <c r="C131" s="430"/>
-      <c r="D131" s="427"/>
+      <c r="A131" s="506"/>
+      <c r="B131" s="486"/>
+      <c r="C131" s="546"/>
+      <c r="D131" s="543"/>
       <c r="E131" s="73" t="s">
         <v>42</v>
       </c>
@@ -17404,10 +17404,10 @@
       <c r="AS131" s="17"/>
     </row>
     <row r="132" spans="1:45" ht="69" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="472"/>
-      <c r="B132" s="487"/>
-      <c r="C132" s="431"/>
-      <c r="D132" s="428"/>
+      <c r="A132" s="506"/>
+      <c r="B132" s="486"/>
+      <c r="C132" s="547"/>
+      <c r="D132" s="544"/>
       <c r="E132" s="32" t="s">
         <v>43</v>
       </c>
@@ -17467,10 +17467,10 @@
       <c r="AS132" s="17"/>
     </row>
     <row r="133" spans="1:45" ht="129.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="472"/>
-      <c r="B133" s="487"/>
-      <c r="C133" s="389"/>
-      <c r="D133" s="387" t="s">
+      <c r="A133" s="506"/>
+      <c r="B133" s="486"/>
+      <c r="C133" s="513"/>
+      <c r="D133" s="487" t="s">
         <v>44</v>
       </c>
       <c r="E133" s="100" t="s">
@@ -17532,10 +17532,10 @@
       <c r="AS133" s="17"/>
     </row>
     <row r="134" spans="1:45" ht="67.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="472"/>
-      <c r="B134" s="487"/>
-      <c r="C134" s="390"/>
-      <c r="D134" s="388"/>
+      <c r="A134" s="506"/>
+      <c r="B134" s="486"/>
+      <c r="C134" s="515"/>
+      <c r="D134" s="489"/>
       <c r="E134" s="100" t="s">
         <v>165</v>
       </c>
@@ -17591,10 +17591,10 @@
       <c r="AS134" s="17"/>
     </row>
     <row r="135" spans="1:45" ht="66.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="472"/>
-      <c r="B135" s="487"/>
-      <c r="C135" s="389"/>
-      <c r="D135" s="447" t="s">
+      <c r="A135" s="506"/>
+      <c r="B135" s="486"/>
+      <c r="C135" s="513"/>
+      <c r="D135" s="528" t="s">
         <v>88</v>
       </c>
       <c r="E135" s="73" t="s">
@@ -17652,10 +17652,10 @@
       <c r="AS135" s="17"/>
     </row>
     <row r="136" spans="1:45" ht="72.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="472"/>
-      <c r="B136" s="487"/>
-      <c r="C136" s="392"/>
-      <c r="D136" s="447"/>
+      <c r="A136" s="506"/>
+      <c r="B136" s="486"/>
+      <c r="C136" s="514"/>
+      <c r="D136" s="528"/>
       <c r="E136" s="32" t="s">
         <v>172</v>
       </c>
@@ -17713,10 +17713,10 @@
       <c r="AS136" s="17"/>
     </row>
     <row r="137" spans="1:45" ht="57.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="472"/>
-      <c r="B137" s="487"/>
-      <c r="C137" s="392"/>
-      <c r="D137" s="447"/>
+      <c r="A137" s="506"/>
+      <c r="B137" s="486"/>
+      <c r="C137" s="514"/>
+      <c r="D137" s="528"/>
       <c r="E137" s="32" t="s">
         <v>92</v>
       </c>
@@ -17772,10 +17772,10 @@
       <c r="AS137" s="17"/>
     </row>
     <row r="138" spans="1:45" ht="54.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="472"/>
-      <c r="B138" s="487"/>
-      <c r="C138" s="390"/>
-      <c r="D138" s="447"/>
+      <c r="A138" s="506"/>
+      <c r="B138" s="486"/>
+      <c r="C138" s="515"/>
+      <c r="D138" s="528"/>
       <c r="E138" s="32" t="s">
         <v>93</v>
       </c>
@@ -17831,12 +17831,12 @@
       <c r="AS138" s="17"/>
     </row>
     <row r="139" spans="1:45" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="472"/>
-      <c r="B139" s="484" t="s">
+      <c r="A139" s="506"/>
+      <c r="B139" s="483" t="s">
         <v>609</v>
       </c>
-      <c r="C139" s="389"/>
-      <c r="D139" s="387"/>
+      <c r="C139" s="513"/>
+      <c r="D139" s="487"/>
       <c r="E139" s="32" t="s">
         <v>96</v>
       </c>
@@ -17886,10 +17886,10 @@
       <c r="AS139" s="17"/>
     </row>
     <row r="140" spans="1:45" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="472"/>
-      <c r="B140" s="484"/>
-      <c r="C140" s="390"/>
-      <c r="D140" s="388"/>
+      <c r="A140" s="506"/>
+      <c r="B140" s="483"/>
+      <c r="C140" s="515"/>
+      <c r="D140" s="489"/>
       <c r="E140" s="73" t="s">
         <v>106</v>
       </c>
@@ -17941,10 +17941,10 @@
       <c r="AS140" s="17"/>
     </row>
     <row r="141" spans="1:45" ht="47.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="472"/>
-      <c r="B141" s="484"/>
-      <c r="C141" s="389"/>
-      <c r="D141" s="387" t="s">
+      <c r="A141" s="506"/>
+      <c r="B141" s="483"/>
+      <c r="C141" s="513"/>
+      <c r="D141" s="487" t="s">
         <v>18</v>
       </c>
       <c r="E141" s="73" t="s">
@@ -17996,10 +17996,10 @@
       <c r="AS141" s="17"/>
     </row>
     <row r="142" spans="1:45" ht="63" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="472"/>
-      <c r="B142" s="484"/>
-      <c r="C142" s="392"/>
-      <c r="D142" s="391"/>
+      <c r="A142" s="506"/>
+      <c r="B142" s="483"/>
+      <c r="C142" s="514"/>
+      <c r="D142" s="488"/>
       <c r="E142" s="73" t="s">
         <v>30</v>
       </c>
@@ -18057,10 +18057,10 @@
       <c r="AS142" s="17"/>
     </row>
     <row r="143" spans="1:45" ht="51.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="472"/>
-      <c r="B143" s="484"/>
-      <c r="C143" s="392"/>
-      <c r="D143" s="391"/>
+      <c r="A143" s="506"/>
+      <c r="B143" s="483"/>
+      <c r="C143" s="514"/>
+      <c r="D143" s="488"/>
       <c r="E143" s="32" t="s">
         <v>31</v>
       </c>
@@ -18118,10 +18118,10 @@
       <c r="AS143" s="17"/>
     </row>
     <row r="144" spans="1:45" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="472"/>
-      <c r="B144" s="484"/>
-      <c r="C144" s="392"/>
-      <c r="D144" s="391"/>
+      <c r="A144" s="506"/>
+      <c r="B144" s="483"/>
+      <c r="C144" s="514"/>
+      <c r="D144" s="488"/>
       <c r="E144" s="32" t="s">
         <v>32</v>
       </c>
@@ -18179,10 +18179,10 @@
       <c r="AS144" s="17"/>
     </row>
     <row r="145" spans="1:45" ht="50.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="472"/>
-      <c r="B145" s="484"/>
-      <c r="C145" s="390"/>
-      <c r="D145" s="388"/>
+      <c r="A145" s="506"/>
+      <c r="B145" s="483"/>
+      <c r="C145" s="515"/>
+      <c r="D145" s="489"/>
       <c r="E145" s="32" t="s">
         <v>107</v>
       </c>
@@ -18240,10 +18240,10 @@
       <c r="AS145" s="17"/>
     </row>
     <row r="146" spans="1:45" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="472"/>
-      <c r="B146" s="484"/>
-      <c r="C146" s="389"/>
-      <c r="D146" s="477" t="s">
+      <c r="A146" s="506"/>
+      <c r="B146" s="483"/>
+      <c r="C146" s="513"/>
+      <c r="D146" s="509" t="s">
         <v>19</v>
       </c>
       <c r="E146" s="73" t="s">
@@ -18295,10 +18295,10 @@
       <c r="AS146" s="17"/>
     </row>
     <row r="147" spans="1:45" ht="86.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="472"/>
-      <c r="B147" s="484"/>
-      <c r="C147" s="392"/>
-      <c r="D147" s="478"/>
+      <c r="A147" s="506"/>
+      <c r="B147" s="483"/>
+      <c r="C147" s="514"/>
+      <c r="D147" s="510"/>
       <c r="E147" s="73" t="s">
         <v>180</v>
       </c>
@@ -18356,10 +18356,10 @@
       <c r="AS147" s="17"/>
     </row>
     <row r="148" spans="1:45" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="472"/>
-      <c r="B148" s="484"/>
-      <c r="C148" s="392"/>
-      <c r="D148" s="478"/>
+      <c r="A148" s="506"/>
+      <c r="B148" s="483"/>
+      <c r="C148" s="514"/>
+      <c r="D148" s="510"/>
       <c r="E148" s="32" t="s">
         <v>181</v>
       </c>
@@ -18417,10 +18417,10 @@
       <c r="AS148" s="17"/>
     </row>
     <row r="149" spans="1:45" ht="54.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="472"/>
-      <c r="B149" s="484"/>
-      <c r="C149" s="390"/>
-      <c r="D149" s="479"/>
+      <c r="A149" s="506"/>
+      <c r="B149" s="483"/>
+      <c r="C149" s="515"/>
+      <c r="D149" s="511"/>
       <c r="E149" s="32" t="s">
         <v>182</v>
       </c>
@@ -18478,10 +18478,10 @@
       <c r="AS149" s="17"/>
     </row>
     <row r="150" spans="1:45" ht="50.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="472"/>
-      <c r="B150" s="484"/>
-      <c r="C150" s="389"/>
-      <c r="D150" s="477" t="s">
+      <c r="A150" s="506"/>
+      <c r="B150" s="483"/>
+      <c r="C150" s="513"/>
+      <c r="D150" s="509" t="s">
         <v>20</v>
       </c>
       <c r="E150" s="73" t="s">
@@ -18533,10 +18533,10 @@
       <c r="AS150" s="17"/>
     </row>
     <row r="151" spans="1:45" ht="88.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="472"/>
-      <c r="B151" s="484"/>
-      <c r="C151" s="392"/>
-      <c r="D151" s="478"/>
+      <c r="A151" s="506"/>
+      <c r="B151" s="483"/>
+      <c r="C151" s="514"/>
+      <c r="D151" s="510"/>
       <c r="E151" s="73" t="s">
         <v>180</v>
       </c>
@@ -18594,10 +18594,10 @@
       <c r="AS151" s="17"/>
     </row>
     <row r="152" spans="1:45" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="472"/>
-      <c r="B152" s="484"/>
-      <c r="C152" s="392"/>
-      <c r="D152" s="478"/>
+      <c r="A152" s="506"/>
+      <c r="B152" s="483"/>
+      <c r="C152" s="514"/>
+      <c r="D152" s="510"/>
       <c r="E152" s="32" t="s">
         <v>181</v>
       </c>
@@ -18655,10 +18655,10 @@
       <c r="AS152" s="17"/>
     </row>
     <row r="153" spans="1:45" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="472"/>
-      <c r="B153" s="484"/>
-      <c r="C153" s="390"/>
-      <c r="D153" s="479"/>
+      <c r="A153" s="506"/>
+      <c r="B153" s="483"/>
+      <c r="C153" s="515"/>
+      <c r="D153" s="511"/>
       <c r="E153" s="32" t="s">
         <v>182</v>
       </c>
@@ -18716,10 +18716,10 @@
       <c r="AS153" s="17"/>
     </row>
     <row r="154" spans="1:45" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="472"/>
-      <c r="B154" s="484"/>
-      <c r="C154" s="389"/>
-      <c r="D154" s="477" t="s">
+      <c r="A154" s="506"/>
+      <c r="B154" s="483"/>
+      <c r="C154" s="513"/>
+      <c r="D154" s="509" t="s">
         <v>21</v>
       </c>
       <c r="E154" s="73" t="s">
@@ -18771,10 +18771,10 @@
       <c r="AS154" s="17"/>
     </row>
     <row r="155" spans="1:45" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="472"/>
-      <c r="B155" s="485"/>
-      <c r="C155" s="390"/>
-      <c r="D155" s="479"/>
+      <c r="A155" s="506"/>
+      <c r="B155" s="484"/>
+      <c r="C155" s="515"/>
+      <c r="D155" s="511"/>
       <c r="E155" s="32" t="s">
         <v>33</v>
       </c>
@@ -18832,7 +18832,7 @@
       <c r="AS155" s="17"/>
     </row>
     <row r="156" spans="1:45" ht="90" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="472"/>
+      <c r="A156" s="506"/>
       <c r="B156" s="265" t="s">
         <v>610</v>
       </c>
@@ -18893,12 +18893,12 @@
       <c r="AS156" s="17"/>
     </row>
     <row r="157" spans="1:45" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="472"/>
-      <c r="B157" s="483" t="s">
+      <c r="A157" s="506"/>
+      <c r="B157" s="482" t="s">
         <v>611</v>
       </c>
-      <c r="C157" s="389"/>
-      <c r="D157" s="387" t="s">
+      <c r="C157" s="513"/>
+      <c r="D157" s="487" t="s">
         <v>18</v>
       </c>
       <c r="E157" s="32" t="s">
@@ -18950,10 +18950,10 @@
       <c r="AS157" s="17"/>
     </row>
     <row r="158" spans="1:45" ht="71.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="472"/>
-      <c r="B158" s="484"/>
-      <c r="C158" s="392"/>
-      <c r="D158" s="391"/>
+      <c r="A158" s="506"/>
+      <c r="B158" s="483"/>
+      <c r="C158" s="514"/>
+      <c r="D158" s="488"/>
       <c r="E158" s="74" t="s">
         <v>612</v>
       </c>
@@ -19009,10 +19009,10 @@
       <c r="AS158" s="17"/>
     </row>
     <row r="159" spans="1:45" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="472"/>
-      <c r="B159" s="484"/>
-      <c r="C159" s="392"/>
-      <c r="D159" s="391"/>
+      <c r="A159" s="506"/>
+      <c r="B159" s="483"/>
+      <c r="C159" s="514"/>
+      <c r="D159" s="488"/>
       <c r="E159" s="33" t="s">
         <v>613</v>
       </c>
@@ -19072,10 +19072,10 @@
       <c r="AS159" s="17"/>
     </row>
     <row r="160" spans="1:45" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="472"/>
-      <c r="B160" s="484"/>
-      <c r="C160" s="392"/>
-      <c r="D160" s="391"/>
+      <c r="A160" s="506"/>
+      <c r="B160" s="483"/>
+      <c r="C160" s="514"/>
+      <c r="D160" s="488"/>
       <c r="E160" s="32" t="s">
         <v>46</v>
       </c>
@@ -19104,11 +19104,11 @@
       <c r="T160" s="235"/>
       <c r="U160" s="235"/>
       <c r="V160" s="235"/>
-      <c r="W160" s="467" t="s">
+      <c r="W160" s="501" t="s">
         <v>27</v>
       </c>
-      <c r="X160" s="467"/>
-      <c r="Y160" s="469"/>
+      <c r="X160" s="501"/>
+      <c r="Y160" s="503"/>
       <c r="Z160" s="17"/>
       <c r="AA160" s="17"/>
       <c r="AB160" s="17"/>
@@ -19131,10 +19131,10 @@
       <c r="AS160" s="17"/>
     </row>
     <row r="161" spans="1:45" ht="68.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="472"/>
-      <c r="B161" s="484"/>
-      <c r="C161" s="392"/>
-      <c r="D161" s="391"/>
+      <c r="A161" s="506"/>
+      <c r="B161" s="483"/>
+      <c r="C161" s="514"/>
+      <c r="D161" s="488"/>
       <c r="E161" s="32" t="s">
         <v>47</v>
       </c>
@@ -19165,9 +19165,9 @@
       <c r="T161" s="235"/>
       <c r="U161" s="235"/>
       <c r="V161" s="235"/>
-      <c r="W161" s="468"/>
-      <c r="X161" s="468"/>
-      <c r="Y161" s="470"/>
+      <c r="W161" s="502"/>
+      <c r="X161" s="502"/>
+      <c r="Y161" s="504"/>
       <c r="Z161" s="17"/>
       <c r="AA161" s="17"/>
       <c r="AB161" s="17"/>
@@ -19190,10 +19190,10 @@
       <c r="AS161" s="17"/>
     </row>
     <row r="162" spans="1:45" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="472"/>
-      <c r="B162" s="484"/>
-      <c r="C162" s="392"/>
-      <c r="D162" s="391"/>
+      <c r="A162" s="506"/>
+      <c r="B162" s="483"/>
+      <c r="C162" s="514"/>
+      <c r="D162" s="488"/>
       <c r="E162" s="32" t="s">
         <v>48</v>
       </c>
@@ -19249,10 +19249,10 @@
       <c r="AS162" s="17"/>
     </row>
     <row r="163" spans="1:45" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="472"/>
-      <c r="B163" s="484"/>
-      <c r="C163" s="390"/>
-      <c r="D163" s="388"/>
+      <c r="A163" s="506"/>
+      <c r="B163" s="483"/>
+      <c r="C163" s="515"/>
+      <c r="D163" s="489"/>
       <c r="E163" s="32" t="s">
         <v>49</v>
       </c>
@@ -19310,10 +19310,10 @@
       <c r="AS163" s="17"/>
     </row>
     <row r="164" spans="1:45" ht="61.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="472"/>
-      <c r="B164" s="484"/>
-      <c r="C164" s="389"/>
-      <c r="D164" s="391" t="s">
+      <c r="A164" s="506"/>
+      <c r="B164" s="483"/>
+      <c r="C164" s="513"/>
+      <c r="D164" s="488" t="s">
         <v>19</v>
       </c>
       <c r="E164" s="74" t="s">
@@ -19371,10 +19371,10 @@
       <c r="AS164" s="17"/>
     </row>
     <row r="165" spans="1:45" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="472"/>
-      <c r="B165" s="484"/>
-      <c r="C165" s="392"/>
-      <c r="D165" s="391"/>
+      <c r="A165" s="506"/>
+      <c r="B165" s="483"/>
+      <c r="C165" s="514"/>
+      <c r="D165" s="488"/>
       <c r="E165" s="33" t="s">
         <v>614</v>
       </c>
@@ -19432,10 +19432,10 @@
       <c r="AS165" s="17"/>
     </row>
     <row r="166" spans="1:45" ht="51.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="472"/>
-      <c r="B166" s="484"/>
-      <c r="C166" s="392"/>
-      <c r="D166" s="391"/>
+      <c r="A166" s="506"/>
+      <c r="B166" s="483"/>
+      <c r="C166" s="514"/>
+      <c r="D166" s="488"/>
       <c r="E166" s="32" t="s">
         <v>46</v>
       </c>
@@ -19491,10 +19491,10 @@
       <c r="AS166" s="17"/>
     </row>
     <row r="167" spans="1:45" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="472"/>
-      <c r="B167" s="484"/>
-      <c r="C167" s="392"/>
-      <c r="D167" s="391"/>
+      <c r="A167" s="506"/>
+      <c r="B167" s="483"/>
+      <c r="C167" s="514"/>
+      <c r="D167" s="488"/>
       <c r="E167" s="32" t="s">
         <v>47</v>
       </c>
@@ -19552,10 +19552,10 @@
       <c r="AS167" s="17"/>
     </row>
     <row r="168" spans="1:45" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="472"/>
-      <c r="B168" s="484"/>
-      <c r="C168" s="392"/>
-      <c r="D168" s="391"/>
+      <c r="A168" s="506"/>
+      <c r="B168" s="483"/>
+      <c r="C168" s="514"/>
+      <c r="D168" s="488"/>
       <c r="E168" s="32" t="s">
         <v>48</v>
       </c>
@@ -19611,10 +19611,10 @@
       <c r="AS168" s="17"/>
     </row>
     <row r="169" spans="1:45" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="472"/>
-      <c r="B169" s="484"/>
-      <c r="C169" s="390"/>
-      <c r="D169" s="388"/>
+      <c r="A169" s="506"/>
+      <c r="B169" s="483"/>
+      <c r="C169" s="515"/>
+      <c r="D169" s="489"/>
       <c r="E169" s="32" t="s">
         <v>49</v>
       </c>
@@ -19672,10 +19672,10 @@
       <c r="AS169" s="17"/>
     </row>
     <row r="170" spans="1:45" ht="68.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="472"/>
-      <c r="B170" s="484"/>
-      <c r="C170" s="389"/>
-      <c r="D170" s="387" t="s">
+      <c r="A170" s="506"/>
+      <c r="B170" s="483"/>
+      <c r="C170" s="513"/>
+      <c r="D170" s="487" t="s">
         <v>20</v>
       </c>
       <c r="E170" s="74" t="s">
@@ -19733,10 +19733,10 @@
       <c r="AS170" s="17"/>
     </row>
     <row r="171" spans="1:45" ht="35.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="472"/>
-      <c r="B171" s="484"/>
-      <c r="C171" s="392"/>
-      <c r="D171" s="391"/>
+      <c r="A171" s="506"/>
+      <c r="B171" s="483"/>
+      <c r="C171" s="514"/>
+      <c r="D171" s="488"/>
       <c r="E171" s="33" t="s">
         <v>614</v>
       </c>
@@ -19794,10 +19794,10 @@
       <c r="AS171" s="17"/>
     </row>
     <row r="172" spans="1:45" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="472"/>
-      <c r="B172" s="484"/>
-      <c r="C172" s="392"/>
-      <c r="D172" s="391"/>
+      <c r="A172" s="506"/>
+      <c r="B172" s="483"/>
+      <c r="C172" s="514"/>
+      <c r="D172" s="488"/>
       <c r="E172" s="32" t="s">
         <v>46</v>
       </c>
@@ -19853,10 +19853,10 @@
       <c r="AS172" s="17"/>
     </row>
     <row r="173" spans="1:45" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="472"/>
-      <c r="B173" s="484"/>
-      <c r="C173" s="392"/>
-      <c r="D173" s="391"/>
+      <c r="A173" s="506"/>
+      <c r="B173" s="483"/>
+      <c r="C173" s="514"/>
+      <c r="D173" s="488"/>
       <c r="E173" s="32" t="s">
         <v>47</v>
       </c>
@@ -19914,10 +19914,10 @@
       <c r="AS173" s="17"/>
     </row>
     <row r="174" spans="1:45" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="472"/>
-      <c r="B174" s="484"/>
-      <c r="C174" s="392"/>
-      <c r="D174" s="391"/>
+      <c r="A174" s="506"/>
+      <c r="B174" s="483"/>
+      <c r="C174" s="514"/>
+      <c r="D174" s="488"/>
       <c r="E174" s="32" t="s">
         <v>48</v>
       </c>
@@ -19973,10 +19973,10 @@
       <c r="AS174" s="17"/>
     </row>
     <row r="175" spans="1:45" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="472"/>
-      <c r="B175" s="484"/>
-      <c r="C175" s="390"/>
-      <c r="D175" s="388"/>
+      <c r="A175" s="506"/>
+      <c r="B175" s="483"/>
+      <c r="C175" s="515"/>
+      <c r="D175" s="489"/>
       <c r="E175" s="32" t="s">
         <v>49</v>
       </c>
@@ -20034,10 +20034,10 @@
       <c r="AS175" s="17"/>
     </row>
     <row r="176" spans="1:45" ht="65.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="472"/>
-      <c r="B176" s="484"/>
-      <c r="C176" s="389"/>
-      <c r="D176" s="387" t="s">
+      <c r="A176" s="506"/>
+      <c r="B176" s="483"/>
+      <c r="C176" s="513"/>
+      <c r="D176" s="487" t="s">
         <v>21</v>
       </c>
       <c r="E176" s="74" t="s">
@@ -20095,10 +20095,10 @@
       <c r="AS176" s="17"/>
     </row>
     <row r="177" spans="1:45" ht="44.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="472"/>
-      <c r="B177" s="484"/>
-      <c r="C177" s="392"/>
-      <c r="D177" s="391"/>
+      <c r="A177" s="506"/>
+      <c r="B177" s="483"/>
+      <c r="C177" s="514"/>
+      <c r="D177" s="488"/>
       <c r="E177" s="33" t="s">
         <v>613</v>
       </c>
@@ -20156,10 +20156,10 @@
       <c r="AS177" s="17"/>
     </row>
     <row r="178" spans="1:45" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="472"/>
-      <c r="B178" s="484"/>
-      <c r="C178" s="392"/>
-      <c r="D178" s="391"/>
+      <c r="A178" s="506"/>
+      <c r="B178" s="483"/>
+      <c r="C178" s="514"/>
+      <c r="D178" s="488"/>
       <c r="E178" s="32" t="s">
         <v>50</v>
       </c>
@@ -20215,10 +20215,10 @@
       <c r="AS178" s="17"/>
     </row>
     <row r="179" spans="1:45" ht="65.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="472"/>
-      <c r="B179" s="484"/>
-      <c r="C179" s="392"/>
-      <c r="D179" s="391"/>
+      <c r="A179" s="506"/>
+      <c r="B179" s="483"/>
+      <c r="C179" s="514"/>
+      <c r="D179" s="488"/>
       <c r="E179" s="32" t="s">
         <v>47</v>
       </c>
@@ -20276,10 +20276,10 @@
       <c r="AS179" s="17"/>
     </row>
     <row r="180" spans="1:45" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="472"/>
-      <c r="B180" s="484"/>
-      <c r="C180" s="392"/>
-      <c r="D180" s="391"/>
+      <c r="A180" s="506"/>
+      <c r="B180" s="483"/>
+      <c r="C180" s="514"/>
+      <c r="D180" s="488"/>
       <c r="E180" s="32" t="s">
         <v>48</v>
       </c>
@@ -20335,10 +20335,10 @@
       <c r="AS180" s="17"/>
     </row>
     <row r="181" spans="1:45" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="472"/>
-      <c r="B181" s="484"/>
-      <c r="C181" s="390"/>
-      <c r="D181" s="388"/>
+      <c r="A181" s="506"/>
+      <c r="B181" s="483"/>
+      <c r="C181" s="515"/>
+      <c r="D181" s="489"/>
       <c r="E181" s="32" t="s">
         <v>49</v>
       </c>
@@ -20396,8 +20396,8 @@
       <c r="AS181" s="17"/>
     </row>
     <row r="182" spans="1:45" ht="85.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="472"/>
-      <c r="B182" s="485"/>
+      <c r="A182" s="506"/>
+      <c r="B182" s="484"/>
       <c r="C182" s="339"/>
       <c r="D182" s="336" t="s">
         <v>64</v>
@@ -20457,12 +20457,12 @@
       <c r="AS182" s="17"/>
     </row>
     <row r="183" spans="1:45" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="472"/>
-      <c r="B183" s="481" t="s">
+      <c r="A183" s="506"/>
+      <c r="B183" s="494" t="s">
         <v>615</v>
       </c>
-      <c r="C183" s="389"/>
-      <c r="D183" s="387" t="s">
+      <c r="C183" s="513"/>
+      <c r="D183" s="487" t="s">
         <v>64</v>
       </c>
       <c r="E183" s="32" t="s">
@@ -20514,10 +20514,10 @@
       <c r="AS183" s="17"/>
     </row>
     <row r="184" spans="1:45" ht="70.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="472"/>
-      <c r="B184" s="492"/>
-      <c r="C184" s="390"/>
-      <c r="D184" s="388"/>
+      <c r="A184" s="506"/>
+      <c r="B184" s="495"/>
+      <c r="C184" s="515"/>
+      <c r="D184" s="489"/>
       <c r="E184" s="32" t="s">
         <v>117</v>
       </c>
@@ -20569,10 +20569,10 @@
       <c r="AS184" s="17"/>
     </row>
     <row r="185" spans="1:45" ht="90" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="472"/>
-      <c r="B185" s="492"/>
-      <c r="C185" s="389"/>
-      <c r="D185" s="387" t="s">
+      <c r="A185" s="506"/>
+      <c r="B185" s="495"/>
+      <c r="C185" s="513"/>
+      <c r="D185" s="487" t="s">
         <v>18</v>
       </c>
       <c r="E185" s="80" t="s">
@@ -20630,10 +20630,10 @@
       <c r="AS185" s="17"/>
     </row>
     <row r="186" spans="1:45" ht="74.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="472"/>
-      <c r="B186" s="492"/>
-      <c r="C186" s="392"/>
-      <c r="D186" s="391"/>
+      <c r="A186" s="506"/>
+      <c r="B186" s="495"/>
+      <c r="C186" s="514"/>
+      <c r="D186" s="488"/>
       <c r="E186" s="75" t="s">
         <v>222</v>
       </c>
@@ -20687,10 +20687,10 @@
       <c r="AS186" s="17"/>
     </row>
     <row r="187" spans="1:45" ht="67.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="472"/>
-      <c r="B187" s="492"/>
-      <c r="C187" s="392"/>
-      <c r="D187" s="391"/>
+      <c r="A187" s="506"/>
+      <c r="B187" s="495"/>
+      <c r="C187" s="514"/>
+      <c r="D187" s="488"/>
       <c r="E187" s="75" t="s">
         <v>51</v>
       </c>
@@ -20746,10 +20746,10 @@
       <c r="AS187" s="17"/>
     </row>
     <row r="188" spans="1:45" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="472"/>
-      <c r="B188" s="492"/>
-      <c r="C188" s="390"/>
-      <c r="D188" s="388"/>
+      <c r="A188" s="506"/>
+      <c r="B188" s="495"/>
+      <c r="C188" s="515"/>
+      <c r="D188" s="489"/>
       <c r="E188" s="75" t="s">
         <v>124</v>
       </c>
@@ -20805,10 +20805,10 @@
       <c r="AS188" s="17"/>
     </row>
     <row r="189" spans="1:45" ht="55.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="472"/>
-      <c r="B189" s="492"/>
-      <c r="C189" s="389"/>
-      <c r="D189" s="387" t="s">
+      <c r="A189" s="506"/>
+      <c r="B189" s="495"/>
+      <c r="C189" s="513"/>
+      <c r="D189" s="487" t="s">
         <v>80</v>
       </c>
       <c r="E189" s="340" t="s">
@@ -20864,10 +20864,10 @@
       <c r="AS189" s="17"/>
     </row>
     <row r="190" spans="1:45" ht="79.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="473"/>
-      <c r="B190" s="493"/>
-      <c r="C190" s="390"/>
-      <c r="D190" s="388"/>
+      <c r="A190" s="507"/>
+      <c r="B190" s="496"/>
+      <c r="C190" s="515"/>
+      <c r="D190" s="489"/>
       <c r="E190" s="75" t="s">
         <v>228</v>
       </c>
@@ -20923,30 +20923,30 @@
       <c r="AS190" s="17"/>
     </row>
     <row r="191" spans="1:45" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="421" t="s">
+      <c r="A191" s="498" t="s">
         <v>16</v>
       </c>
-      <c r="B191" s="465"/>
-      <c r="C191" s="465"/>
-      <c r="D191" s="465"/>
-      <c r="E191" s="465"/>
-      <c r="F191" s="465"/>
-      <c r="G191" s="465"/>
-      <c r="H191" s="465"/>
-      <c r="I191" s="465"/>
-      <c r="J191" s="465"/>
-      <c r="K191" s="465"/>
-      <c r="L191" s="465"/>
-      <c r="M191" s="465"/>
-      <c r="N191" s="465"/>
-      <c r="O191" s="465"/>
-      <c r="P191" s="465"/>
-      <c r="Q191" s="465"/>
-      <c r="R191" s="465"/>
-      <c r="S191" s="465"/>
-      <c r="T191" s="465"/>
-      <c r="U191" s="465"/>
-      <c r="V191" s="466"/>
+      <c r="B191" s="499"/>
+      <c r="C191" s="499"/>
+      <c r="D191" s="499"/>
+      <c r="E191" s="499"/>
+      <c r="F191" s="499"/>
+      <c r="G191" s="499"/>
+      <c r="H191" s="499"/>
+      <c r="I191" s="499"/>
+      <c r="J191" s="499"/>
+      <c r="K191" s="499"/>
+      <c r="L191" s="499"/>
+      <c r="M191" s="499"/>
+      <c r="N191" s="499"/>
+      <c r="O191" s="499"/>
+      <c r="P191" s="499"/>
+      <c r="Q191" s="499"/>
+      <c r="R191" s="499"/>
+      <c r="S191" s="499"/>
+      <c r="T191" s="499"/>
+      <c r="U191" s="499"/>
+      <c r="V191" s="500"/>
       <c r="W191" s="40"/>
       <c r="X191" s="40"/>
       <c r="Y191" s="40"/>
@@ -21059,14 +21059,14 @@
       <c r="AS192" s="15"/>
     </row>
     <row r="193" spans="1:45" ht="49.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="474" t="s">
+      <c r="A193" s="398" t="s">
         <v>617</v>
       </c>
-      <c r="B193" s="382" t="s">
+      <c r="B193" s="410" t="s">
         <v>618</v>
       </c>
-      <c r="C193" s="488"/>
-      <c r="D193" s="403" t="s">
+      <c r="C193" s="490"/>
+      <c r="D193" s="425" t="s">
         <v>38</v>
       </c>
       <c r="E193" s="74" t="s">
@@ -21128,10 +21128,10 @@
       <c r="AS193" s="17"/>
     </row>
     <row r="194" spans="1:45" ht="87.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="475"/>
-      <c r="B194" s="383"/>
-      <c r="C194" s="488"/>
-      <c r="D194" s="397"/>
+      <c r="A194" s="399"/>
+      <c r="B194" s="411"/>
+      <c r="C194" s="490"/>
+      <c r="D194" s="426"/>
       <c r="E194" s="74" t="s">
         <v>619</v>
       </c>
@@ -21185,10 +21185,10 @@
       <c r="AS194" s="17"/>
     </row>
     <row r="195" spans="1:45" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="475"/>
-      <c r="B195" s="383"/>
-      <c r="C195" s="488"/>
-      <c r="D195" s="397"/>
+      <c r="A195" s="399"/>
+      <c r="B195" s="411"/>
+      <c r="C195" s="490"/>
+      <c r="D195" s="426"/>
       <c r="E195" s="74" t="s">
         <v>620</v>
       </c>
@@ -21248,10 +21248,10 @@
       <c r="AS195" s="17"/>
     </row>
     <row r="196" spans="1:45" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="475"/>
-      <c r="B196" s="383"/>
-      <c r="C196" s="488"/>
-      <c r="D196" s="397"/>
+      <c r="A196" s="399"/>
+      <c r="B196" s="411"/>
+      <c r="C196" s="490"/>
+      <c r="D196" s="426"/>
       <c r="E196" s="33" t="s">
         <v>621</v>
       </c>
@@ -21309,10 +21309,10 @@
       <c r="AS196" s="17"/>
     </row>
     <row r="197" spans="1:45" ht="57.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="475"/>
-      <c r="B197" s="383"/>
-      <c r="C197" s="488"/>
-      <c r="D197" s="397"/>
+      <c r="A197" s="399"/>
+      <c r="B197" s="411"/>
+      <c r="C197" s="490"/>
+      <c r="D197" s="426"/>
       <c r="E197" s="32" t="s">
         <v>52</v>
       </c>
@@ -21364,10 +21364,10 @@
       <c r="AS197" s="17"/>
     </row>
     <row r="198" spans="1:45" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="475"/>
-      <c r="B198" s="383"/>
-      <c r="C198" s="488"/>
-      <c r="D198" s="398"/>
+      <c r="A198" s="399"/>
+      <c r="B198" s="411"/>
+      <c r="C198" s="490"/>
+      <c r="D198" s="427"/>
       <c r="E198" s="32" t="s">
         <v>53</v>
       </c>
@@ -21421,12 +21421,12 @@
       <c r="AS198" s="17"/>
     </row>
     <row r="199" spans="1:45" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="475"/>
-      <c r="B199" s="448" t="s">
+      <c r="A199" s="399"/>
+      <c r="B199" s="431" t="s">
         <v>622</v>
       </c>
-      <c r="C199" s="382"/>
-      <c r="D199" s="403" t="s">
+      <c r="C199" s="410"/>
+      <c r="D199" s="425" t="s">
         <v>22</v>
       </c>
       <c r="E199" s="341" t="s">
@@ -21478,10 +21478,10 @@
       <c r="AS199" s="17"/>
     </row>
     <row r="200" spans="1:45" ht="77.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="475"/>
-      <c r="B200" s="449"/>
-      <c r="C200" s="383"/>
-      <c r="D200" s="397"/>
+      <c r="A200" s="399"/>
+      <c r="B200" s="432"/>
+      <c r="C200" s="411"/>
+      <c r="D200" s="426"/>
       <c r="E200" s="81" t="s">
         <v>623</v>
       </c>
@@ -21533,10 +21533,10 @@
       <c r="AS200" s="17"/>
     </row>
     <row r="201" spans="1:45" ht="82.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="475"/>
-      <c r="B201" s="449"/>
-      <c r="C201" s="383"/>
-      <c r="D201" s="397"/>
+      <c r="A201" s="399"/>
+      <c r="B201" s="432"/>
+      <c r="C201" s="411"/>
+      <c r="D201" s="426"/>
       <c r="E201" s="82" t="s">
         <v>624</v>
       </c>
@@ -21594,10 +21594,10 @@
       <c r="AS201" s="17"/>
     </row>
     <row r="202" spans="1:45" ht="79.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="475"/>
-      <c r="B202" s="449"/>
-      <c r="C202" s="383"/>
-      <c r="D202" s="397"/>
+      <c r="A202" s="399"/>
+      <c r="B202" s="432"/>
+      <c r="C202" s="411"/>
+      <c r="D202" s="426"/>
       <c r="E202" s="75" t="s">
         <v>54</v>
       </c>
@@ -21653,10 +21653,10 @@
       <c r="AS202" s="17"/>
     </row>
     <row r="203" spans="1:45" ht="72" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="475"/>
-      <c r="B203" s="449"/>
-      <c r="C203" s="383"/>
-      <c r="D203" s="397"/>
+      <c r="A203" s="399"/>
+      <c r="B203" s="432"/>
+      <c r="C203" s="411"/>
+      <c r="D203" s="426"/>
       <c r="E203" s="75" t="s">
         <v>55</v>
       </c>
@@ -21712,10 +21712,10 @@
       <c r="AS203" s="17"/>
     </row>
     <row r="204" spans="1:45" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="475"/>
-      <c r="B204" s="449"/>
-      <c r="C204" s="383"/>
-      <c r="D204" s="397"/>
+      <c r="A204" s="399"/>
+      <c r="B204" s="432"/>
+      <c r="C204" s="411"/>
+      <c r="D204" s="426"/>
       <c r="E204" s="75" t="s">
         <v>56</v>
       </c>
@@ -21773,10 +21773,10 @@
       <c r="AS204" s="17"/>
     </row>
     <row r="205" spans="1:45" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="475"/>
-      <c r="B205" s="449"/>
-      <c r="C205" s="383"/>
-      <c r="D205" s="397"/>
+      <c r="A205" s="399"/>
+      <c r="B205" s="432"/>
+      <c r="C205" s="411"/>
+      <c r="D205" s="426"/>
       <c r="E205" s="75" t="s">
         <v>57</v>
       </c>
@@ -21832,10 +21832,10 @@
       <c r="AS205" s="17"/>
     </row>
     <row r="206" spans="1:45" ht="65.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="475"/>
-      <c r="B206" s="450"/>
-      <c r="C206" s="384"/>
-      <c r="D206" s="398"/>
+      <c r="A206" s="399"/>
+      <c r="B206" s="433"/>
+      <c r="C206" s="412"/>
+      <c r="D206" s="427"/>
       <c r="E206" s="75" t="s">
         <v>244</v>
       </c>
@@ -21889,12 +21889,12 @@
       <c r="AS206" s="17"/>
     </row>
     <row r="207" spans="1:45" ht="65.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="475"/>
-      <c r="B207" s="480" t="s">
+      <c r="A207" s="399"/>
+      <c r="B207" s="512" t="s">
         <v>625</v>
       </c>
-      <c r="C207" s="382"/>
-      <c r="D207" s="403" t="s">
+      <c r="C207" s="410"/>
+      <c r="D207" s="425" t="s">
         <v>22</v>
       </c>
       <c r="E207" s="283" t="s">
@@ -21952,10 +21952,10 @@
       <c r="AS207" s="17"/>
     </row>
     <row r="208" spans="1:45" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="475"/>
-      <c r="B208" s="394"/>
-      <c r="C208" s="383"/>
-      <c r="D208" s="397"/>
+      <c r="A208" s="399"/>
+      <c r="B208" s="457"/>
+      <c r="C208" s="411"/>
+      <c r="D208" s="426"/>
       <c r="E208" s="80" t="s">
         <v>627</v>
       </c>
@@ -22013,10 +22013,10 @@
       <c r="AS208" s="17"/>
     </row>
     <row r="209" spans="1:45" ht="54" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="475"/>
-      <c r="B209" s="395"/>
-      <c r="C209" s="384"/>
-      <c r="D209" s="398"/>
+      <c r="A209" s="399"/>
+      <c r="B209" s="458"/>
+      <c r="C209" s="412"/>
+      <c r="D209" s="427"/>
       <c r="E209" s="344" t="s">
         <v>628</v>
       </c>
@@ -22072,14 +22072,14 @@
       <c r="AS209" s="17"/>
     </row>
     <row r="210" spans="1:45" ht="75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="475"/>
-      <c r="B210" s="448" t="s">
+      <c r="A210" s="399"/>
+      <c r="B210" s="431" t="s">
         <v>629</v>
       </c>
-      <c r="C210" s="403" t="s">
+      <c r="C210" s="425" t="s">
         <v>187</v>
       </c>
-      <c r="D210" s="489"/>
+      <c r="D210" s="491"/>
       <c r="E210" s="345" t="s">
         <v>630</v>
       </c>
@@ -22131,10 +22131,10 @@
       <c r="AS210" s="17"/>
     </row>
     <row r="211" spans="1:45" ht="78.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="475"/>
-      <c r="B211" s="449"/>
-      <c r="C211" s="397"/>
-      <c r="D211" s="490"/>
+      <c r="A211" s="399"/>
+      <c r="B211" s="432"/>
+      <c r="C211" s="426"/>
+      <c r="D211" s="492"/>
       <c r="E211" s="345" t="s">
         <v>631</v>
       </c>
@@ -22186,10 +22186,10 @@
       <c r="AS211" s="17"/>
     </row>
     <row r="212" spans="1:45" ht="97.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A212" s="475"/>
-      <c r="B212" s="449"/>
-      <c r="C212" s="397"/>
-      <c r="D212" s="490"/>
+      <c r="A212" s="399"/>
+      <c r="B212" s="432"/>
+      <c r="C212" s="426"/>
+      <c r="D212" s="492"/>
       <c r="E212" s="345" t="s">
         <v>632</v>
       </c>
@@ -22241,10 +22241,10 @@
       <c r="AS212" s="17"/>
     </row>
     <row r="213" spans="1:45" ht="80.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="475"/>
-      <c r="B213" s="449"/>
-      <c r="C213" s="397"/>
-      <c r="D213" s="490"/>
+      <c r="A213" s="399"/>
+      <c r="B213" s="432"/>
+      <c r="C213" s="426"/>
+      <c r="D213" s="492"/>
       <c r="E213" s="345" t="s">
         <v>633</v>
       </c>
@@ -22296,10 +22296,10 @@
       <c r="AS213" s="17"/>
     </row>
     <row r="214" spans="1:45" ht="100.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="476"/>
-      <c r="B214" s="450"/>
-      <c r="C214" s="398"/>
-      <c r="D214" s="491"/>
+      <c r="A214" s="508"/>
+      <c r="B214" s="433"/>
+      <c r="C214" s="427"/>
+      <c r="D214" s="493"/>
       <c r="E214" s="345" t="s">
         <v>634</v>
       </c>
@@ -22351,18 +22351,18 @@
       <c r="AS214" s="17"/>
     </row>
     <row r="215" spans="1:45" ht="54.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="509" t="s">
+      <c r="A215" s="464" t="s">
         <v>452</v>
       </c>
-      <c r="B215" s="510"/>
-      <c r="C215" s="510"/>
-      <c r="D215" s="510"/>
-      <c r="E215" s="510"/>
-      <c r="F215" s="510"/>
-      <c r="G215" s="510"/>
-      <c r="H215" s="510"/>
-      <c r="I215" s="510"/>
-      <c r="J215" s="510"/>
+      <c r="B215" s="465"/>
+      <c r="C215" s="465"/>
+      <c r="D215" s="465"/>
+      <c r="E215" s="465"/>
+      <c r="F215" s="465"/>
+      <c r="G215" s="465"/>
+      <c r="H215" s="465"/>
+      <c r="I215" s="465"/>
+      <c r="J215" s="465"/>
       <c r="K215" s="243"/>
       <c r="L215" s="243"/>
       <c r="M215" s="243"/>
@@ -22375,16 +22375,16 @@
       <c r="T215" s="243"/>
       <c r="U215" s="243"/>
       <c r="V215" s="244"/>
-      <c r="W215" s="499" t="s">
+      <c r="W215" s="446" t="s">
         <v>34</v>
       </c>
-      <c r="X215" s="500" t="s">
+      <c r="X215" s="447" t="s">
         <v>35</v>
       </c>
-      <c r="Y215" s="502" t="s">
+      <c r="Y215" s="449" t="s">
         <v>36</v>
       </c>
-      <c r="Z215" s="498"/>
+      <c r="Z215" s="445"/>
       <c r="AA215" s="17"/>
       <c r="AB215" s="17"/>
       <c r="AC215" s="17"/>
@@ -22406,18 +22406,18 @@
       <c r="AS215" s="17"/>
     </row>
     <row r="216" spans="1:45" ht="63" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A216" s="511" t="s">
+      <c r="A216" s="466" t="s">
         <v>453</v>
       </c>
-      <c r="B216" s="512"/>
-      <c r="C216" s="512"/>
-      <c r="D216" s="512"/>
-      <c r="E216" s="512"/>
-      <c r="F216" s="512"/>
-      <c r="G216" s="512"/>
-      <c r="H216" s="512"/>
-      <c r="I216" s="512"/>
-      <c r="J216" s="512"/>
+      <c r="B216" s="467"/>
+      <c r="C216" s="467"/>
+      <c r="D216" s="467"/>
+      <c r="E216" s="467"/>
+      <c r="F216" s="467"/>
+      <c r="G216" s="467"/>
+      <c r="H216" s="467"/>
+      <c r="I216" s="467"/>
+      <c r="J216" s="467"/>
       <c r="K216" s="246"/>
       <c r="L216" s="246"/>
       <c r="M216" s="246"/>
@@ -22430,10 +22430,10 @@
       <c r="T216" s="246"/>
       <c r="U216" s="246"/>
       <c r="V216" s="247"/>
-      <c r="W216" s="500"/>
-      <c r="X216" s="500"/>
-      <c r="Y216" s="502"/>
-      <c r="Z216" s="498"/>
+      <c r="W216" s="447"/>
+      <c r="X216" s="447"/>
+      <c r="Y216" s="449"/>
+      <c r="Z216" s="445"/>
       <c r="AA216" s="17"/>
       <c r="AB216" s="17"/>
       <c r="AC216" s="17"/>
@@ -22521,9 +22521,9 @@
       <c r="V217" s="52">
         <v>41334</v>
       </c>
-      <c r="W217" s="501"/>
-      <c r="X217" s="501"/>
-      <c r="Y217" s="503"/>
+      <c r="W217" s="448"/>
+      <c r="X217" s="448"/>
+      <c r="Y217" s="450"/>
       <c r="Z217" s="85"/>
       <c r="AA217" s="15"/>
       <c r="AB217" s="15"/>
@@ -22546,16 +22546,16 @@
       <c r="AS217" s="15"/>
     </row>
     <row r="218" spans="1:45" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="515" t="s">
+      <c r="A218" s="474" t="s">
         <v>635</v>
       </c>
-      <c r="B218" s="454" t="s">
+      <c r="B218" s="469" t="s">
         <v>636</v>
       </c>
-      <c r="C218" s="454" t="s">
+      <c r="C218" s="469" t="s">
         <v>637</v>
       </c>
-      <c r="D218" s="495" t="s">
+      <c r="D218" s="471" t="s">
         <v>37</v>
       </c>
       <c r="E218" s="349" t="s">
@@ -22615,10 +22615,10 @@
       <c r="AS218" s="17"/>
     </row>
     <row r="219" spans="1:45" ht="52.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="516"/>
-      <c r="B219" s="383"/>
-      <c r="C219" s="383"/>
-      <c r="D219" s="496"/>
+      <c r="A219" s="475"/>
+      <c r="B219" s="411"/>
+      <c r="C219" s="411"/>
+      <c r="D219" s="472"/>
       <c r="E219" s="354" t="s">
         <v>639</v>
       </c>
@@ -22672,10 +22672,10 @@
       <c r="AS219" s="17"/>
     </row>
     <row r="220" spans="1:45" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A220" s="516"/>
-      <c r="B220" s="383"/>
-      <c r="C220" s="383"/>
-      <c r="D220" s="496"/>
+      <c r="A220" s="475"/>
+      <c r="B220" s="411"/>
+      <c r="C220" s="411"/>
+      <c r="D220" s="472"/>
       <c r="E220" s="354" t="s">
         <v>640</v>
       </c>
@@ -22731,10 +22731,10 @@
       <c r="AS220" s="17"/>
     </row>
     <row r="221" spans="1:45" ht="42" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A221" s="516"/>
-      <c r="B221" s="455"/>
-      <c r="C221" s="455"/>
-      <c r="D221" s="514"/>
+      <c r="A221" s="475"/>
+      <c r="B221" s="470"/>
+      <c r="C221" s="470"/>
+      <c r="D221" s="473"/>
       <c r="E221" s="354" t="s">
         <v>641</v>
       </c>
@@ -22792,14 +22792,14 @@
       <c r="AS221" s="17"/>
     </row>
     <row r="222" spans="1:45" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="516"/>
-      <c r="B222" s="451" t="s">
+      <c r="A222" s="475"/>
+      <c r="B222" s="529" t="s">
         <v>642</v>
       </c>
-      <c r="C222" s="454" t="s">
+      <c r="C222" s="469" t="s">
         <v>643</v>
       </c>
-      <c r="D222" s="495" t="s">
+      <c r="D222" s="471" t="s">
         <v>37</v>
       </c>
       <c r="E222" s="349" t="s">
@@ -22859,10 +22859,10 @@
       <c r="AS222" s="17"/>
     </row>
     <row r="223" spans="1:45" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="516"/>
-      <c r="B223" s="452"/>
-      <c r="C223" s="383"/>
-      <c r="D223" s="496"/>
+      <c r="A223" s="475"/>
+      <c r="B223" s="530"/>
+      <c r="C223" s="411"/>
+      <c r="D223" s="472"/>
       <c r="E223" s="354" t="s">
         <v>644</v>
       </c>
@@ -22918,10 +22918,10 @@
       <c r="AS223" s="17"/>
     </row>
     <row r="224" spans="1:45" ht="56.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="517"/>
-      <c r="B224" s="452"/>
-      <c r="C224" s="383"/>
-      <c r="D224" s="496"/>
+      <c r="A224" s="476"/>
+      <c r="B224" s="530"/>
+      <c r="C224" s="411"/>
+      <c r="D224" s="472"/>
       <c r="E224" s="354" t="s">
         <v>640</v>
       </c>
@@ -22980,8 +22980,8 @@
     </row>
     <row r="225" spans="1:45" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="294"/>
-      <c r="B225" s="453"/>
-      <c r="C225" s="384"/>
+      <c r="B225" s="531"/>
+      <c r="C225" s="412"/>
       <c r="D225" s="497"/>
       <c r="E225" s="354" t="s">
         <v>641</v>
@@ -23040,18 +23040,18 @@
       <c r="AS225" s="17"/>
     </row>
     <row r="226" spans="1:45" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A226" s="518" t="s">
+      <c r="A226" s="477" t="s">
         <v>454</v>
       </c>
-      <c r="B226" s="519"/>
-      <c r="C226" s="519"/>
-      <c r="D226" s="519"/>
-      <c r="E226" s="519"/>
-      <c r="F226" s="519"/>
-      <c r="G226" s="519"/>
-      <c r="H226" s="519"/>
-      <c r="I226" s="519"/>
-      <c r="J226" s="520"/>
+      <c r="B226" s="478"/>
+      <c r="C226" s="478"/>
+      <c r="D226" s="478"/>
+      <c r="E226" s="478"/>
+      <c r="F226" s="478"/>
+      <c r="G226" s="478"/>
+      <c r="H226" s="478"/>
+      <c r="I226" s="478"/>
+      <c r="J226" s="479"/>
       <c r="K226" s="191"/>
       <c r="L226" s="191"/>
       <c r="M226" s="191"/>
@@ -23089,16 +23089,16 @@
       <c r="AS226" s="17"/>
     </row>
     <row r="227" spans="1:45" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A227" s="513" t="s">
+      <c r="A227" s="468" t="s">
         <v>256</v>
       </c>
-      <c r="B227" s="442" t="s">
+      <c r="B227" s="516" t="s">
         <v>645</v>
       </c>
-      <c r="C227" s="399" t="s">
+      <c r="C227" s="453" t="s">
         <v>257</v>
       </c>
-      <c r="D227" s="399" t="s">
+      <c r="D227" s="453" t="s">
         <v>21</v>
       </c>
       <c r="E227" s="73" t="s">
@@ -23156,10 +23156,10 @@
       <c r="AS227" s="17"/>
     </row>
     <row r="228" spans="1:45" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="513"/>
-      <c r="B228" s="442"/>
-      <c r="C228" s="399"/>
-      <c r="D228" s="399"/>
+      <c r="A228" s="468"/>
+      <c r="B228" s="516"/>
+      <c r="C228" s="453"/>
+      <c r="D228" s="453"/>
       <c r="E228" s="73" t="s">
         <v>647</v>
       </c>
@@ -23215,10 +23215,10 @@
       <c r="AS228" s="17"/>
     </row>
     <row r="229" spans="1:45" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A229" s="513"/>
-      <c r="B229" s="442"/>
-      <c r="C229" s="399"/>
-      <c r="D229" s="399"/>
+      <c r="A229" s="468"/>
+      <c r="B229" s="516"/>
+      <c r="C229" s="453"/>
+      <c r="D229" s="453"/>
       <c r="E229" s="73" t="s">
         <v>648</v>
       </c>
@@ -23274,10 +23274,10 @@
       <c r="AS229" s="17"/>
     </row>
     <row r="230" spans="1:45" ht="75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A230" s="513"/>
-      <c r="B230" s="442"/>
-      <c r="C230" s="399"/>
-      <c r="D230" s="399"/>
+      <c r="A230" s="468"/>
+      <c r="B230" s="516"/>
+      <c r="C230" s="453"/>
+      <c r="D230" s="453"/>
       <c r="E230" s="73" t="s">
         <v>649</v>
       </c>
@@ -23339,10 +23339,10 @@
       <c r="AS230" s="17"/>
     </row>
     <row r="231" spans="1:45" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A231" s="513"/>
-      <c r="B231" s="442"/>
-      <c r="C231" s="399"/>
-      <c r="D231" s="399"/>
+      <c r="A231" s="468"/>
+      <c r="B231" s="516"/>
+      <c r="C231" s="453"/>
+      <c r="D231" s="453"/>
       <c r="E231" s="73" t="s">
         <v>650</v>
       </c>
@@ -23396,10 +23396,10 @@
       <c r="AS231" s="17"/>
     </row>
     <row r="232" spans="1:45" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A232" s="513"/>
-      <c r="B232" s="442"/>
-      <c r="C232" s="399"/>
-      <c r="D232" s="399"/>
+      <c r="A232" s="468"/>
+      <c r="B232" s="516"/>
+      <c r="C232" s="453"/>
+      <c r="D232" s="453"/>
       <c r="E232" s="73" t="s">
         <v>651</v>
       </c>
@@ -23455,10 +23455,10 @@
       <c r="AS232" s="17"/>
     </row>
     <row r="233" spans="1:45" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A233" s="513"/>
-      <c r="B233" s="442"/>
-      <c r="C233" s="399"/>
-      <c r="D233" s="399"/>
+      <c r="A233" s="468"/>
+      <c r="B233" s="516"/>
+      <c r="C233" s="453"/>
+      <c r="D233" s="453"/>
       <c r="E233" s="73" t="s">
         <v>652</v>
       </c>
@@ -23518,10 +23518,10 @@
       <c r="AS233" s="17"/>
     </row>
     <row r="234" spans="1:45" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A234" s="513"/>
-      <c r="B234" s="442"/>
-      <c r="C234" s="399"/>
-      <c r="D234" s="399"/>
+      <c r="A234" s="468"/>
+      <c r="B234" s="516"/>
+      <c r="C234" s="453"/>
+      <c r="D234" s="453"/>
       <c r="E234" s="73" t="s">
         <v>653</v>
       </c>
@@ -23575,10 +23575,10 @@
       <c r="AS234" s="17"/>
     </row>
     <row r="235" spans="1:45" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A235" s="513"/>
-      <c r="B235" s="442"/>
-      <c r="C235" s="399"/>
-      <c r="D235" s="399"/>
+      <c r="A235" s="468"/>
+      <c r="B235" s="516"/>
+      <c r="C235" s="453"/>
+      <c r="D235" s="453"/>
       <c r="E235" s="73" t="s">
         <v>654</v>
       </c>
@@ -23632,10 +23632,10 @@
       <c r="AS235" s="17"/>
     </row>
     <row r="236" spans="1:45" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A236" s="513"/>
-      <c r="B236" s="481"/>
-      <c r="C236" s="403"/>
-      <c r="D236" s="403"/>
+      <c r="A236" s="468"/>
+      <c r="B236" s="494"/>
+      <c r="C236" s="425"/>
+      <c r="D236" s="425"/>
       <c r="E236" s="69" t="s">
         <v>655</v>
       </c>
@@ -23689,16 +23689,16 @@
       <c r="AS236" s="17"/>
     </row>
     <row r="237" spans="1:45" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="405" t="s">
+      <c r="A237" s="554" t="s">
         <v>656</v>
       </c>
-      <c r="B237" s="441" t="s">
+      <c r="B237" s="451" t="s">
         <v>657</v>
       </c>
-      <c r="C237" s="399" t="s">
+      <c r="C237" s="453" t="s">
         <v>658</v>
       </c>
-      <c r="D237" s="399" t="s">
+      <c r="D237" s="453" t="s">
         <v>271</v>
       </c>
       <c r="E237" s="74" t="s">
@@ -23758,10 +23758,10 @@
       <c r="AS237" s="17"/>
     </row>
     <row r="238" spans="1:45" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A238" s="406"/>
-      <c r="B238" s="441"/>
-      <c r="C238" s="399"/>
-      <c r="D238" s="399"/>
+      <c r="A238" s="555"/>
+      <c r="B238" s="451"/>
+      <c r="C238" s="453"/>
+      <c r="D238" s="453"/>
       <c r="E238" s="74" t="s">
         <v>660</v>
       </c>
@@ -23819,10 +23819,10 @@
       <c r="AS238" s="17"/>
     </row>
     <row r="239" spans="1:45" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A239" s="406"/>
-      <c r="B239" s="441"/>
-      <c r="C239" s="399"/>
-      <c r="D239" s="399"/>
+      <c r="A239" s="555"/>
+      <c r="B239" s="451"/>
+      <c r="C239" s="453"/>
+      <c r="D239" s="453"/>
       <c r="E239" s="74" t="s">
         <v>661</v>
       </c>
@@ -23880,10 +23880,10 @@
       <c r="AS239" s="17"/>
     </row>
     <row r="240" spans="1:45" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A240" s="406"/>
-      <c r="B240" s="441"/>
-      <c r="C240" s="399"/>
-      <c r="D240" s="399"/>
+      <c r="A240" s="555"/>
+      <c r="B240" s="451"/>
+      <c r="C240" s="453"/>
+      <c r="D240" s="453"/>
       <c r="E240" s="33" t="s">
         <v>662</v>
       </c>
@@ -23941,14 +23941,14 @@
       <c r="AS240" s="17"/>
     </row>
     <row r="241" spans="1:45" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A241" s="406"/>
-      <c r="B241" s="400" t="s">
+      <c r="A241" s="555"/>
+      <c r="B241" s="550" t="s">
         <v>663</v>
       </c>
-      <c r="C241" s="403" t="s">
+      <c r="C241" s="425" t="s">
         <v>664</v>
       </c>
-      <c r="D241" s="399" t="s">
+      <c r="D241" s="453" t="s">
         <v>19</v>
       </c>
       <c r="E241" s="361" t="s">
@@ -24010,10 +24010,10 @@
       <c r="AS241" s="17"/>
     </row>
     <row r="242" spans="1:45" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A242" s="406"/>
-      <c r="B242" s="401"/>
-      <c r="C242" s="397"/>
-      <c r="D242" s="399"/>
+      <c r="A242" s="555"/>
+      <c r="B242" s="551"/>
+      <c r="C242" s="426"/>
+      <c r="D242" s="453"/>
       <c r="E242" s="340" t="s">
         <v>666</v>
       </c>
@@ -24073,10 +24073,10 @@
       <c r="AS242" s="17"/>
     </row>
     <row r="243" spans="1:45" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A243" s="406"/>
-      <c r="B243" s="401"/>
-      <c r="C243" s="397"/>
-      <c r="D243" s="403"/>
+      <c r="A243" s="555"/>
+      <c r="B243" s="551"/>
+      <c r="C243" s="426"/>
+      <c r="D243" s="425"/>
       <c r="E243" s="381" t="s">
         <v>667</v>
       </c>
@@ -24132,10 +24132,10 @@
       <c r="AS243" s="17"/>
     </row>
     <row r="244" spans="1:45" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A244" s="406"/>
-      <c r="B244" s="401"/>
-      <c r="C244" s="397"/>
-      <c r="D244" s="505" t="s">
+      <c r="A244" s="555"/>
+      <c r="B244" s="551"/>
+      <c r="C244" s="426"/>
+      <c r="D244" s="454" t="s">
         <v>21</v>
       </c>
       <c r="E244" s="361" t="s">
@@ -24197,10 +24197,10 @@
       <c r="AS244" s="17"/>
     </row>
     <row r="245" spans="1:45" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A245" s="406"/>
-      <c r="B245" s="401"/>
-      <c r="C245" s="397"/>
-      <c r="D245" s="505"/>
+      <c r="A245" s="555"/>
+      <c r="B245" s="551"/>
+      <c r="C245" s="426"/>
+      <c r="D245" s="454"/>
       <c r="E245" s="340" t="s">
         <v>669</v>
       </c>
@@ -24260,10 +24260,10 @@
       <c r="AS245" s="17"/>
     </row>
     <row r="246" spans="1:45" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A246" s="406"/>
-      <c r="B246" s="402"/>
-      <c r="C246" s="404"/>
-      <c r="D246" s="505"/>
+      <c r="A246" s="555"/>
+      <c r="B246" s="552"/>
+      <c r="C246" s="553"/>
+      <c r="D246" s="454"/>
       <c r="E246" s="340" t="s">
         <v>670</v>
       </c>
@@ -24319,14 +24319,14 @@
       <c r="AS246" s="17"/>
     </row>
     <row r="247" spans="1:45" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A247" s="406"/>
-      <c r="B247" s="393" t="s">
+      <c r="A247" s="555"/>
+      <c r="B247" s="456" t="s">
         <v>671</v>
       </c>
-      <c r="C247" s="396" t="s">
+      <c r="C247" s="455" t="s">
         <v>278</v>
       </c>
-      <c r="D247" s="399" t="s">
+      <c r="D247" s="453" t="s">
         <v>22</v>
       </c>
       <c r="E247" s="363" t="s">
@@ -24386,10 +24386,10 @@
       <c r="AS247" s="17"/>
     </row>
     <row r="248" spans="1:45" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A248" s="406"/>
-      <c r="B248" s="394"/>
-      <c r="C248" s="397"/>
-      <c r="D248" s="399"/>
+      <c r="A248" s="555"/>
+      <c r="B248" s="457"/>
+      <c r="C248" s="426"/>
+      <c r="D248" s="453"/>
       <c r="E248" s="363" t="s">
         <v>673</v>
       </c>
@@ -24447,10 +24447,10 @@
       <c r="AS248" s="17"/>
     </row>
     <row r="249" spans="1:45" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A249" s="406"/>
-      <c r="B249" s="394"/>
-      <c r="C249" s="397"/>
-      <c r="D249" s="399"/>
+      <c r="A249" s="555"/>
+      <c r="B249" s="457"/>
+      <c r="C249" s="426"/>
+      <c r="D249" s="453"/>
       <c r="E249" s="363" t="s">
         <v>674</v>
       </c>
@@ -24508,10 +24508,10 @@
       <c r="AS249" s="17"/>
     </row>
     <row r="250" spans="1:45" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A250" s="406"/>
-      <c r="B250" s="394"/>
-      <c r="C250" s="397"/>
-      <c r="D250" s="399"/>
+      <c r="A250" s="555"/>
+      <c r="B250" s="457"/>
+      <c r="C250" s="426"/>
+      <c r="D250" s="453"/>
       <c r="E250" s="363" t="s">
         <v>675</v>
       </c>
@@ -24571,10 +24571,10 @@
       <c r="AS250" s="17"/>
     </row>
     <row r="251" spans="1:45" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A251" s="406"/>
-      <c r="B251" s="395"/>
-      <c r="C251" s="398"/>
-      <c r="D251" s="399"/>
+      <c r="A251" s="555"/>
+      <c r="B251" s="458"/>
+      <c r="C251" s="427"/>
+      <c r="D251" s="453"/>
       <c r="E251" s="363" t="s">
         <v>676</v>
       </c>
@@ -24632,14 +24632,14 @@
       <c r="AS251" s="17"/>
     </row>
     <row r="252" spans="1:45" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A252" s="406"/>
-      <c r="B252" s="393" t="s">
+      <c r="A252" s="555"/>
+      <c r="B252" s="456" t="s">
         <v>677</v>
       </c>
-      <c r="C252" s="396" t="s">
+      <c r="C252" s="455" t="s">
         <v>282</v>
       </c>
-      <c r="D252" s="399" t="s">
+      <c r="D252" s="453" t="s">
         <v>271</v>
       </c>
       <c r="E252" s="74" t="s">
@@ -24699,10 +24699,10 @@
       <c r="AS252" s="17"/>
     </row>
     <row r="253" spans="1:45" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A253" s="406"/>
-      <c r="B253" s="394"/>
-      <c r="C253" s="397"/>
-      <c r="D253" s="399"/>
+      <c r="A253" s="555"/>
+      <c r="B253" s="457"/>
+      <c r="C253" s="426"/>
+      <c r="D253" s="453"/>
       <c r="E253" s="74" t="s">
         <v>679</v>
       </c>
@@ -24758,10 +24758,10 @@
       <c r="AS253" s="17"/>
     </row>
     <row r="254" spans="1:45" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A254" s="406"/>
-      <c r="B254" s="394"/>
-      <c r="C254" s="397"/>
-      <c r="D254" s="399"/>
+      <c r="A254" s="555"/>
+      <c r="B254" s="457"/>
+      <c r="C254" s="426"/>
+      <c r="D254" s="453"/>
       <c r="E254" s="74" t="s">
         <v>680</v>
       </c>
@@ -24813,10 +24813,10 @@
       <c r="AS254" s="17"/>
     </row>
     <row r="255" spans="1:45" ht="100.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A255" s="406"/>
-      <c r="B255" s="394"/>
-      <c r="C255" s="397"/>
-      <c r="D255" s="399"/>
+      <c r="A255" s="555"/>
+      <c r="B255" s="457"/>
+      <c r="C255" s="426"/>
+      <c r="D255" s="453"/>
       <c r="E255" s="74" t="s">
         <v>681</v>
       </c>
@@ -24876,10 +24876,10 @@
       <c r="AS255" s="17"/>
     </row>
     <row r="256" spans="1:45" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A256" s="407"/>
-      <c r="B256" s="395"/>
-      <c r="C256" s="398"/>
-      <c r="D256" s="399"/>
+      <c r="A256" s="556"/>
+      <c r="B256" s="458"/>
+      <c r="C256" s="427"/>
+      <c r="D256" s="453"/>
       <c r="E256" s="74" t="s">
         <v>682</v>
       </c>
@@ -24935,30 +24935,30 @@
       <c r="AS256" s="17"/>
     </row>
     <row r="257" spans="1:45" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A257" s="506" t="s">
+      <c r="A257" s="459" t="s">
         <v>455</v>
       </c>
-      <c r="B257" s="507"/>
-      <c r="C257" s="507"/>
-      <c r="D257" s="507"/>
-      <c r="E257" s="507"/>
-      <c r="F257" s="507"/>
-      <c r="G257" s="507"/>
-      <c r="H257" s="507"/>
-      <c r="I257" s="507"/>
-      <c r="J257" s="507"/>
-      <c r="K257" s="507"/>
-      <c r="L257" s="507"/>
-      <c r="M257" s="507"/>
-      <c r="N257" s="507"/>
-      <c r="O257" s="507"/>
-      <c r="P257" s="507"/>
-      <c r="Q257" s="507"/>
-      <c r="R257" s="507"/>
-      <c r="S257" s="507"/>
-      <c r="T257" s="507"/>
-      <c r="U257" s="507"/>
-      <c r="V257" s="507"/>
+      <c r="B257" s="460"/>
+      <c r="C257" s="460"/>
+      <c r="D257" s="460"/>
+      <c r="E257" s="460"/>
+      <c r="F257" s="460"/>
+      <c r="G257" s="460"/>
+      <c r="H257" s="460"/>
+      <c r="I257" s="460"/>
+      <c r="J257" s="460"/>
+      <c r="K257" s="460"/>
+      <c r="L257" s="460"/>
+      <c r="M257" s="460"/>
+      <c r="N257" s="460"/>
+      <c r="O257" s="460"/>
+      <c r="P257" s="460"/>
+      <c r="Q257" s="460"/>
+      <c r="R257" s="460"/>
+      <c r="S257" s="460"/>
+      <c r="T257" s="460"/>
+      <c r="U257" s="460"/>
+      <c r="V257" s="460"/>
       <c r="W257" s="251"/>
       <c r="X257" s="251"/>
       <c r="Y257" s="252"/>
@@ -24984,30 +24984,30 @@
       <c r="AS257" s="17"/>
     </row>
     <row r="258" spans="1:45" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A258" s="445" t="s">
+      <c r="A258" s="461" t="s">
         <v>456</v>
       </c>
-      <c r="B258" s="446"/>
-      <c r="C258" s="446"/>
-      <c r="D258" s="446"/>
-      <c r="E258" s="446"/>
-      <c r="F258" s="446"/>
-      <c r="G258" s="446"/>
-      <c r="H258" s="446"/>
-      <c r="I258" s="446"/>
-      <c r="J258" s="446"/>
-      <c r="K258" s="446"/>
-      <c r="L258" s="446"/>
-      <c r="M258" s="446"/>
-      <c r="N258" s="446"/>
-      <c r="O258" s="446"/>
-      <c r="P258" s="446"/>
-      <c r="Q258" s="446"/>
-      <c r="R258" s="446"/>
-      <c r="S258" s="446"/>
-      <c r="T258" s="446"/>
-      <c r="U258" s="446"/>
-      <c r="V258" s="508"/>
+      <c r="B258" s="462"/>
+      <c r="C258" s="462"/>
+      <c r="D258" s="462"/>
+      <c r="E258" s="462"/>
+      <c r="F258" s="462"/>
+      <c r="G258" s="462"/>
+      <c r="H258" s="462"/>
+      <c r="I258" s="462"/>
+      <c r="J258" s="462"/>
+      <c r="K258" s="462"/>
+      <c r="L258" s="462"/>
+      <c r="M258" s="462"/>
+      <c r="N258" s="462"/>
+      <c r="O258" s="462"/>
+      <c r="P258" s="462"/>
+      <c r="Q258" s="462"/>
+      <c r="R258" s="462"/>
+      <c r="S258" s="462"/>
+      <c r="T258" s="462"/>
+      <c r="U258" s="462"/>
+      <c r="V258" s="463"/>
       <c r="W258" s="245"/>
       <c r="X258" s="245"/>
       <c r="Y258" s="245"/>
@@ -25033,16 +25033,16 @@
       <c r="AS258" s="17"/>
     </row>
     <row r="259" spans="1:45" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A259" s="385" t="s">
+      <c r="A259" s="548" t="s">
         <v>683</v>
       </c>
-      <c r="B259" s="504" t="s">
+      <c r="B259" s="452" t="s">
         <v>684</v>
       </c>
-      <c r="C259" s="441" t="s">
+      <c r="C259" s="451" t="s">
         <v>685</v>
       </c>
-      <c r="D259" s="408" t="s">
+      <c r="D259" s="481" t="s">
         <v>286</v>
       </c>
       <c r="E259" s="74" t="s">
@@ -25106,10 +25106,10 @@
       <c r="AS259" s="17"/>
     </row>
     <row r="260" spans="1:45" ht="157.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A260" s="385"/>
-      <c r="B260" s="504"/>
-      <c r="C260" s="441"/>
-      <c r="D260" s="408"/>
+      <c r="A260" s="548"/>
+      <c r="B260" s="452"/>
+      <c r="C260" s="451"/>
+      <c r="D260" s="481"/>
       <c r="E260" s="33" t="s">
         <v>687</v>
       </c>
@@ -25169,10 +25169,10 @@
       <c r="AS260" s="17"/>
     </row>
     <row r="261" spans="1:45" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A261" s="385"/>
-      <c r="B261" s="504"/>
-      <c r="C261" s="441"/>
-      <c r="D261" s="408"/>
+      <c r="A261" s="548"/>
+      <c r="B261" s="452"/>
+      <c r="C261" s="451"/>
+      <c r="D261" s="481"/>
       <c r="E261" s="33" t="s">
         <v>688</v>
       </c>
@@ -25236,10 +25236,10 @@
       <c r="AS261" s="17"/>
     </row>
     <row r="262" spans="1:45" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A262" s="385"/>
-      <c r="B262" s="504"/>
-      <c r="C262" s="441"/>
-      <c r="D262" s="408"/>
+      <c r="A262" s="548"/>
+      <c r="B262" s="452"/>
+      <c r="C262" s="451"/>
+      <c r="D262" s="481"/>
       <c r="E262" s="33" t="s">
         <v>689</v>
       </c>
@@ -25297,14 +25297,14 @@
       <c r="AS262" s="17"/>
     </row>
     <row r="263" spans="1:45" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A263" s="385"/>
-      <c r="B263" s="441" t="s">
+      <c r="A263" s="548"/>
+      <c r="B263" s="451" t="s">
         <v>690</v>
       </c>
-      <c r="C263" s="399" t="s">
+      <c r="C263" s="453" t="s">
         <v>691</v>
       </c>
-      <c r="D263" s="408" t="s">
+      <c r="D263" s="481" t="s">
         <v>286</v>
       </c>
       <c r="E263" s="74" t="s">
@@ -25368,10 +25368,10 @@
       <c r="AS263" s="17"/>
     </row>
     <row r="264" spans="1:45" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A264" s="385"/>
-      <c r="B264" s="441"/>
-      <c r="C264" s="399"/>
-      <c r="D264" s="408"/>
+      <c r="A264" s="548"/>
+      <c r="B264" s="451"/>
+      <c r="C264" s="453"/>
+      <c r="D264" s="481"/>
       <c r="E264" s="33" t="s">
         <v>687</v>
       </c>
@@ -25429,10 +25429,10 @@
       <c r="AS264" s="17"/>
     </row>
     <row r="265" spans="1:45" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A265" s="385"/>
-      <c r="B265" s="441"/>
-      <c r="C265" s="399"/>
-      <c r="D265" s="408"/>
+      <c r="A265" s="548"/>
+      <c r="B265" s="451"/>
+      <c r="C265" s="453"/>
+      <c r="D265" s="481"/>
       <c r="E265" s="33" t="s">
         <v>692</v>
       </c>
@@ -25496,10 +25496,10 @@
       <c r="AS265" s="17"/>
     </row>
     <row r="266" spans="1:45" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A266" s="385"/>
-      <c r="B266" s="441"/>
-      <c r="C266" s="399"/>
-      <c r="D266" s="408"/>
+      <c r="A266" s="548"/>
+      <c r="B266" s="451"/>
+      <c r="C266" s="453"/>
+      <c r="D266" s="481"/>
       <c r="E266" s="33" t="s">
         <v>689</v>
       </c>
@@ -25557,14 +25557,14 @@
       <c r="AS266" s="17"/>
     </row>
     <row r="267" spans="1:45" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A267" s="385"/>
-      <c r="B267" s="442" t="s">
+      <c r="A267" s="548"/>
+      <c r="B267" s="516" t="s">
         <v>693</v>
       </c>
-      <c r="C267" s="443" t="s">
+      <c r="C267" s="526" t="s">
         <v>694</v>
       </c>
-      <c r="D267" s="444" t="s">
+      <c r="D267" s="527" t="s">
         <v>37</v>
       </c>
       <c r="E267" s="73" t="s">
@@ -25616,10 +25616,10 @@
       <c r="AS267" s="17"/>
     </row>
     <row r="268" spans="1:45" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A268" s="385"/>
-      <c r="B268" s="442"/>
-      <c r="C268" s="443"/>
-      <c r="D268" s="444"/>
+      <c r="A268" s="548"/>
+      <c r="B268" s="516"/>
+      <c r="C268" s="526"/>
+      <c r="D268" s="527"/>
       <c r="E268" s="73" t="s">
         <v>696</v>
       </c>
@@ -25673,10 +25673,10 @@
       <c r="AS268" s="17"/>
     </row>
     <row r="269" spans="1:45" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A269" s="385"/>
-      <c r="B269" s="442"/>
-      <c r="C269" s="443"/>
-      <c r="D269" s="444"/>
+      <c r="A269" s="548"/>
+      <c r="B269" s="516"/>
+      <c r="C269" s="526"/>
+      <c r="D269" s="527"/>
       <c r="E269" s="74" t="s">
         <v>697</v>
       </c>
@@ -25738,10 +25738,10 @@
       <c r="AS269" s="17"/>
     </row>
     <row r="270" spans="1:45" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A270" s="385"/>
-      <c r="B270" s="442"/>
-      <c r="C270" s="443"/>
-      <c r="D270" s="444"/>
+      <c r="A270" s="548"/>
+      <c r="B270" s="516"/>
+      <c r="C270" s="526"/>
+      <c r="D270" s="527"/>
       <c r="E270" s="33" t="s">
         <v>698</v>
       </c>
@@ -25799,9 +25799,9 @@
       <c r="AS270" s="17"/>
     </row>
     <row r="271" spans="1:45" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A271" s="385"/>
-      <c r="B271" s="442"/>
-      <c r="C271" s="443"/>
+      <c r="A271" s="548"/>
+      <c r="B271" s="516"/>
+      <c r="C271" s="526"/>
       <c r="D271" s="254" t="s">
         <v>22</v>
       </c>
@@ -25856,14 +25856,14 @@
       <c r="AS271" s="17"/>
     </row>
     <row r="272" spans="1:45" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A272" s="385"/>
-      <c r="B272" s="441" t="s">
+      <c r="A272" s="548"/>
+      <c r="B272" s="451" t="s">
         <v>700</v>
       </c>
-      <c r="C272" s="399" t="s">
+      <c r="C272" s="453" t="s">
         <v>701</v>
       </c>
-      <c r="D272" s="408" t="s">
+      <c r="D272" s="481" t="s">
         <v>310</v>
       </c>
       <c r="E272" s="74" t="s">
@@ -25921,10 +25921,10 @@
       <c r="AS272" s="17"/>
     </row>
     <row r="273" spans="1:45" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A273" s="385"/>
-      <c r="B273" s="441"/>
-      <c r="C273" s="399"/>
-      <c r="D273" s="408"/>
+      <c r="A273" s="548"/>
+      <c r="B273" s="451"/>
+      <c r="C273" s="453"/>
+      <c r="D273" s="481"/>
       <c r="E273" s="366" t="s">
         <v>703</v>
       </c>
@@ -25984,10 +25984,10 @@
       <c r="AS273" s="17"/>
     </row>
     <row r="274" spans="1:45" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A274" s="385"/>
-      <c r="B274" s="441"/>
-      <c r="C274" s="399"/>
-      <c r="D274" s="408"/>
+      <c r="A274" s="548"/>
+      <c r="B274" s="451"/>
+      <c r="C274" s="453"/>
+      <c r="D274" s="481"/>
       <c r="E274" s="303" t="s">
         <v>704</v>
       </c>
@@ -26047,10 +26047,10 @@
       <c r="AS274" s="17"/>
     </row>
     <row r="275" spans="1:45" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A275" s="385"/>
-      <c r="B275" s="441"/>
-      <c r="C275" s="399"/>
-      <c r="D275" s="408"/>
+      <c r="A275" s="548"/>
+      <c r="B275" s="451"/>
+      <c r="C275" s="453"/>
+      <c r="D275" s="481"/>
       <c r="E275" s="33" t="s">
         <v>705</v>
       </c>
@@ -26111,10 +26111,10 @@
       <c r="AS275" s="17"/>
     </row>
     <row r="276" spans="1:45" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A276" s="385"/>
-      <c r="B276" s="441"/>
-      <c r="C276" s="399"/>
-      <c r="D276" s="408"/>
+      <c r="A276" s="548"/>
+      <c r="B276" s="451"/>
+      <c r="C276" s="453"/>
+      <c r="D276" s="481"/>
       <c r="E276" s="255" t="s">
         <v>706</v>
       </c>
@@ -26166,10 +26166,10 @@
       <c r="AS276" s="17"/>
     </row>
     <row r="277" spans="1:45" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A277" s="385"/>
-      <c r="B277" s="441"/>
-      <c r="C277" s="399"/>
-      <c r="D277" s="408"/>
+      <c r="A277" s="548"/>
+      <c r="B277" s="451"/>
+      <c r="C277" s="453"/>
+      <c r="D277" s="481"/>
       <c r="E277" s="33" t="s">
         <v>707</v>
       </c>
@@ -26227,10 +26227,10 @@
       <c r="AS277" s="17"/>
     </row>
     <row r="278" spans="1:45" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A278" s="385"/>
-      <c r="B278" s="441"/>
-      <c r="C278" s="399"/>
-      <c r="D278" s="408"/>
+      <c r="A278" s="548"/>
+      <c r="B278" s="451"/>
+      <c r="C278" s="453"/>
+      <c r="D278" s="481"/>
       <c r="E278" s="74" t="s">
         <v>708</v>
       </c>
@@ -26288,14 +26288,14 @@
       <c r="AS278" s="17"/>
     </row>
     <row r="279" spans="1:45" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A279" s="385"/>
-      <c r="B279" s="441" t="s">
+      <c r="A279" s="548"/>
+      <c r="B279" s="451" t="s">
         <v>709</v>
       </c>
-      <c r="C279" s="408" t="s">
+      <c r="C279" s="481" t="s">
         <v>710</v>
       </c>
-      <c r="D279" s="399" t="s">
+      <c r="D279" s="453" t="s">
         <v>20</v>
       </c>
       <c r="E279" s="74" t="s">
@@ -26355,10 +26355,10 @@
       <c r="AS279" s="17"/>
     </row>
     <row r="280" spans="1:45" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A280" s="385"/>
-      <c r="B280" s="441"/>
-      <c r="C280" s="408"/>
-      <c r="D280" s="399"/>
+      <c r="A280" s="548"/>
+      <c r="B280" s="451"/>
+      <c r="C280" s="481"/>
+      <c r="D280" s="453"/>
       <c r="E280" s="33" t="s">
         <v>712</v>
       </c>
@@ -26426,10 +26426,10 @@
       <c r="AS280" s="17"/>
     </row>
     <row r="281" spans="1:45" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A281" s="385"/>
-      <c r="B281" s="441"/>
-      <c r="C281" s="408"/>
-      <c r="D281" s="399"/>
+      <c r="A281" s="548"/>
+      <c r="B281" s="451"/>
+      <c r="C281" s="481"/>
+      <c r="D281" s="453"/>
       <c r="E281" s="33" t="s">
         <v>713</v>
       </c>
@@ -26489,14 +26489,14 @@
       <c r="AS281" s="17"/>
     </row>
     <row r="282" spans="1:45" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A282" s="385"/>
-      <c r="B282" s="441" t="s">
+      <c r="A282" s="548"/>
+      <c r="B282" s="451" t="s">
         <v>714</v>
       </c>
-      <c r="C282" s="408" t="s">
+      <c r="C282" s="481" t="s">
         <v>715</v>
       </c>
-      <c r="D282" s="399" t="s">
+      <c r="D282" s="453" t="s">
         <v>20</v>
       </c>
       <c r="E282" s="33" t="s">
@@ -26558,10 +26558,10 @@
       <c r="AS282" s="17"/>
     </row>
     <row r="283" spans="1:45" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A283" s="385"/>
-      <c r="B283" s="441"/>
-      <c r="C283" s="408"/>
-      <c r="D283" s="399"/>
+      <c r="A283" s="548"/>
+      <c r="B283" s="451"/>
+      <c r="C283" s="481"/>
+      <c r="D283" s="453"/>
       <c r="E283" s="33" t="s">
         <v>717</v>
       </c>
@@ -26617,10 +26617,10 @@
       <c r="AS283" s="17"/>
     </row>
     <row r="284" spans="1:45" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A284" s="385"/>
-      <c r="B284" s="441"/>
-      <c r="C284" s="408"/>
-      <c r="D284" s="399"/>
+      <c r="A284" s="548"/>
+      <c r="B284" s="451"/>
+      <c r="C284" s="481"/>
+      <c r="D284" s="453"/>
       <c r="E284" s="33" t="s">
         <v>718</v>
       </c>
@@ -26682,10 +26682,10 @@
       <c r="AS284" s="17"/>
     </row>
     <row r="285" spans="1:45" ht="99" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A285" s="385"/>
-      <c r="B285" s="441"/>
-      <c r="C285" s="408"/>
-      <c r="D285" s="399"/>
+      <c r="A285" s="548"/>
+      <c r="B285" s="451"/>
+      <c r="C285" s="481"/>
+      <c r="D285" s="453"/>
       <c r="E285" s="33" t="s">
         <v>719</v>
       </c>
@@ -26745,10 +26745,10 @@
       <c r="AS285" s="17"/>
     </row>
     <row r="286" spans="1:45" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A286" s="385"/>
-      <c r="B286" s="441"/>
-      <c r="C286" s="408"/>
-      <c r="D286" s="399"/>
+      <c r="A286" s="548"/>
+      <c r="B286" s="451"/>
+      <c r="C286" s="481"/>
+      <c r="D286" s="453"/>
       <c r="E286" s="33" t="s">
         <v>720</v>
       </c>
@@ -26808,14 +26808,14 @@
       <c r="AS286" s="17"/>
     </row>
     <row r="287" spans="1:45" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A287" s="385"/>
-      <c r="B287" s="441" t="s">
+      <c r="A287" s="548"/>
+      <c r="B287" s="451" t="s">
         <v>721</v>
       </c>
-      <c r="C287" s="441" t="s">
+      <c r="C287" s="451" t="s">
         <v>722</v>
       </c>
-      <c r="D287" s="399" t="s">
+      <c r="D287" s="453" t="s">
         <v>20</v>
       </c>
       <c r="E287" s="74" t="s">
@@ -26873,10 +26873,10 @@
       <c r="AS287" s="17"/>
     </row>
     <row r="288" spans="1:45" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A288" s="385"/>
-      <c r="B288" s="441"/>
-      <c r="C288" s="441"/>
-      <c r="D288" s="399"/>
+      <c r="A288" s="548"/>
+      <c r="B288" s="451"/>
+      <c r="C288" s="451"/>
+      <c r="D288" s="453"/>
       <c r="E288" s="74" t="s">
         <v>723</v>
       </c>
@@ -26930,10 +26930,10 @@
       <c r="AS288" s="17"/>
     </row>
     <row r="289" spans="1:45" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A289" s="385"/>
-      <c r="B289" s="441"/>
-      <c r="C289" s="441"/>
-      <c r="D289" s="399"/>
+      <c r="A289" s="548"/>
+      <c r="B289" s="451"/>
+      <c r="C289" s="451"/>
+      <c r="D289" s="453"/>
       <c r="E289" s="33" t="s">
         <v>724</v>
       </c>
@@ -26987,10 +26987,10 @@
       <c r="AS289" s="17"/>
     </row>
     <row r="290" spans="1:45" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A290" s="385"/>
-      <c r="B290" s="441"/>
-      <c r="C290" s="441"/>
-      <c r="D290" s="399"/>
+      <c r="A290" s="548"/>
+      <c r="B290" s="451"/>
+      <c r="C290" s="451"/>
+      <c r="D290" s="453"/>
       <c r="E290" s="33" t="s">
         <v>705</v>
       </c>
@@ -27048,10 +27048,10 @@
       <c r="AS290" s="17"/>
     </row>
     <row r="291" spans="1:45" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A291" s="385"/>
-      <c r="B291" s="441"/>
-      <c r="C291" s="441"/>
-      <c r="D291" s="399"/>
+      <c r="A291" s="548"/>
+      <c r="B291" s="451"/>
+      <c r="C291" s="451"/>
+      <c r="D291" s="453"/>
       <c r="E291" s="33" t="s">
         <v>725</v>
       </c>
@@ -27107,10 +27107,10 @@
       <c r="AS291" s="17"/>
     </row>
     <row r="292" spans="1:45" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A292" s="386"/>
-      <c r="B292" s="441"/>
-      <c r="C292" s="441"/>
-      <c r="D292" s="399"/>
+      <c r="A292" s="549"/>
+      <c r="B292" s="451"/>
+      <c r="C292" s="451"/>
+      <c r="D292" s="453"/>
       <c r="E292" s="33" t="s">
         <v>707</v>
       </c>
@@ -27168,18 +27168,18 @@
       <c r="AS292" s="17"/>
     </row>
     <row r="293" spans="1:45" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A293" s="445" t="s">
+      <c r="A293" s="461" t="s">
         <v>457</v>
       </c>
-      <c r="B293" s="446"/>
-      <c r="C293" s="446"/>
-      <c r="D293" s="446"/>
-      <c r="E293" s="446"/>
-      <c r="F293" s="446"/>
-      <c r="G293" s="446"/>
-      <c r="H293" s="446"/>
-      <c r="I293" s="446"/>
-      <c r="J293" s="446"/>
+      <c r="B293" s="462"/>
+      <c r="C293" s="462"/>
+      <c r="D293" s="462"/>
+      <c r="E293" s="462"/>
+      <c r="F293" s="462"/>
+      <c r="G293" s="462"/>
+      <c r="H293" s="462"/>
+      <c r="I293" s="462"/>
+      <c r="J293" s="462"/>
       <c r="K293" s="134"/>
       <c r="L293" s="134"/>
       <c r="M293" s="134"/>
@@ -27308,16 +27308,16 @@
       <c r="AS294" s="15"/>
     </row>
     <row r="295" spans="1:45" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A295" s="435" t="s">
+      <c r="A295" s="419" t="s">
         <v>726</v>
       </c>
-      <c r="B295" s="448" t="s">
+      <c r="B295" s="431" t="s">
         <v>727</v>
       </c>
-      <c r="C295" s="403" t="s">
+      <c r="C295" s="425" t="s">
         <v>728</v>
       </c>
-      <c r="D295" s="438" t="s">
+      <c r="D295" s="523" t="s">
         <v>271</v>
       </c>
       <c r="E295" s="74" t="s">
@@ -27379,10 +27379,10 @@
       <c r="AS295" s="17"/>
     </row>
     <row r="296" spans="1:45" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A296" s="436"/>
-      <c r="B296" s="449"/>
-      <c r="C296" s="397"/>
-      <c r="D296" s="439"/>
+      <c r="A296" s="420"/>
+      <c r="B296" s="432"/>
+      <c r="C296" s="426"/>
+      <c r="D296" s="524"/>
       <c r="E296" s="74" t="s">
         <v>730</v>
       </c>
@@ -27444,10 +27444,10 @@
       <c r="AS296" s="17"/>
     </row>
     <row r="297" spans="1:45" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A297" s="436"/>
-      <c r="B297" s="449"/>
-      <c r="C297" s="397"/>
-      <c r="D297" s="439"/>
+      <c r="A297" s="420"/>
+      <c r="B297" s="432"/>
+      <c r="C297" s="426"/>
+      <c r="D297" s="524"/>
       <c r="E297" s="33" t="s">
         <v>731</v>
       </c>
@@ -27523,10 +27523,10 @@
       <c r="AS297" s="17"/>
     </row>
     <row r="298" spans="1:45" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A298" s="437"/>
-      <c r="B298" s="450"/>
-      <c r="C298" s="398"/>
-      <c r="D298" s="440"/>
+      <c r="A298" s="421"/>
+      <c r="B298" s="433"/>
+      <c r="C298" s="427"/>
+      <c r="D298" s="525"/>
       <c r="E298" s="32" t="s">
         <v>732</v>
       </c>
@@ -28949,28 +28949,28 @@
       <c r="AS327" s="17"/>
     </row>
     <row r="328" spans="1:45" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A328" s="482"/>
-      <c r="B328" s="482"/>
-      <c r="C328" s="482"/>
-      <c r="D328" s="482"/>
-      <c r="E328" s="482"/>
-      <c r="F328" s="482"/>
-      <c r="G328" s="482"/>
-      <c r="H328" s="482"/>
-      <c r="I328" s="482"/>
-      <c r="J328" s="482"/>
-      <c r="K328" s="482"/>
-      <c r="L328" s="482"/>
-      <c r="M328" s="482"/>
-      <c r="N328" s="482"/>
-      <c r="O328" s="482"/>
-      <c r="P328" s="482"/>
-      <c r="Q328" s="482"/>
-      <c r="R328" s="482"/>
-      <c r="S328" s="482"/>
-      <c r="T328" s="482"/>
-      <c r="U328" s="482"/>
-      <c r="V328" s="482"/>
+      <c r="A328" s="480"/>
+      <c r="B328" s="480"/>
+      <c r="C328" s="480"/>
+      <c r="D328" s="480"/>
+      <c r="E328" s="480"/>
+      <c r="F328" s="480"/>
+      <c r="G328" s="480"/>
+      <c r="H328" s="480"/>
+      <c r="I328" s="480"/>
+      <c r="J328" s="480"/>
+      <c r="K328" s="480"/>
+      <c r="L328" s="480"/>
+      <c r="M328" s="480"/>
+      <c r="N328" s="480"/>
+      <c r="O328" s="480"/>
+      <c r="P328" s="480"/>
+      <c r="Q328" s="480"/>
+      <c r="R328" s="480"/>
+      <c r="S328" s="480"/>
+      <c r="T328" s="480"/>
+      <c r="U328" s="480"/>
+      <c r="V328" s="480"/>
       <c r="W328" s="17"/>
       <c r="X328" s="17"/>
       <c r="Y328" s="17"/>
@@ -29043,7 +29043,7 @@
       <c r="AS329" s="15"/>
     </row>
     <row r="330" spans="1:45" s="2" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A330" s="522"/>
+      <c r="A330" s="442"/>
       <c r="B330" s="209"/>
       <c r="C330" s="199"/>
       <c r="D330" s="199"/>
@@ -29090,7 +29090,7 @@
       <c r="AS330" s="15"/>
     </row>
     <row r="331" spans="1:45" s="2" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A331" s="522"/>
+      <c r="A331" s="442"/>
       <c r="B331" s="221"/>
       <c r="C331" s="220"/>
       <c r="D331" s="220"/>
@@ -29137,7 +29137,7 @@
       <c r="AS331" s="15"/>
     </row>
     <row r="332" spans="1:45" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A332" s="522"/>
+      <c r="A332" s="442"/>
       <c r="B332" s="221"/>
       <c r="C332" s="220"/>
       <c r="D332" s="220"/>
@@ -29184,12 +29184,12 @@
       <c r="AS332" s="18"/>
     </row>
     <row r="333" spans="1:45" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A333" s="460"/>
-      <c r="B333" s="494"/>
-      <c r="C333" s="464"/>
+      <c r="A333" s="439"/>
+      <c r="B333" s="441"/>
+      <c r="C333" s="437"/>
       <c r="D333" s="199"/>
       <c r="E333" s="199"/>
-      <c r="F333" s="464"/>
+      <c r="F333" s="437"/>
       <c r="G333" s="199"/>
       <c r="H333" s="199"/>
       <c r="I333" s="199"/>
@@ -29231,12 +29231,12 @@
       <c r="AS333" s="18"/>
     </row>
     <row r="334" spans="1:45" s="10" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A334" s="460"/>
-      <c r="B334" s="494"/>
-      <c r="C334" s="464"/>
+      <c r="A334" s="439"/>
+      <c r="B334" s="441"/>
+      <c r="C334" s="437"/>
       <c r="D334" s="199"/>
       <c r="E334" s="199"/>
-      <c r="F334" s="464"/>
+      <c r="F334" s="437"/>
       <c r="G334" s="199"/>
       <c r="H334" s="199"/>
       <c r="I334" s="199"/>
@@ -29278,12 +29278,12 @@
       <c r="AS334" s="18"/>
     </row>
     <row r="335" spans="1:45" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A335" s="460"/>
-      <c r="B335" s="494"/>
-      <c r="C335" s="464"/>
+      <c r="A335" s="439"/>
+      <c r="B335" s="441"/>
+      <c r="C335" s="437"/>
       <c r="D335" s="199"/>
       <c r="E335" s="199"/>
-      <c r="F335" s="464"/>
+      <c r="F335" s="437"/>
       <c r="G335" s="199"/>
       <c r="H335" s="220"/>
       <c r="I335" s="220"/>
@@ -29325,12 +29325,12 @@
       <c r="AS335" s="18"/>
     </row>
     <row r="336" spans="1:45" s="10" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A336" s="460"/>
-      <c r="B336" s="463"/>
-      <c r="C336" s="464"/>
+      <c r="A336" s="439"/>
+      <c r="B336" s="440"/>
+      <c r="C336" s="437"/>
       <c r="D336" s="199"/>
       <c r="E336" s="199"/>
-      <c r="F336" s="464"/>
+      <c r="F336" s="437"/>
       <c r="G336" s="199"/>
       <c r="H336" s="199"/>
       <c r="I336" s="199"/>
@@ -29372,12 +29372,12 @@
       <c r="AS336" s="18"/>
     </row>
     <row r="337" spans="1:45" s="10" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A337" s="460"/>
-      <c r="B337" s="463"/>
-      <c r="C337" s="464"/>
+      <c r="A337" s="439"/>
+      <c r="B337" s="440"/>
+      <c r="C337" s="437"/>
       <c r="D337" s="199"/>
       <c r="E337" s="199"/>
-      <c r="F337" s="464"/>
+      <c r="F337" s="437"/>
       <c r="G337" s="199"/>
       <c r="H337" s="199"/>
       <c r="I337" s="199"/>
@@ -29419,12 +29419,12 @@
       <c r="AS337" s="18"/>
     </row>
     <row r="338" spans="1:45" s="10" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A338" s="460"/>
-      <c r="B338" s="463"/>
-      <c r="C338" s="464"/>
+      <c r="A338" s="439"/>
+      <c r="B338" s="440"/>
+      <c r="C338" s="437"/>
       <c r="D338" s="199"/>
       <c r="E338" s="199"/>
-      <c r="F338" s="464"/>
+      <c r="F338" s="437"/>
       <c r="G338" s="199"/>
       <c r="H338" s="199"/>
       <c r="I338" s="199"/>
@@ -29466,12 +29466,12 @@
       <c r="AS338" s="18"/>
     </row>
     <row r="339" spans="1:45" s="10" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A339" s="460"/>
-      <c r="B339" s="463"/>
-      <c r="C339" s="464"/>
+      <c r="A339" s="439"/>
+      <c r="B339" s="440"/>
+      <c r="C339" s="437"/>
       <c r="D339" s="199"/>
       <c r="E339" s="199"/>
-      <c r="F339" s="464"/>
+      <c r="F339" s="437"/>
       <c r="G339" s="199"/>
       <c r="H339" s="199"/>
       <c r="I339" s="199"/>
@@ -29513,12 +29513,12 @@
       <c r="AS339" s="18"/>
     </row>
     <row r="340" spans="1:45" s="10" customFormat="1" ht="93.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A340" s="460"/>
-      <c r="B340" s="463"/>
-      <c r="C340" s="464"/>
+      <c r="A340" s="439"/>
+      <c r="B340" s="440"/>
+      <c r="C340" s="437"/>
       <c r="D340" s="199"/>
       <c r="E340" s="199"/>
-      <c r="F340" s="464"/>
+      <c r="F340" s="437"/>
       <c r="G340" s="199"/>
       <c r="H340" s="199"/>
       <c r="I340" s="199"/>
@@ -29560,12 +29560,12 @@
       <c r="AS340" s="18"/>
     </row>
     <row r="341" spans="1:45" s="10" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A341" s="460"/>
-      <c r="B341" s="463"/>
-      <c r="C341" s="464"/>
+      <c r="A341" s="439"/>
+      <c r="B341" s="440"/>
+      <c r="C341" s="437"/>
       <c r="D341" s="199"/>
       <c r="E341" s="199"/>
-      <c r="F341" s="464"/>
+      <c r="F341" s="437"/>
       <c r="G341" s="199"/>
       <c r="H341" s="199"/>
       <c r="I341" s="199"/>
@@ -29607,12 +29607,12 @@
       <c r="AS341" s="18"/>
     </row>
     <row r="342" spans="1:45" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A342" s="460"/>
-      <c r="B342" s="494"/>
-      <c r="C342" s="464"/>
+      <c r="A342" s="439"/>
+      <c r="B342" s="441"/>
+      <c r="C342" s="437"/>
       <c r="D342" s="199"/>
       <c r="E342" s="199"/>
-      <c r="F342" s="464"/>
+      <c r="F342" s="437"/>
       <c r="G342" s="199"/>
       <c r="H342" s="199"/>
       <c r="I342" s="199"/>
@@ -29654,7 +29654,7 @@
       <c r="AS342" s="18"/>
     </row>
     <row r="343" spans="1:45" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A343" s="460"/>
+      <c r="A343" s="439"/>
       <c r="B343" s="197"/>
       <c r="C343" s="199"/>
       <c r="D343" s="199"/>
@@ -29701,7 +29701,7 @@
       <c r="AS343" s="18"/>
     </row>
     <row r="344" spans="1:45" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A344" s="523"/>
+      <c r="A344" s="443"/>
       <c r="B344" s="197"/>
       <c r="C344" s="199"/>
       <c r="D344" s="199"/>
@@ -29748,7 +29748,7 @@
       <c r="AS344" s="18"/>
     </row>
     <row r="345" spans="1:45" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A345" s="523"/>
+      <c r="A345" s="443"/>
       <c r="B345" s="197"/>
       <c r="C345" s="199"/>
       <c r="D345" s="199"/>
@@ -29795,7 +29795,7 @@
       <c r="AS345" s="18"/>
     </row>
     <row r="346" spans="1:45" s="10" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A346" s="523"/>
+      <c r="A346" s="443"/>
       <c r="B346" s="197"/>
       <c r="C346" s="199"/>
       <c r="D346" s="199"/>
@@ -29842,7 +29842,7 @@
       <c r="AS346" s="18"/>
     </row>
     <row r="347" spans="1:45" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A347" s="523"/>
+      <c r="A347" s="443"/>
       <c r="B347" s="197"/>
       <c r="C347" s="199"/>
       <c r="D347" s="199"/>
@@ -29889,7 +29889,7 @@
       <c r="AS347" s="18"/>
     </row>
     <row r="348" spans="1:45" s="10" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A348" s="523"/>
+      <c r="A348" s="443"/>
       <c r="B348" s="197"/>
       <c r="C348" s="199"/>
       <c r="D348" s="199"/>
@@ -29936,7 +29936,7 @@
       <c r="AS348" s="18"/>
     </row>
     <row r="349" spans="1:45" s="10" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A349" s="523"/>
+      <c r="A349" s="443"/>
       <c r="B349" s="197"/>
       <c r="C349" s="199"/>
       <c r="D349" s="199"/>
@@ -29983,7 +29983,7 @@
       <c r="AS349" s="18"/>
     </row>
     <row r="350" spans="1:45" s="10" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A350" s="523"/>
+      <c r="A350" s="443"/>
       <c r="B350" s="197"/>
       <c r="C350" s="199"/>
       <c r="D350" s="199"/>
@@ -30030,7 +30030,7 @@
       <c r="AS350" s="18"/>
     </row>
     <row r="351" spans="1:45" s="10" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A351" s="523"/>
+      <c r="A351" s="443"/>
       <c r="B351" s="197"/>
       <c r="C351" s="199"/>
       <c r="D351" s="199"/>
@@ -30077,7 +30077,7 @@
       <c r="AS351" s="18"/>
     </row>
     <row r="352" spans="1:45" s="10" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A352" s="523"/>
+      <c r="A352" s="443"/>
       <c r="B352" s="197"/>
       <c r="C352" s="199"/>
       <c r="D352" s="199"/>
@@ -30124,7 +30124,7 @@
       <c r="AS352" s="18"/>
     </row>
     <row r="353" spans="1:45" s="10" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A353" s="523"/>
+      <c r="A353" s="443"/>
       <c r="B353" s="197"/>
       <c r="C353" s="199"/>
       <c r="D353" s="199"/>
@@ -30171,7 +30171,7 @@
       <c r="AS353" s="18"/>
     </row>
     <row r="354" spans="1:45" s="10" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A354" s="523"/>
+      <c r="A354" s="443"/>
       <c r="B354" s="197"/>
       <c r="C354" s="199"/>
       <c r="D354" s="199"/>
@@ -30218,7 +30218,7 @@
       <c r="AS354" s="18"/>
     </row>
     <row r="355" spans="1:45" s="10" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A355" s="523"/>
+      <c r="A355" s="443"/>
       <c r="B355" s="197"/>
       <c r="C355" s="199"/>
       <c r="D355" s="199"/>
@@ -30265,7 +30265,7 @@
       <c r="AS355" s="18"/>
     </row>
     <row r="356" spans="1:45" s="10" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A356" s="523"/>
+      <c r="A356" s="443"/>
       <c r="B356" s="197"/>
       <c r="C356" s="199"/>
       <c r="D356" s="199"/>
@@ -30312,7 +30312,7 @@
       <c r="AS356" s="18"/>
     </row>
     <row r="357" spans="1:45" s="10" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A357" s="523"/>
+      <c r="A357" s="443"/>
       <c r="B357" s="197"/>
       <c r="C357" s="199"/>
       <c r="D357" s="199"/>
@@ -30359,7 +30359,7 @@
       <c r="AS357" s="18"/>
     </row>
     <row r="358" spans="1:45" s="10" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A358" s="523"/>
+      <c r="A358" s="443"/>
       <c r="B358" s="197"/>
       <c r="C358" s="199"/>
       <c r="D358" s="199"/>
@@ -30406,7 +30406,7 @@
       <c r="AS358" s="18"/>
     </row>
     <row r="359" spans="1:45" s="10" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A359" s="523"/>
+      <c r="A359" s="443"/>
       <c r="B359" s="197"/>
       <c r="C359" s="199"/>
       <c r="D359" s="199"/>
@@ -30453,7 +30453,7 @@
       <c r="AS359" s="18"/>
     </row>
     <row r="360" spans="1:45" s="10" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A360" s="523"/>
+      <c r="A360" s="443"/>
       <c r="B360" s="197"/>
       <c r="C360" s="199"/>
       <c r="D360" s="199"/>
@@ -30500,7 +30500,7 @@
       <c r="AS360" s="18"/>
     </row>
     <row r="361" spans="1:45" s="10" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A361" s="461"/>
+      <c r="A361" s="444"/>
       <c r="B361" s="197"/>
       <c r="C361" s="199"/>
       <c r="D361" s="199"/>
@@ -30547,7 +30547,7 @@
       <c r="AS361" s="18"/>
     </row>
     <row r="362" spans="1:45" s="10" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A362" s="461"/>
+      <c r="A362" s="444"/>
       <c r="B362" s="197"/>
       <c r="C362" s="199"/>
       <c r="D362" s="199"/>
@@ -30594,7 +30594,7 @@
       <c r="AS362" s="18"/>
     </row>
     <row r="363" spans="1:45" s="10" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A363" s="461"/>
+      <c r="A363" s="444"/>
       <c r="B363" s="197"/>
       <c r="C363" s="199"/>
       <c r="D363" s="199"/>
@@ -30641,7 +30641,7 @@
       <c r="AS363" s="18"/>
     </row>
     <row r="364" spans="1:45" s="10" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A364" s="461"/>
+      <c r="A364" s="444"/>
       <c r="B364" s="197"/>
       <c r="C364" s="199"/>
       <c r="D364" s="199"/>
@@ -30688,7 +30688,7 @@
       <c r="AS364" s="18"/>
     </row>
     <row r="365" spans="1:45" s="10" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A365" s="461"/>
+      <c r="A365" s="444"/>
       <c r="B365" s="197"/>
       <c r="C365" s="199"/>
       <c r="D365" s="199"/>
@@ -30735,7 +30735,7 @@
       <c r="AS365" s="18"/>
     </row>
     <row r="366" spans="1:45" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A366" s="461"/>
+      <c r="A366" s="444"/>
       <c r="B366" s="197"/>
       <c r="C366" s="199"/>
       <c r="D366" s="199"/>
@@ -30783,8 +30783,8 @@
     </row>
     <row r="367" spans="1:45" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A367" s="197"/>
-      <c r="B367" s="463"/>
-      <c r="C367" s="464"/>
+      <c r="B367" s="440"/>
+      <c r="C367" s="437"/>
       <c r="D367" s="199"/>
       <c r="E367" s="199"/>
       <c r="F367" s="199"/>
@@ -30830,8 +30830,8 @@
     </row>
     <row r="368" spans="1:45" s="10" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A368" s="197"/>
-      <c r="B368" s="463"/>
-      <c r="C368" s="464"/>
+      <c r="B368" s="440"/>
+      <c r="C368" s="437"/>
       <c r="D368" s="199"/>
       <c r="E368" s="199"/>
       <c r="F368" s="199"/>
@@ -30877,8 +30877,8 @@
     </row>
     <row r="369" spans="1:45" s="10" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A369" s="197"/>
-      <c r="B369" s="463"/>
-      <c r="C369" s="464"/>
+      <c r="B369" s="440"/>
+      <c r="C369" s="437"/>
       <c r="D369" s="199"/>
       <c r="E369" s="199"/>
       <c r="F369" s="199"/>
@@ -30924,8 +30924,8 @@
     </row>
     <row r="370" spans="1:45" s="10" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A370" s="197"/>
-      <c r="B370" s="463"/>
-      <c r="C370" s="464"/>
+      <c r="B370" s="440"/>
+      <c r="C370" s="437"/>
       <c r="D370" s="199"/>
       <c r="E370" s="199"/>
       <c r="F370" s="199"/>
@@ -30971,8 +30971,8 @@
     </row>
     <row r="371" spans="1:45" s="10" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A371" s="197"/>
-      <c r="B371" s="463"/>
-      <c r="C371" s="464"/>
+      <c r="B371" s="440"/>
+      <c r="C371" s="437"/>
       <c r="D371" s="199"/>
       <c r="E371" s="199"/>
       <c r="F371" s="199"/>
@@ -31018,8 +31018,8 @@
     </row>
     <row r="372" spans="1:45" s="10" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A372" s="197"/>
-      <c r="B372" s="463"/>
-      <c r="C372" s="464"/>
+      <c r="B372" s="440"/>
+      <c r="C372" s="437"/>
       <c r="D372" s="199"/>
       <c r="E372" s="199"/>
       <c r="F372" s="199"/>
@@ -31065,8 +31065,8 @@
     </row>
     <row r="373" spans="1:45" s="10" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A373" s="197"/>
-      <c r="B373" s="463"/>
-      <c r="C373" s="464"/>
+      <c r="B373" s="440"/>
+      <c r="C373" s="437"/>
       <c r="D373" s="199"/>
       <c r="E373" s="199"/>
       <c r="F373" s="199"/>
@@ -31112,8 +31112,8 @@
     </row>
     <row r="374" spans="1:45" s="10" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A374" s="197"/>
-      <c r="B374" s="463"/>
-      <c r="C374" s="464"/>
+      <c r="B374" s="440"/>
+      <c r="C374" s="437"/>
       <c r="D374" s="199"/>
       <c r="E374" s="199"/>
       <c r="F374" s="199"/>
@@ -31299,7 +31299,7 @@
       <c r="AS377" s="18"/>
     </row>
     <row r="378" spans="1:45" s="10" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A378" s="460"/>
+      <c r="A378" s="439"/>
       <c r="B378" s="222"/>
       <c r="C378" s="199"/>
       <c r="D378" s="199"/>
@@ -31346,9 +31346,9 @@
       <c r="AS378" s="18"/>
     </row>
     <row r="379" spans="1:45" s="10" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A379" s="460"/>
-      <c r="B379" s="463"/>
-      <c r="C379" s="464"/>
+      <c r="A379" s="439"/>
+      <c r="B379" s="440"/>
+      <c r="C379" s="437"/>
       <c r="D379" s="199"/>
       <c r="E379" s="199"/>
       <c r="F379" s="199"/>
@@ -31393,9 +31393,9 @@
       <c r="AS379" s="18"/>
     </row>
     <row r="380" spans="1:45" s="10" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A380" s="460"/>
-      <c r="B380" s="463"/>
-      <c r="C380" s="464"/>
+      <c r="A380" s="439"/>
+      <c r="B380" s="440"/>
+      <c r="C380" s="437"/>
       <c r="D380" s="199"/>
       <c r="E380" s="199"/>
       <c r="F380" s="199"/>
@@ -31440,9 +31440,9 @@
       <c r="AS380" s="18"/>
     </row>
     <row r="381" spans="1:45" s="10" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A381" s="460"/>
-      <c r="B381" s="463"/>
-      <c r="C381" s="464"/>
+      <c r="A381" s="439"/>
+      <c r="B381" s="440"/>
+      <c r="C381" s="437"/>
       <c r="D381" s="199"/>
       <c r="E381" s="199"/>
       <c r="F381" s="199"/>
@@ -31487,9 +31487,9 @@
       <c r="AS381" s="18"/>
     </row>
     <row r="382" spans="1:45" s="10" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A382" s="460"/>
-      <c r="B382" s="463"/>
-      <c r="C382" s="464"/>
+      <c r="A382" s="439"/>
+      <c r="B382" s="440"/>
+      <c r="C382" s="437"/>
       <c r="D382" s="199"/>
       <c r="E382" s="199"/>
       <c r="F382" s="199"/>
@@ -31534,9 +31534,9 @@
       <c r="AS382" s="18"/>
     </row>
     <row r="383" spans="1:45" s="10" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A383" s="460"/>
-      <c r="B383" s="463"/>
-      <c r="C383" s="464"/>
+      <c r="A383" s="439"/>
+      <c r="B383" s="440"/>
+      <c r="C383" s="437"/>
       <c r="D383" s="199"/>
       <c r="E383" s="199"/>
       <c r="F383" s="211"/>
@@ -31581,9 +31581,9 @@
       <c r="AS383" s="18"/>
     </row>
     <row r="384" spans="1:45" s="10" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A384" s="460"/>
-      <c r="B384" s="463"/>
-      <c r="C384" s="464"/>
+      <c r="A384" s="439"/>
+      <c r="B384" s="440"/>
+      <c r="C384" s="437"/>
       <c r="D384" s="199"/>
       <c r="E384" s="199"/>
       <c r="F384" s="199"/>
@@ -31628,9 +31628,9 @@
       <c r="AS384" s="18"/>
     </row>
     <row r="385" spans="1:45" s="10" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A385" s="460"/>
-      <c r="B385" s="463"/>
-      <c r="C385" s="464"/>
+      <c r="A385" s="439"/>
+      <c r="B385" s="440"/>
+      <c r="C385" s="437"/>
       <c r="D385" s="199"/>
       <c r="E385" s="199"/>
       <c r="F385" s="199"/>
@@ -31675,9 +31675,9 @@
       <c r="AS385" s="18"/>
     </row>
     <row r="386" spans="1:45" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A386" s="460"/>
-      <c r="B386" s="463"/>
-      <c r="C386" s="464"/>
+      <c r="A386" s="439"/>
+      <c r="B386" s="440"/>
+      <c r="C386" s="437"/>
       <c r="D386" s="199"/>
       <c r="E386" s="199"/>
       <c r="F386" s="199"/>
@@ -31722,12 +31722,12 @@
       <c r="AS386" s="18"/>
     </row>
     <row r="387" spans="1:45" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A387" s="460"/>
-      <c r="B387" s="463"/>
-      <c r="C387" s="464"/>
+      <c r="A387" s="439"/>
+      <c r="B387" s="440"/>
+      <c r="C387" s="437"/>
       <c r="D387" s="199"/>
       <c r="E387" s="199"/>
-      <c r="F387" s="464"/>
+      <c r="F387" s="437"/>
       <c r="G387" s="199"/>
       <c r="H387" s="199"/>
       <c r="I387" s="199"/>
@@ -31769,12 +31769,12 @@
       <c r="AS387" s="18"/>
     </row>
     <row r="388" spans="1:45" s="10" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A388" s="460"/>
-      <c r="B388" s="463"/>
-      <c r="C388" s="464"/>
+      <c r="A388" s="439"/>
+      <c r="B388" s="440"/>
+      <c r="C388" s="437"/>
       <c r="D388" s="199"/>
       <c r="E388" s="199"/>
-      <c r="F388" s="464"/>
+      <c r="F388" s="437"/>
       <c r="G388" s="199"/>
       <c r="H388" s="199"/>
       <c r="I388" s="199"/>
@@ -31816,12 +31816,12 @@
       <c r="AS388" s="18"/>
     </row>
     <row r="389" spans="1:45" s="10" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A389" s="460"/>
-      <c r="B389" s="463"/>
-      <c r="C389" s="464"/>
+      <c r="A389" s="439"/>
+      <c r="B389" s="440"/>
+      <c r="C389" s="437"/>
       <c r="D389" s="199"/>
       <c r="E389" s="199"/>
-      <c r="F389" s="464"/>
+      <c r="F389" s="437"/>
       <c r="G389" s="199"/>
       <c r="H389" s="199"/>
       <c r="I389" s="199"/>
@@ -31863,8 +31863,8 @@
       <c r="AS389" s="18"/>
     </row>
     <row r="390" spans="1:45" s="10" customFormat="1" ht="86.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A390" s="460"/>
-      <c r="B390" s="463"/>
+      <c r="A390" s="439"/>
+      <c r="B390" s="440"/>
       <c r="C390" s="199"/>
       <c r="D390" s="199"/>
       <c r="E390" s="199"/>
@@ -31910,12 +31910,12 @@
       <c r="AS390" s="18"/>
     </row>
     <row r="391" spans="1:45" s="10" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A391" s="460"/>
-      <c r="B391" s="463"/>
-      <c r="C391" s="464"/>
+      <c r="A391" s="439"/>
+      <c r="B391" s="440"/>
+      <c r="C391" s="437"/>
       <c r="D391" s="199"/>
       <c r="E391" s="199"/>
-      <c r="F391" s="464"/>
+      <c r="F391" s="437"/>
       <c r="G391" s="199"/>
       <c r="H391" s="199"/>
       <c r="I391" s="199"/>
@@ -31957,12 +31957,12 @@
       <c r="AS391" s="18"/>
     </row>
     <row r="392" spans="1:45" s="10" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A392" s="460"/>
-      <c r="B392" s="463"/>
-      <c r="C392" s="464"/>
+      <c r="A392" s="439"/>
+      <c r="B392" s="440"/>
+      <c r="C392" s="437"/>
       <c r="D392" s="199"/>
       <c r="E392" s="199"/>
-      <c r="F392" s="464"/>
+      <c r="F392" s="437"/>
       <c r="G392" s="199"/>
       <c r="H392" s="199"/>
       <c r="I392" s="199"/>
@@ -32004,12 +32004,12 @@
       <c r="AS392" s="18"/>
     </row>
     <row r="393" spans="1:45" s="10" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A393" s="460"/>
-      <c r="B393" s="464"/>
-      <c r="C393" s="464"/>
+      <c r="A393" s="439"/>
+      <c r="B393" s="437"/>
+      <c r="C393" s="437"/>
       <c r="D393" s="199"/>
       <c r="E393" s="199"/>
-      <c r="F393" s="464"/>
+      <c r="F393" s="437"/>
       <c r="G393" s="199"/>
       <c r="H393" s="199"/>
       <c r="I393" s="199"/>
@@ -32051,12 +32051,12 @@
       <c r="AS393" s="18"/>
     </row>
     <row r="394" spans="1:45" s="10" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A394" s="460"/>
-      <c r="B394" s="464"/>
-      <c r="C394" s="464"/>
+      <c r="A394" s="439"/>
+      <c r="B394" s="437"/>
+      <c r="C394" s="437"/>
       <c r="D394" s="199"/>
       <c r="E394" s="199"/>
-      <c r="F394" s="464"/>
+      <c r="F394" s="437"/>
       <c r="G394" s="199"/>
       <c r="H394" s="199"/>
       <c r="I394" s="199"/>
@@ -32098,12 +32098,12 @@
       <c r="AS394" s="18"/>
     </row>
     <row r="395" spans="1:45" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A395" s="460"/>
-      <c r="B395" s="521"/>
-      <c r="C395" s="464"/>
+      <c r="A395" s="439"/>
+      <c r="B395" s="438"/>
+      <c r="C395" s="437"/>
       <c r="D395" s="199"/>
       <c r="E395" s="199"/>
-      <c r="F395" s="464"/>
+      <c r="F395" s="437"/>
       <c r="G395" s="199"/>
       <c r="H395" s="199"/>
       <c r="I395" s="199"/>
@@ -32145,12 +32145,12 @@
       <c r="AS395" s="18"/>
     </row>
     <row r="396" spans="1:45" s="10" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A396" s="460"/>
-      <c r="B396" s="521"/>
-      <c r="C396" s="464"/>
+      <c r="A396" s="439"/>
+      <c r="B396" s="438"/>
+      <c r="C396" s="437"/>
       <c r="D396" s="199"/>
       <c r="E396" s="199"/>
-      <c r="F396" s="464"/>
+      <c r="F396" s="437"/>
       <c r="G396" s="199"/>
       <c r="H396" s="199"/>
       <c r="I396" s="199"/>
@@ -32192,12 +32192,12 @@
       <c r="AS396" s="18"/>
     </row>
     <row r="397" spans="1:45" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A397" s="460"/>
-      <c r="B397" s="521"/>
-      <c r="C397" s="464"/>
+      <c r="A397" s="439"/>
+      <c r="B397" s="438"/>
+      <c r="C397" s="437"/>
       <c r="D397" s="199"/>
       <c r="E397" s="199"/>
-      <c r="F397" s="464"/>
+      <c r="F397" s="437"/>
       <c r="G397" s="199"/>
       <c r="H397" s="199"/>
       <c r="I397" s="199"/>
@@ -32239,7 +32239,7 @@
       <c r="AS397" s="18"/>
     </row>
     <row r="398" spans="1:45" s="10" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A398" s="460"/>
+      <c r="A398" s="439"/>
       <c r="B398" s="223"/>
       <c r="C398" s="199"/>
       <c r="D398" s="199"/>
@@ -32286,7 +32286,7 @@
       <c r="AS398" s="18"/>
     </row>
     <row r="399" spans="1:45" s="10" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A399" s="460"/>
+      <c r="A399" s="439"/>
       <c r="B399" s="222"/>
       <c r="C399" s="199"/>
       <c r="D399" s="199"/>
@@ -32333,9 +32333,9 @@
       <c r="AS399" s="18"/>
     </row>
     <row r="400" spans="1:45" s="10" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A400" s="460"/>
-      <c r="B400" s="463"/>
-      <c r="C400" s="464"/>
+      <c r="A400" s="439"/>
+      <c r="B400" s="440"/>
+      <c r="C400" s="437"/>
       <c r="D400" s="199"/>
       <c r="E400" s="199"/>
       <c r="F400" s="199"/>
@@ -32380,9 +32380,9 @@
       <c r="AS400" s="18"/>
     </row>
     <row r="401" spans="1:45" s="10" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A401" s="460"/>
-      <c r="B401" s="463"/>
-      <c r="C401" s="464"/>
+      <c r="A401" s="439"/>
+      <c r="B401" s="440"/>
+      <c r="C401" s="437"/>
       <c r="D401" s="199"/>
       <c r="E401" s="199"/>
       <c r="F401" s="199"/>
@@ -32427,9 +32427,9 @@
       <c r="AS401" s="18"/>
     </row>
     <row r="402" spans="1:45" s="10" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A402" s="460"/>
-      <c r="B402" s="463"/>
-      <c r="C402" s="464"/>
+      <c r="A402" s="439"/>
+      <c r="B402" s="440"/>
+      <c r="C402" s="437"/>
       <c r="D402" s="199"/>
       <c r="E402" s="199"/>
       <c r="F402" s="199"/>
@@ -32474,9 +32474,9 @@
       <c r="AS402" s="18"/>
     </row>
     <row r="403" spans="1:45" s="10" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A403" s="460"/>
-      <c r="B403" s="463"/>
-      <c r="C403" s="464"/>
+      <c r="A403" s="439"/>
+      <c r="B403" s="440"/>
+      <c r="C403" s="437"/>
       <c r="D403" s="199"/>
       <c r="E403" s="199"/>
       <c r="F403" s="199"/>
@@ -32521,9 +32521,9 @@
       <c r="AS403" s="18"/>
     </row>
     <row r="404" spans="1:45" s="10" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A404" s="461"/>
-      <c r="B404" s="462"/>
-      <c r="C404" s="458"/>
+      <c r="A404" s="444"/>
+      <c r="B404" s="521"/>
+      <c r="C404" s="519"/>
       <c r="D404" s="211"/>
       <c r="E404" s="211"/>
       <c r="F404" s="199"/>
@@ -32568,9 +32568,9 @@
       <c r="AS404" s="18"/>
     </row>
     <row r="405" spans="1:45" s="10" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A405" s="461"/>
-      <c r="B405" s="462"/>
-      <c r="C405" s="458"/>
+      <c r="A405" s="444"/>
+      <c r="B405" s="521"/>
+      <c r="C405" s="519"/>
       <c r="D405" s="211"/>
       <c r="E405" s="211"/>
       <c r="F405" s="199"/>
@@ -32615,9 +32615,9 @@
       <c r="AS405" s="18"/>
     </row>
     <row r="406" spans="1:45" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A406" s="461"/>
-      <c r="B406" s="462"/>
-      <c r="C406" s="458"/>
+      <c r="A406" s="444"/>
+      <c r="B406" s="521"/>
+      <c r="C406" s="519"/>
       <c r="D406" s="211"/>
       <c r="E406" s="211"/>
       <c r="F406" s="199"/>
@@ -32662,9 +32662,9 @@
       <c r="AS406" s="18"/>
     </row>
     <row r="407" spans="1:45" s="10" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A407" s="461"/>
-      <c r="B407" s="462"/>
-      <c r="C407" s="458"/>
+      <c r="A407" s="444"/>
+      <c r="B407" s="521"/>
+      <c r="C407" s="519"/>
       <c r="D407" s="211"/>
       <c r="E407" s="211"/>
       <c r="F407" s="199"/>
@@ -32709,7 +32709,7 @@
       <c r="AS407" s="18"/>
     </row>
     <row r="408" spans="1:45" s="10" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A408" s="461"/>
+      <c r="A408" s="444"/>
       <c r="B408" s="222"/>
       <c r="C408" s="199"/>
       <c r="D408" s="199"/>
@@ -32756,7 +32756,7 @@
       <c r="AS408" s="18"/>
     </row>
     <row r="409" spans="1:45" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A409" s="461"/>
+      <c r="A409" s="444"/>
       <c r="B409" s="222"/>
       <c r="C409" s="199"/>
       <c r="D409" s="199"/>
@@ -32803,7 +32803,7 @@
       <c r="AS409" s="17"/>
     </row>
     <row r="410" spans="1:45" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A410" s="461"/>
+      <c r="A410" s="444"/>
       <c r="B410" s="222"/>
       <c r="C410" s="199"/>
       <c r="D410" s="199"/>
@@ -32850,8 +32850,8 @@
       <c r="AS410" s="17"/>
     </row>
     <row r="411" spans="1:45" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A411" s="461"/>
-      <c r="B411" s="460"/>
+      <c r="A411" s="444"/>
+      <c r="B411" s="439"/>
       <c r="C411" s="199"/>
       <c r="D411" s="199"/>
       <c r="E411" s="199"/>
@@ -32897,8 +32897,8 @@
       <c r="AS411" s="17"/>
     </row>
     <row r="412" spans="1:45" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A412" s="461"/>
-      <c r="B412" s="460"/>
+      <c r="A412" s="444"/>
+      <c r="B412" s="439"/>
       <c r="C412" s="199"/>
       <c r="D412" s="199"/>
       <c r="E412" s="199"/>
@@ -32944,8 +32944,8 @@
       <c r="AS412" s="17"/>
     </row>
     <row r="413" spans="1:45" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A413" s="461"/>
-      <c r="B413" s="458"/>
+      <c r="A413" s="444"/>
+      <c r="B413" s="519"/>
       <c r="C413" s="199"/>
       <c r="D413" s="199"/>
       <c r="E413" s="199"/>
@@ -32991,8 +32991,8 @@
       <c r="AS413" s="17"/>
     </row>
     <row r="414" spans="1:45" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A414" s="461"/>
-      <c r="B414" s="458"/>
+      <c r="A414" s="444"/>
+      <c r="B414" s="519"/>
       <c r="C414" s="199"/>
       <c r="D414" s="199"/>
       <c r="E414" s="199"/>
@@ -33038,7 +33038,7 @@
       <c r="AS414" s="17"/>
     </row>
     <row r="415" spans="1:45" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A415" s="461"/>
+      <c r="A415" s="444"/>
       <c r="B415" s="193"/>
       <c r="C415" s="193"/>
       <c r="D415" s="193"/>
@@ -33085,10 +33085,10 @@
       <c r="AS415" s="15"/>
     </row>
     <row r="416" spans="1:45" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A416" s="456"/>
-      <c r="B416" s="457"/>
-      <c r="C416" s="458"/>
-      <c r="D416" s="459"/>
+      <c r="A416" s="517"/>
+      <c r="B416" s="518"/>
+      <c r="C416" s="519"/>
+      <c r="D416" s="520"/>
       <c r="E416" s="216"/>
       <c r="F416" s="209"/>
       <c r="G416" s="210"/>
@@ -33134,10 +33134,10 @@
       <c r="AS416" s="15"/>
     </row>
     <row r="417" spans="1:25" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A417" s="456"/>
-      <c r="B417" s="457"/>
-      <c r="C417" s="458"/>
-      <c r="D417" s="459"/>
+      <c r="A417" s="517"/>
+      <c r="B417" s="518"/>
+      <c r="C417" s="519"/>
+      <c r="D417" s="520"/>
       <c r="E417" s="216"/>
       <c r="F417" s="209"/>
       <c r="G417" s="210"/>
@@ -33163,10 +33163,10 @@
       <c r="Y417" s="50"/>
     </row>
     <row r="418" spans="1:25" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A418" s="456"/>
-      <c r="B418" s="457"/>
-      <c r="C418" s="458"/>
-      <c r="D418" s="459"/>
+      <c r="A418" s="517"/>
+      <c r="B418" s="518"/>
+      <c r="C418" s="519"/>
+      <c r="D418" s="520"/>
       <c r="E418" s="16"/>
       <c r="F418" s="209"/>
       <c r="G418" s="210"/>
@@ -33192,10 +33192,10 @@
       <c r="Y418" s="50"/>
     </row>
     <row r="419" spans="1:25" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A419" s="456"/>
-      <c r="B419" s="457"/>
-      <c r="C419" s="458"/>
-      <c r="D419" s="459"/>
+      <c r="A419" s="517"/>
+      <c r="B419" s="518"/>
+      <c r="C419" s="519"/>
+      <c r="D419" s="520"/>
       <c r="E419" s="16"/>
       <c r="F419" s="209"/>
       <c r="G419" s="210"/>
@@ -33223,10 +33223,10 @@
       <c r="Y419" s="50"/>
     </row>
     <row r="420" spans="1:25" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A420" s="456"/>
-      <c r="B420" s="457"/>
-      <c r="C420" s="458"/>
-      <c r="D420" s="459"/>
+      <c r="A420" s="517"/>
+      <c r="B420" s="518"/>
+      <c r="C420" s="519"/>
+      <c r="D420" s="520"/>
       <c r="E420" s="16"/>
       <c r="F420" s="209"/>
       <c r="G420" s="210"/>
@@ -33254,10 +33254,10 @@
       <c r="Y420" s="50"/>
     </row>
     <row r="421" spans="1:25" ht="142.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A421" s="456"/>
-      <c r="B421" s="457"/>
-      <c r="C421" s="458"/>
-      <c r="D421" s="459"/>
+      <c r="A421" s="517"/>
+      <c r="B421" s="518"/>
+      <c r="C421" s="519"/>
+      <c r="D421" s="520"/>
       <c r="E421" s="16"/>
       <c r="F421" s="209"/>
       <c r="G421" s="210"/>
@@ -33286,22 +33286,183 @@
     </row>
   </sheetData>
   <mergeCells count="217">
-    <mergeCell ref="W1:W4"/>
-    <mergeCell ref="X1:X4"/>
-    <mergeCell ref="Y1:Y4"/>
-    <mergeCell ref="A1:V1"/>
-    <mergeCell ref="A2:V2"/>
-    <mergeCell ref="A3:V3"/>
-    <mergeCell ref="A30:V30"/>
-    <mergeCell ref="D31:D36"/>
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="A31:A53"/>
-    <mergeCell ref="B5:B29"/>
-    <mergeCell ref="A5:A29"/>
-    <mergeCell ref="B31:B50"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="D16:D21"/>
-    <mergeCell ref="C37:C40"/>
+    <mergeCell ref="C199:C206"/>
+    <mergeCell ref="C207:C209"/>
+    <mergeCell ref="A259:A292"/>
+    <mergeCell ref="D183:D184"/>
+    <mergeCell ref="C154:C155"/>
+    <mergeCell ref="D157:D163"/>
+    <mergeCell ref="C157:C163"/>
+    <mergeCell ref="C164:C169"/>
+    <mergeCell ref="C170:C175"/>
+    <mergeCell ref="C176:C181"/>
+    <mergeCell ref="C183:C184"/>
+    <mergeCell ref="C185:C188"/>
+    <mergeCell ref="C189:C190"/>
+    <mergeCell ref="B252:B256"/>
+    <mergeCell ref="C252:C256"/>
+    <mergeCell ref="D252:D256"/>
+    <mergeCell ref="B241:B246"/>
+    <mergeCell ref="C241:C246"/>
+    <mergeCell ref="A237:A256"/>
+    <mergeCell ref="D259:D262"/>
+    <mergeCell ref="C135:C138"/>
+    <mergeCell ref="D139:D140"/>
+    <mergeCell ref="C139:C140"/>
+    <mergeCell ref="C141:C145"/>
+    <mergeCell ref="D55:D58"/>
+    <mergeCell ref="C55:C58"/>
+    <mergeCell ref="D95:D101"/>
+    <mergeCell ref="C95:C101"/>
+    <mergeCell ref="D102:D107"/>
+    <mergeCell ref="C102:C107"/>
+    <mergeCell ref="D125:D126"/>
+    <mergeCell ref="D111:D117"/>
+    <mergeCell ref="C111:C117"/>
+    <mergeCell ref="A108:V108"/>
+    <mergeCell ref="A109:V109"/>
+    <mergeCell ref="D83:D87"/>
+    <mergeCell ref="C83:C87"/>
+    <mergeCell ref="D88:D94"/>
+    <mergeCell ref="C88:C94"/>
+    <mergeCell ref="C73:C76"/>
+    <mergeCell ref="A111:A126"/>
+    <mergeCell ref="D129:D132"/>
+    <mergeCell ref="C129:C132"/>
+    <mergeCell ref="C133:C134"/>
+    <mergeCell ref="B111:B117"/>
+    <mergeCell ref="A295:A298"/>
+    <mergeCell ref="D295:D298"/>
+    <mergeCell ref="C282:C286"/>
+    <mergeCell ref="B282:B286"/>
+    <mergeCell ref="D282:D286"/>
+    <mergeCell ref="B267:B271"/>
+    <mergeCell ref="C267:C271"/>
+    <mergeCell ref="D267:D270"/>
+    <mergeCell ref="C279:C281"/>
+    <mergeCell ref="B279:B281"/>
+    <mergeCell ref="D279:D281"/>
+    <mergeCell ref="D272:D278"/>
+    <mergeCell ref="C272:C278"/>
+    <mergeCell ref="B272:B278"/>
+    <mergeCell ref="C287:C292"/>
+    <mergeCell ref="D287:D292"/>
+    <mergeCell ref="B287:B292"/>
+    <mergeCell ref="A293:J293"/>
+    <mergeCell ref="D133:D134"/>
+    <mergeCell ref="D135:D138"/>
+    <mergeCell ref="B295:B298"/>
+    <mergeCell ref="B222:B225"/>
+    <mergeCell ref="B218:B221"/>
+    <mergeCell ref="A416:A421"/>
+    <mergeCell ref="B416:B421"/>
+    <mergeCell ref="C416:C421"/>
+    <mergeCell ref="D416:D421"/>
+    <mergeCell ref="A400:A403"/>
+    <mergeCell ref="A378:A389"/>
+    <mergeCell ref="A404:A415"/>
+    <mergeCell ref="C404:C407"/>
+    <mergeCell ref="B413:B414"/>
+    <mergeCell ref="B411:B412"/>
+    <mergeCell ref="B404:B407"/>
+    <mergeCell ref="B400:B403"/>
+    <mergeCell ref="C400:C403"/>
+    <mergeCell ref="B379:B382"/>
+    <mergeCell ref="C379:C382"/>
+    <mergeCell ref="B383:B386"/>
+    <mergeCell ref="C383:C386"/>
+    <mergeCell ref="B387:B389"/>
+    <mergeCell ref="C387:C389"/>
+    <mergeCell ref="B390:B394"/>
+    <mergeCell ref="C391:C394"/>
+    <mergeCell ref="C295:C298"/>
+    <mergeCell ref="A127:V127"/>
+    <mergeCell ref="W160:W161"/>
+    <mergeCell ref="X160:X161"/>
+    <mergeCell ref="Y160:Y161"/>
+    <mergeCell ref="D193:D198"/>
+    <mergeCell ref="B193:B198"/>
+    <mergeCell ref="A129:A190"/>
+    <mergeCell ref="A191:V191"/>
+    <mergeCell ref="A193:A214"/>
+    <mergeCell ref="D146:D149"/>
+    <mergeCell ref="D150:D153"/>
+    <mergeCell ref="D154:D155"/>
+    <mergeCell ref="B207:B209"/>
+    <mergeCell ref="D207:D209"/>
+    <mergeCell ref="B199:B206"/>
+    <mergeCell ref="D199:D206"/>
+    <mergeCell ref="D164:D169"/>
+    <mergeCell ref="D170:D175"/>
+    <mergeCell ref="D176:D181"/>
+    <mergeCell ref="C146:C149"/>
+    <mergeCell ref="C150:C153"/>
+    <mergeCell ref="C227:C236"/>
+    <mergeCell ref="B227:B236"/>
+    <mergeCell ref="A328:V328"/>
+    <mergeCell ref="D263:D266"/>
+    <mergeCell ref="C263:C266"/>
+    <mergeCell ref="B263:B266"/>
+    <mergeCell ref="B367:B369"/>
+    <mergeCell ref="C367:C369"/>
+    <mergeCell ref="B118:B126"/>
+    <mergeCell ref="D118:D124"/>
+    <mergeCell ref="C118:C126"/>
+    <mergeCell ref="B129:B138"/>
+    <mergeCell ref="B139:B155"/>
+    <mergeCell ref="D141:D145"/>
+    <mergeCell ref="C193:C198"/>
+    <mergeCell ref="D185:D188"/>
+    <mergeCell ref="B210:B214"/>
+    <mergeCell ref="C210:C214"/>
+    <mergeCell ref="D210:D214"/>
+    <mergeCell ref="B157:B182"/>
+    <mergeCell ref="D189:D190"/>
+    <mergeCell ref="B183:B190"/>
+    <mergeCell ref="B333:B335"/>
+    <mergeCell ref="C333:C335"/>
+    <mergeCell ref="D222:D225"/>
+    <mergeCell ref="C222:C225"/>
+    <mergeCell ref="Z215:Z216"/>
+    <mergeCell ref="W215:W217"/>
+    <mergeCell ref="X215:X217"/>
+    <mergeCell ref="Y215:Y217"/>
+    <mergeCell ref="C259:C262"/>
+    <mergeCell ref="B259:B262"/>
+    <mergeCell ref="B237:B240"/>
+    <mergeCell ref="D241:D243"/>
+    <mergeCell ref="D244:D246"/>
+    <mergeCell ref="D247:D251"/>
+    <mergeCell ref="C247:C251"/>
+    <mergeCell ref="B247:B251"/>
+    <mergeCell ref="A257:V257"/>
+    <mergeCell ref="A258:V258"/>
+    <mergeCell ref="A215:J215"/>
+    <mergeCell ref="A216:J216"/>
+    <mergeCell ref="A227:A236"/>
+    <mergeCell ref="D237:D240"/>
+    <mergeCell ref="C237:C240"/>
+    <mergeCell ref="C218:C221"/>
+    <mergeCell ref="D218:D221"/>
+    <mergeCell ref="A218:A224"/>
+    <mergeCell ref="A226:J226"/>
+    <mergeCell ref="D227:D236"/>
+    <mergeCell ref="F391:F394"/>
+    <mergeCell ref="B395:B397"/>
+    <mergeCell ref="C395:C397"/>
+    <mergeCell ref="F395:F397"/>
+    <mergeCell ref="A333:A342"/>
+    <mergeCell ref="B336:B342"/>
+    <mergeCell ref="C336:C342"/>
+    <mergeCell ref="F336:F342"/>
+    <mergeCell ref="A330:A332"/>
+    <mergeCell ref="F387:F389"/>
+    <mergeCell ref="A390:A399"/>
+    <mergeCell ref="F333:F335"/>
+    <mergeCell ref="C370:C374"/>
+    <mergeCell ref="A343:A360"/>
+    <mergeCell ref="B370:B374"/>
+    <mergeCell ref="A361:A366"/>
     <mergeCell ref="B102:B107"/>
     <mergeCell ref="B77:B101"/>
     <mergeCell ref="B66:B76"/>
@@ -33326,183 +33487,22 @@
     <mergeCell ref="C46:C50"/>
     <mergeCell ref="D41:D45"/>
     <mergeCell ref="C41:C45"/>
-    <mergeCell ref="F391:F394"/>
-    <mergeCell ref="B395:B397"/>
-    <mergeCell ref="C395:C397"/>
-    <mergeCell ref="F395:F397"/>
-    <mergeCell ref="A333:A342"/>
-    <mergeCell ref="B336:B342"/>
-    <mergeCell ref="C336:C342"/>
-    <mergeCell ref="F336:F342"/>
-    <mergeCell ref="A330:A332"/>
-    <mergeCell ref="F387:F389"/>
-    <mergeCell ref="A390:A399"/>
-    <mergeCell ref="F333:F335"/>
-    <mergeCell ref="C370:C374"/>
-    <mergeCell ref="A343:A360"/>
-    <mergeCell ref="B370:B374"/>
-    <mergeCell ref="A361:A366"/>
-    <mergeCell ref="Z215:Z216"/>
-    <mergeCell ref="W215:W217"/>
-    <mergeCell ref="X215:X217"/>
-    <mergeCell ref="Y215:Y217"/>
-    <mergeCell ref="C259:C262"/>
-    <mergeCell ref="B259:B262"/>
-    <mergeCell ref="B237:B240"/>
-    <mergeCell ref="D241:D243"/>
-    <mergeCell ref="D244:D246"/>
-    <mergeCell ref="D247:D251"/>
-    <mergeCell ref="C247:C251"/>
-    <mergeCell ref="B247:B251"/>
-    <mergeCell ref="A257:V257"/>
-    <mergeCell ref="A258:V258"/>
-    <mergeCell ref="A215:J215"/>
-    <mergeCell ref="A216:J216"/>
-    <mergeCell ref="A227:A236"/>
-    <mergeCell ref="D237:D240"/>
-    <mergeCell ref="C237:C240"/>
-    <mergeCell ref="C218:C221"/>
-    <mergeCell ref="D218:D221"/>
-    <mergeCell ref="A218:A224"/>
-    <mergeCell ref="A226:J226"/>
-    <mergeCell ref="D227:D236"/>
-    <mergeCell ref="A328:V328"/>
-    <mergeCell ref="D263:D266"/>
-    <mergeCell ref="C263:C266"/>
-    <mergeCell ref="B263:B266"/>
-    <mergeCell ref="B367:B369"/>
-    <mergeCell ref="C367:C369"/>
-    <mergeCell ref="B118:B126"/>
-    <mergeCell ref="D118:D124"/>
-    <mergeCell ref="C118:C126"/>
-    <mergeCell ref="B129:B138"/>
-    <mergeCell ref="B139:B155"/>
-    <mergeCell ref="D141:D145"/>
-    <mergeCell ref="C193:C198"/>
-    <mergeCell ref="D185:D188"/>
-    <mergeCell ref="B210:B214"/>
-    <mergeCell ref="C210:C214"/>
-    <mergeCell ref="D210:D214"/>
-    <mergeCell ref="B157:B182"/>
-    <mergeCell ref="D189:D190"/>
-    <mergeCell ref="B183:B190"/>
-    <mergeCell ref="B333:B335"/>
-    <mergeCell ref="C333:C335"/>
-    <mergeCell ref="D222:D225"/>
-    <mergeCell ref="C222:C225"/>
-    <mergeCell ref="C295:C298"/>
-    <mergeCell ref="A127:V127"/>
-    <mergeCell ref="W160:W161"/>
-    <mergeCell ref="X160:X161"/>
-    <mergeCell ref="Y160:Y161"/>
-    <mergeCell ref="D193:D198"/>
-    <mergeCell ref="B193:B198"/>
-    <mergeCell ref="A129:A190"/>
-    <mergeCell ref="A191:V191"/>
-    <mergeCell ref="A193:A214"/>
-    <mergeCell ref="D146:D149"/>
-    <mergeCell ref="D150:D153"/>
-    <mergeCell ref="D154:D155"/>
-    <mergeCell ref="B207:B209"/>
-    <mergeCell ref="D207:D209"/>
-    <mergeCell ref="B199:B206"/>
-    <mergeCell ref="D199:D206"/>
-    <mergeCell ref="D164:D169"/>
-    <mergeCell ref="D170:D175"/>
-    <mergeCell ref="D176:D181"/>
-    <mergeCell ref="C146:C149"/>
-    <mergeCell ref="C150:C153"/>
-    <mergeCell ref="C227:C236"/>
-    <mergeCell ref="B227:B236"/>
-    <mergeCell ref="A416:A421"/>
-    <mergeCell ref="B416:B421"/>
-    <mergeCell ref="C416:C421"/>
-    <mergeCell ref="D416:D421"/>
-    <mergeCell ref="A400:A403"/>
-    <mergeCell ref="A378:A389"/>
-    <mergeCell ref="A404:A415"/>
-    <mergeCell ref="C404:C407"/>
-    <mergeCell ref="B413:B414"/>
-    <mergeCell ref="B411:B412"/>
-    <mergeCell ref="B404:B407"/>
-    <mergeCell ref="B400:B403"/>
-    <mergeCell ref="C400:C403"/>
-    <mergeCell ref="B379:B382"/>
-    <mergeCell ref="C379:C382"/>
-    <mergeCell ref="B383:B386"/>
-    <mergeCell ref="C383:C386"/>
-    <mergeCell ref="B387:B389"/>
-    <mergeCell ref="C387:C389"/>
-    <mergeCell ref="B390:B394"/>
-    <mergeCell ref="C391:C394"/>
-    <mergeCell ref="B111:B117"/>
-    <mergeCell ref="A295:A298"/>
-    <mergeCell ref="D295:D298"/>
-    <mergeCell ref="C282:C286"/>
-    <mergeCell ref="B282:B286"/>
-    <mergeCell ref="D282:D286"/>
-    <mergeCell ref="B267:B271"/>
-    <mergeCell ref="C267:C271"/>
-    <mergeCell ref="D267:D270"/>
-    <mergeCell ref="C279:C281"/>
-    <mergeCell ref="B279:B281"/>
-    <mergeCell ref="D279:D281"/>
-    <mergeCell ref="D272:D278"/>
-    <mergeCell ref="C272:C278"/>
-    <mergeCell ref="B272:B278"/>
-    <mergeCell ref="C287:C292"/>
-    <mergeCell ref="D287:D292"/>
-    <mergeCell ref="B287:B292"/>
-    <mergeCell ref="A293:J293"/>
-    <mergeCell ref="D133:D134"/>
-    <mergeCell ref="D135:D138"/>
-    <mergeCell ref="B295:B298"/>
-    <mergeCell ref="B222:B225"/>
-    <mergeCell ref="B218:B221"/>
-    <mergeCell ref="C135:C138"/>
-    <mergeCell ref="D139:D140"/>
-    <mergeCell ref="C139:C140"/>
-    <mergeCell ref="C141:C145"/>
-    <mergeCell ref="D55:D58"/>
-    <mergeCell ref="C55:C58"/>
-    <mergeCell ref="D95:D101"/>
-    <mergeCell ref="C95:C101"/>
-    <mergeCell ref="D102:D107"/>
-    <mergeCell ref="C102:C107"/>
-    <mergeCell ref="D125:D126"/>
-    <mergeCell ref="D111:D117"/>
-    <mergeCell ref="C111:C117"/>
-    <mergeCell ref="A108:V108"/>
-    <mergeCell ref="A109:V109"/>
-    <mergeCell ref="D83:D87"/>
-    <mergeCell ref="C83:C87"/>
-    <mergeCell ref="D88:D94"/>
-    <mergeCell ref="C88:C94"/>
-    <mergeCell ref="C73:C76"/>
-    <mergeCell ref="A111:A126"/>
-    <mergeCell ref="D129:D132"/>
-    <mergeCell ref="C129:C132"/>
-    <mergeCell ref="C133:C134"/>
-    <mergeCell ref="C199:C206"/>
-    <mergeCell ref="C207:C209"/>
-    <mergeCell ref="A259:A292"/>
-    <mergeCell ref="D183:D184"/>
-    <mergeCell ref="C154:C155"/>
-    <mergeCell ref="D157:D163"/>
-    <mergeCell ref="C157:C163"/>
-    <mergeCell ref="C164:C169"/>
-    <mergeCell ref="C170:C175"/>
-    <mergeCell ref="C176:C181"/>
-    <mergeCell ref="C183:C184"/>
-    <mergeCell ref="C185:C188"/>
-    <mergeCell ref="C189:C190"/>
-    <mergeCell ref="B252:B256"/>
-    <mergeCell ref="C252:C256"/>
-    <mergeCell ref="D252:D256"/>
-    <mergeCell ref="B241:B246"/>
-    <mergeCell ref="C241:C246"/>
-    <mergeCell ref="A237:A256"/>
-    <mergeCell ref="D259:D262"/>
+    <mergeCell ref="W1:W4"/>
+    <mergeCell ref="X1:X4"/>
+    <mergeCell ref="Y1:Y4"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A2:V2"/>
+    <mergeCell ref="A3:V3"/>
+    <mergeCell ref="A30:V30"/>
+    <mergeCell ref="D31:D36"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="A31:A53"/>
+    <mergeCell ref="B5:B29"/>
+    <mergeCell ref="A5:A29"/>
+    <mergeCell ref="B31:B50"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="D16:D21"/>
+    <mergeCell ref="C37:C40"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0.19685039370078741" header="0.39370078740157483" footer="0.39370078740157483"/>
